--- a/algorithms_results/Yardens_results/Apriori_subgroups_results_delta_10000_0.xlsx
+++ b/algorithms_results/Yardens_results/Apriori_subgroups_results_delta_10000_0.xlsx
@@ -790,7 +790,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>{'Student': '1', 'Hobby': '1'}</t>
+          <t>{'Hobby': '1', 'Student': '1'}</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -806,7 +806,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>{'Hobby': '1', 'FormalEducation': '1'}</t>
+          <t>{'FormalEducation': '1', 'Hobby': '1'}</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -838,7 +838,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>{'DevType': '2', 'Hobby': '1'}</t>
+          <t>{'Hobby': '1', 'DevType': '2'}</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -870,7 +870,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>{'Hobby': '1', 'Gender': '1'}</t>
+          <t>{'Gender': '1', 'Hobby': '1'}</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -886,7 +886,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>{'SexualOrientation': '1', 'Hobby': '1'}</t>
+          <t>{'Hobby': '1', 'SexualOrientation': '1'}</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -902,7 +902,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>{'Hobby': '1', 'Dependents': '2'}</t>
+          <t>{'Dependents': '2', 'Hobby': '1'}</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -934,7 +934,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>{'Hobby': '1', 'Age': '3'}</t>
+          <t>{'Age': '3', 'Hobby': '1'}</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -966,7 +966,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>{'GDP': '1', 'Hobby': '1'}</t>
+          <t>{'Hobby': '1', 'GDP': '1'}</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -1014,7 +1014,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>{'Continent': '2', 'Country': '2'}</t>
+          <t>{'Country': '2', 'Continent': '2'}</t>
         </is>
       </c>
       <c r="B32" t="n">
@@ -1046,7 +1046,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>{'GDP': '2', 'Country': '2'}</t>
+          <t>{'Country': '2', 'GDP': '2'}</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -1078,7 +1078,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>{'Student': '1', 'FormalEducation': '1'}</t>
+          <t>{'FormalEducation': '1', 'Student': '1'}</t>
         </is>
       </c>
       <c r="B36" t="n">
@@ -1094,7 +1094,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>{'Student': '1', 'UndergradMajor': '2'}</t>
+          <t>{'UndergradMajor': '2', 'Student': '1'}</t>
         </is>
       </c>
       <c r="B37" t="n">
@@ -1110,7 +1110,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>{'DevType': '2', 'Student': '1'}</t>
+          <t>{'Student': '1', 'DevType': '2'}</t>
         </is>
       </c>
       <c r="B38" t="n">
@@ -1126,7 +1126,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>{'Student': '1', 'HoursComputer': '2'}</t>
+          <t>{'HoursComputer': '2', 'Student': '1'}</t>
         </is>
       </c>
       <c r="B39" t="n">
@@ -1142,7 +1142,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>{'Student': '1', 'Gender': '1'}</t>
+          <t>{'Gender': '1', 'Student': '1'}</t>
         </is>
       </c>
       <c r="B40" t="n">
@@ -1174,7 +1174,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>{'Student': '1', 'Dependents': '2'}</t>
+          <t>{'Dependents': '2', 'Student': '1'}</t>
         </is>
       </c>
       <c r="B42" t="n">
@@ -1206,7 +1206,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>{'Continent': '2', 'Student': '1'}</t>
+          <t>{'Student': '1', 'Continent': '2'}</t>
         </is>
       </c>
       <c r="B44" t="n">
@@ -1222,7 +1222,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>{'Student': '1', 'Age': '3'}</t>
+          <t>{'Age': '3', 'Student': '1'}</t>
         </is>
       </c>
       <c r="B45" t="n">
@@ -1238,7 +1238,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>{'Student': '1', 'HDI': '1'}</t>
+          <t>{'HDI': '1', 'Student': '1'}</t>
         </is>
       </c>
       <c r="B46" t="n">
@@ -1254,7 +1254,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>{'Student': '1', 'GDP': '1'}</t>
+          <t>{'GDP': '1', 'Student': '1'}</t>
         </is>
       </c>
       <c r="B47" t="n">
@@ -1270,7 +1270,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>{'Student': '1', 'GINI': '1'}</t>
+          <t>{'GINI': '1', 'Student': '1'}</t>
         </is>
       </c>
       <c r="B48" t="n">
@@ -1286,7 +1286,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>{'Student': '1', 'GINI': '2'}</t>
+          <t>{'GINI': '2', 'Student': '1'}</t>
         </is>
       </c>
       <c r="B49" t="n">
@@ -1318,7 +1318,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>{'SexualOrientation': '1', 'FormalEducation': '1'}</t>
+          <t>{'FormalEducation': '1', 'SexualOrientation': '1'}</t>
         </is>
       </c>
       <c r="B51" t="n">
@@ -1334,7 +1334,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>{'HDI': '1', 'FormalEducation': '1'}</t>
+          <t>{'FormalEducation': '1', 'HDI': '1'}</t>
         </is>
       </c>
       <c r="B52" t="n">
@@ -1350,7 +1350,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>{'DevType': '2', 'UndergradMajor': '2'}</t>
+          <t>{'UndergradMajor': '2', 'DevType': '2'}</t>
         </is>
       </c>
       <c r="B53" t="n">
@@ -1366,7 +1366,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>{'HoursComputer': '2', 'UndergradMajor': '2'}</t>
+          <t>{'UndergradMajor': '2', 'HoursComputer': '2'}</t>
         </is>
       </c>
       <c r="B54" t="n">
@@ -1382,7 +1382,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>{'UndergradMajor': '2', 'Gender': '1'}</t>
+          <t>{'Gender': '1', 'UndergradMajor': '2'}</t>
         </is>
       </c>
       <c r="B55" t="n">
@@ -1398,7 +1398,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>{'SexualOrientation': '1', 'UndergradMajor': '2'}</t>
+          <t>{'UndergradMajor': '2', 'SexualOrientation': '1'}</t>
         </is>
       </c>
       <c r="B56" t="n">
@@ -1446,7 +1446,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>{'DevType': '2', 'HoursComputer': '2'}</t>
+          <t>{'HoursComputer': '2', 'DevType': '2'}</t>
         </is>
       </c>
       <c r="B59" t="n">
@@ -1462,7 +1462,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>{'DevType': '2', 'Gender': '1'}</t>
+          <t>{'Gender': '1', 'DevType': '2'}</t>
         </is>
       </c>
       <c r="B60" t="n">
@@ -1494,7 +1494,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>{'DevType': '2', 'Dependents': '2'}</t>
+          <t>{'Dependents': '2', 'DevType': '2'}</t>
         </is>
       </c>
       <c r="B62" t="n">
@@ -1510,7 +1510,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>{'DevType': '2', 'HDI': '1'}</t>
+          <t>{'HDI': '1', 'DevType': '2'}</t>
         </is>
       </c>
       <c r="B63" t="n">
@@ -1526,7 +1526,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>{'HoursComputer': '2', 'Gender': '1'}</t>
+          <t>{'Gender': '1', 'HoursComputer': '2'}</t>
         </is>
       </c>
       <c r="B64" t="n">
@@ -1542,7 +1542,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>{'SexualOrientation': '1', 'HoursComputer': '2'}</t>
+          <t>{'HoursComputer': '2', 'SexualOrientation': '1'}</t>
         </is>
       </c>
       <c r="B65" t="n">
@@ -1590,7 +1590,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>{'SexualOrientation': '1', 'Gender': '1'}</t>
+          <t>{'Gender': '1', 'SexualOrientation': '1'}</t>
         </is>
       </c>
       <c r="B68" t="n">
@@ -1606,7 +1606,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>{'Dependents': '2', 'Gender': '1'}</t>
+          <t>{'Gender': '1', 'Dependents': '2'}</t>
         </is>
       </c>
       <c r="B69" t="n">
@@ -1622,7 +1622,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>{'Continent': '1', 'Gender': '1'}</t>
+          <t>{'Gender': '1', 'Continent': '1'}</t>
         </is>
       </c>
       <c r="B70" t="n">
@@ -1638,7 +1638,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>{'Age': '3', 'Gender': '1'}</t>
+          <t>{'Gender': '1', 'Age': '3'}</t>
         </is>
       </c>
       <c r="B71" t="n">
@@ -1654,7 +1654,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>{'HDI': '1', 'Gender': '1'}</t>
+          <t>{'Gender': '1', 'HDI': '1'}</t>
         </is>
       </c>
       <c r="B72" t="n">
@@ -1670,7 +1670,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>{'GDP': '1', 'Gender': '1'}</t>
+          <t>{'Gender': '1', 'GDP': '1'}</t>
         </is>
       </c>
       <c r="B73" t="n">
@@ -1686,7 +1686,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>{'GINI': '2', 'Gender': '1'}</t>
+          <t>{'Gender': '1', 'GINI': '2'}</t>
         </is>
       </c>
       <c r="B74" t="n">
@@ -1702,7 +1702,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>{'SexualOrientation': '1', 'Dependents': '2'}</t>
+          <t>{'Dependents': '2', 'SexualOrientation': '1'}</t>
         </is>
       </c>
       <c r="B75" t="n">
@@ -1734,7 +1734,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>{'SexualOrientation': '1', 'Age': '3'}</t>
+          <t>{'Age': '3', 'SexualOrientation': '1'}</t>
         </is>
       </c>
       <c r="B77" t="n">
@@ -1750,7 +1750,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>{'SexualOrientation': '1', 'HDI': '1'}</t>
+          <t>{'HDI': '1', 'SexualOrientation': '1'}</t>
         </is>
       </c>
       <c r="B78" t="n">
@@ -1782,7 +1782,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>{'SexualOrientation': '1', 'GINI': '1'}</t>
+          <t>{'GINI': '1', 'SexualOrientation': '1'}</t>
         </is>
       </c>
       <c r="B80" t="n">
@@ -1798,7 +1798,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>{'SexualOrientation': '1', 'GINI': '2'}</t>
+          <t>{'GINI': '2', 'SexualOrientation': '1'}</t>
         </is>
       </c>
       <c r="B81" t="n">
@@ -1814,7 +1814,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>{'Continent': '1', 'Dependents': '2'}</t>
+          <t>{'Dependents': '2', 'Continent': '1'}</t>
         </is>
       </c>
       <c r="B82" t="n">
@@ -1846,7 +1846,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>{'HDI': '1', 'Dependents': '2'}</t>
+          <t>{'Dependents': '2', 'HDI': '1'}</t>
         </is>
       </c>
       <c r="B84" t="n">
@@ -1862,7 +1862,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>{'GDP': '1', 'Dependents': '2'}</t>
+          <t>{'Dependents': '2', 'GDP': '1'}</t>
         </is>
       </c>
       <c r="B85" t="n">
@@ -1926,7 +1926,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>{'Continent': '2', 'GINI': '2'}</t>
+          <t>{'GINI': '2', 'Continent': '2'}</t>
         </is>
       </c>
       <c r="B89" t="n">
@@ -1942,7 +1942,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>{'HDI': '1', 'Age': '3'}</t>
+          <t>{'Age': '3', 'HDI': '1'}</t>
         </is>
       </c>
       <c r="B90" t="n">
@@ -1974,7 +1974,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>{'GDP': '2', 'HDI': '1'}</t>
+          <t>{'HDI': '1', 'GDP': '2'}</t>
         </is>
       </c>
       <c r="B92" t="n">
@@ -2022,7 +2022,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>{'GDP': '1', 'GINI': '1'}</t>
+          <t>{'GINI': '1', 'GDP': '1'}</t>
         </is>
       </c>
       <c r="B95" t="n">
@@ -2054,7 +2054,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>{'Student': '1', 'UndergradMajor': '2', 'Hobby': '1'}</t>
+          <t>{'UndergradMajor': '2', 'Hobby': '1', 'Student': '1'}</t>
         </is>
       </c>
       <c r="B97" t="n">
@@ -2070,7 +2070,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>{'DevType': '2', 'Student': '1', 'Hobby': '1'}</t>
+          <t>{'Hobby': '1', 'Student': '1', 'DevType': '2'}</t>
         </is>
       </c>
       <c r="B98" t="n">
@@ -2086,7 +2086,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>{'HoursComputer': '2', 'Student': '1', 'Hobby': '1'}</t>
+          <t>{'HoursComputer': '2', 'Hobby': '1', 'Student': '1'}</t>
         </is>
       </c>
       <c r="B99" t="n">
@@ -2102,7 +2102,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>{'Student': '1', 'Hobby': '1', 'Gender': '1'}</t>
+          <t>{'Gender': '1', 'Hobby': '1', 'Student': '1'}</t>
         </is>
       </c>
       <c r="B100" t="n">
@@ -2118,7 +2118,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>{'Student': '1', 'SexualOrientation': '1', 'Hobby': '1'}</t>
+          <t>{'Hobby': '1', 'Student': '1', 'SexualOrientation': '1'}</t>
         </is>
       </c>
       <c r="B101" t="n">
@@ -2134,7 +2134,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>{'Student': '1', 'Hobby': '1', 'Dependents': '2'}</t>
+          <t>{'Dependents': '2', 'Hobby': '1', 'Student': '1'}</t>
         </is>
       </c>
       <c r="B102" t="n">
@@ -2150,7 +2150,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>{'Student': '1', 'Hobby': '1', 'Age': '3'}</t>
+          <t>{'Age': '3', 'Hobby': '1', 'Student': '1'}</t>
         </is>
       </c>
       <c r="B103" t="n">
@@ -2166,7 +2166,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>{'Student': '1', 'Hobby': '1', 'HDI': '1'}</t>
+          <t>{'Hobby': '1', 'Student': '1', 'HDI': '1'}</t>
         </is>
       </c>
       <c r="B104" t="n">
@@ -2182,7 +2182,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>{'Student': '1', 'GDP': '1', 'Hobby': '1'}</t>
+          <t>{'Hobby': '1', 'Student': '1', 'GDP': '1'}</t>
         </is>
       </c>
       <c r="B105" t="n">
@@ -2198,7 +2198,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>{'Hobby': '1', 'Gender': '1', 'FormalEducation': '1'}</t>
+          <t>{'Gender': '1', 'FormalEducation': '1', 'Hobby': '1'}</t>
         </is>
       </c>
       <c r="B106" t="n">
@@ -2214,7 +2214,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>{'SexualOrientation': '1', 'Hobby': '1', 'FormalEducation': '1'}</t>
+          <t>{'FormalEducation': '1', 'Hobby': '1', 'SexualOrientation': '1'}</t>
         </is>
       </c>
       <c r="B107" t="n">
@@ -2230,7 +2230,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>{'UndergradMajor': '2', 'Hobby': '1', 'Gender': '1'}</t>
+          <t>{'Gender': '1', 'UndergradMajor': '2', 'Hobby': '1'}</t>
         </is>
       </c>
       <c r="B108" t="n">
@@ -2246,7 +2246,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>{'SexualOrientation': '1', 'UndergradMajor': '2', 'Hobby': '1'}</t>
+          <t>{'UndergradMajor': '2', 'Hobby': '1', 'SexualOrientation': '1'}</t>
         </is>
       </c>
       <c r="B109" t="n">
@@ -2262,7 +2262,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>{'UndergradMajor': '2', 'Hobby': '1', 'Dependents': '2'}</t>
+          <t>{'Dependents': '2', 'Hobby': '1', 'UndergradMajor': '2'}</t>
         </is>
       </c>
       <c r="B110" t="n">
@@ -2294,7 +2294,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>{'DevType': '2', 'Hobby': '1', 'Gender': '1'}</t>
+          <t>{'Gender': '1', 'Hobby': '1', 'DevType': '2'}</t>
         </is>
       </c>
       <c r="B112" t="n">
@@ -2310,7 +2310,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>{'DevType': '2', 'SexualOrientation': '1', 'Hobby': '1'}</t>
+          <t>{'Hobby': '1', 'DevType': '2', 'SexualOrientation': '1'}</t>
         </is>
       </c>
       <c r="B113" t="n">
@@ -2326,7 +2326,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>{'DevType': '2', 'Hobby': '1', 'Dependents': '2'}</t>
+          <t>{'Dependents': '2', 'Hobby': '1', 'DevType': '2'}</t>
         </is>
       </c>
       <c r="B114" t="n">
@@ -2342,7 +2342,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>{'DevType': '2', 'Hobby': '1', 'HDI': '1'}</t>
+          <t>{'Hobby': '1', 'DevType': '2', 'HDI': '1'}</t>
         </is>
       </c>
       <c r="B115" t="n">
@@ -2358,7 +2358,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>{'HoursComputer': '2', 'Hobby': '1', 'Gender': '1'}</t>
+          <t>{'Gender': '1', 'HoursComputer': '2', 'Hobby': '1'}</t>
         </is>
       </c>
       <c r="B116" t="n">
@@ -2374,7 +2374,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>{'HoursComputer': '2', 'SexualOrientation': '1', 'Hobby': '1'}</t>
+          <t>{'HoursComputer': '2', 'Hobby': '1', 'SexualOrientation': '1'}</t>
         </is>
       </c>
       <c r="B117" t="n">
@@ -2406,7 +2406,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>{'SexualOrientation': '1', 'Hobby': '1', 'Gender': '1'}</t>
+          <t>{'Gender': '1', 'Hobby': '1', 'SexualOrientation': '1'}</t>
         </is>
       </c>
       <c r="B119" t="n">
@@ -2422,7 +2422,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>{'Dependents': '2', 'Hobby': '1', 'Gender': '1'}</t>
+          <t>{'Gender': '1', 'Dependents': '2', 'Hobby': '1'}</t>
         </is>
       </c>
       <c r="B120" t="n">
@@ -2438,7 +2438,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>{'Hobby': '1', 'Continent': '1', 'Gender': '1'}</t>
+          <t>{'Gender': '1', 'Hobby': '1', 'Continent': '1'}</t>
         </is>
       </c>
       <c r="B121" t="n">
@@ -2454,7 +2454,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>{'Age': '3', 'Hobby': '1', 'Gender': '1'}</t>
+          <t>{'Gender': '1', 'Age': '3', 'Hobby': '1'}</t>
         </is>
       </c>
       <c r="B122" t="n">
@@ -2470,7 +2470,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>{'Hobby': '1', 'HDI': '1', 'Gender': '1'}</t>
+          <t>{'Gender': '1', 'Hobby': '1', 'HDI': '1'}</t>
         </is>
       </c>
       <c r="B123" t="n">
@@ -2486,7 +2486,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>{'GDP': '1', 'Hobby': '1', 'Gender': '1'}</t>
+          <t>{'Gender': '1', 'Hobby': '1', 'GDP': '1'}</t>
         </is>
       </c>
       <c r="B124" t="n">
@@ -2502,7 +2502,7 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>{'GINI': '2', 'Hobby': '1', 'Gender': '1'}</t>
+          <t>{'Gender': '1', 'Hobby': '1', 'GINI': '2'}</t>
         </is>
       </c>
       <c r="B125" t="n">
@@ -2518,7 +2518,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>{'SexualOrientation': '1', 'Hobby': '1', 'Dependents': '2'}</t>
+          <t>{'Dependents': '2', 'Hobby': '1', 'SexualOrientation': '1'}</t>
         </is>
       </c>
       <c r="B126" t="n">
@@ -2550,7 +2550,7 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>{'SexualOrientation': '1', 'Hobby': '1', 'Age': '3'}</t>
+          <t>{'Age': '3', 'Hobby': '1', 'SexualOrientation': '1'}</t>
         </is>
       </c>
       <c r="B128" t="n">
@@ -2566,7 +2566,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>{'SexualOrientation': '1', 'Hobby': '1', 'HDI': '1'}</t>
+          <t>{'Hobby': '1', 'SexualOrientation': '1', 'HDI': '1'}</t>
         </is>
       </c>
       <c r="B129" t="n">
@@ -2582,7 +2582,7 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>{'SexualOrientation': '1', 'GDP': '1', 'Hobby': '1'}</t>
+          <t>{'Hobby': '1', 'SexualOrientation': '1', 'GDP': '1'}</t>
         </is>
       </c>
       <c r="B130" t="n">
@@ -2598,7 +2598,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>{'SexualOrientation': '1', 'Hobby': '1', 'GINI': '2'}</t>
+          <t>{'GINI': '2', 'Hobby': '1', 'SexualOrientation': '1'}</t>
         </is>
       </c>
       <c r="B131" t="n">
@@ -2614,7 +2614,7 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>{'Hobby': '1', 'HDI': '1', 'Dependents': '2'}</t>
+          <t>{'Dependents': '2', 'Hobby': '1', 'HDI': '1'}</t>
         </is>
       </c>
       <c r="B132" t="n">
@@ -2630,7 +2630,7 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>{'Hobby': '1', 'HDI': '1', 'Age': '3'}</t>
+          <t>{'Age': '3', 'Hobby': '1', 'HDI': '1'}</t>
         </is>
       </c>
       <c r="B133" t="n">
@@ -2646,7 +2646,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>{'GDP': '1', 'Hobby': '1', 'HDI': '1'}</t>
+          <t>{'Hobby': '1', 'HDI': '1', 'GDP': '1'}</t>
         </is>
       </c>
       <c r="B134" t="n">
@@ -2662,7 +2662,7 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>{'Continent': '2', 'HDI': '1', 'Country': '2'}</t>
+          <t>{'HDI': '1', 'Country': '2', 'Continent': '2'}</t>
         </is>
       </c>
       <c r="B135" t="n">
@@ -2678,7 +2678,7 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>{'Continent': '2', 'GDP': '2', 'Country': '2'}</t>
+          <t>{'Country': '2', 'Continent': '2', 'GDP': '2'}</t>
         </is>
       </c>
       <c r="B136" t="n">
@@ -2694,7 +2694,7 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>{'Continent': '2', 'GINI': '2', 'Country': '2'}</t>
+          <t>{'GINI': '2', 'Country': '2', 'Continent': '2'}</t>
         </is>
       </c>
       <c r="B137" t="n">
@@ -2710,7 +2710,7 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>{'GDP': '2', 'HDI': '1', 'Country': '2'}</t>
+          <t>{'HDI': '1', 'Country': '2', 'GDP': '2'}</t>
         </is>
       </c>
       <c r="B138" t="n">
@@ -2742,7 +2742,7 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>{'GINI': '2', 'GDP': '2', 'Country': '2'}</t>
+          <t>{'GINI': '2', 'Country': '2', 'GDP': '2'}</t>
         </is>
       </c>
       <c r="B140" t="n">
@@ -2758,7 +2758,7 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>{'Student': '1', 'Gender': '1', 'FormalEducation': '1'}</t>
+          <t>{'Gender': '1', 'FormalEducation': '1', 'Student': '1'}</t>
         </is>
       </c>
       <c r="B141" t="n">
@@ -2774,7 +2774,7 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>{'Student': '1', 'SexualOrientation': '1', 'FormalEducation': '1'}</t>
+          <t>{'FormalEducation': '1', 'Student': '1', 'SexualOrientation': '1'}</t>
         </is>
       </c>
       <c r="B142" t="n">
@@ -2790,7 +2790,7 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>{'Student': '1', 'HDI': '1', 'FormalEducation': '1'}</t>
+          <t>{'FormalEducation': '1', 'HDI': '1', 'Student': '1'}</t>
         </is>
       </c>
       <c r="B143" t="n">
@@ -2806,7 +2806,7 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>{'Student': '1', 'UndergradMajor': '2', 'Gender': '1'}</t>
+          <t>{'Gender': '1', 'UndergradMajor': '2', 'Student': '1'}</t>
         </is>
       </c>
       <c r="B144" t="n">
@@ -2822,7 +2822,7 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>{'Student': '1', 'SexualOrientation': '1', 'UndergradMajor': '2'}</t>
+          <t>{'UndergradMajor': '2', 'Student': '1', 'SexualOrientation': '1'}</t>
         </is>
       </c>
       <c r="B145" t="n">
@@ -2838,7 +2838,7 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>{'Student': '1', 'UndergradMajor': '2', 'Dependents': '2'}</t>
+          <t>{'UndergradMajor': '2', 'Dependents': '2', 'Student': '1'}</t>
         </is>
       </c>
       <c r="B146" t="n">
@@ -2854,7 +2854,7 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>{'Student': '1', 'UndergradMajor': '2', 'HDI': '1'}</t>
+          <t>{'UndergradMajor': '2', 'HDI': '1', 'Student': '1'}</t>
         </is>
       </c>
       <c r="B147" t="n">
@@ -2870,7 +2870,7 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>{'DevType': '2', 'Student': '1', 'Gender': '1'}</t>
+          <t>{'Gender': '1', 'Student': '1', 'DevType': '2'}</t>
         </is>
       </c>
       <c r="B148" t="n">
@@ -2886,7 +2886,7 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>{'DevType': '2', 'Student': '1', 'SexualOrientation': '1'}</t>
+          <t>{'Student': '1', 'DevType': '2', 'SexualOrientation': '1'}</t>
         </is>
       </c>
       <c r="B149" t="n">
@@ -2902,7 +2902,7 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>{'DevType': '2', 'Student': '1', 'Dependents': '2'}</t>
+          <t>{'Dependents': '2', 'Student': '1', 'DevType': '2'}</t>
         </is>
       </c>
       <c r="B150" t="n">
@@ -2918,7 +2918,7 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>{'DevType': '2', 'Student': '1', 'HDI': '1'}</t>
+          <t>{'HDI': '1', 'Student': '1', 'DevType': '2'}</t>
         </is>
       </c>
       <c r="B151" t="n">
@@ -2934,7 +2934,7 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>{'Student': '1', 'HoursComputer': '2', 'Gender': '1'}</t>
+          <t>{'Gender': '1', 'HoursComputer': '2', 'Student': '1'}</t>
         </is>
       </c>
       <c r="B152" t="n">
@@ -2950,7 +2950,7 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>{'Student': '1', 'SexualOrientation': '1', 'HoursComputer': '2'}</t>
+          <t>{'HoursComputer': '2', 'Student': '1', 'SexualOrientation': '1'}</t>
         </is>
       </c>
       <c r="B153" t="n">
@@ -2966,7 +2966,7 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>{'Student': '1', 'HoursComputer': '2', 'HDI': '1'}</t>
+          <t>{'HoursComputer': '2', 'HDI': '1', 'Student': '1'}</t>
         </is>
       </c>
       <c r="B154" t="n">
@@ -2982,7 +2982,7 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>{'Student': '1', 'SexualOrientation': '1', 'Gender': '1'}</t>
+          <t>{'Gender': '1', 'Student': '1', 'SexualOrientation': '1'}</t>
         </is>
       </c>
       <c r="B155" t="n">
@@ -2998,7 +2998,7 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>{'Dependents': '2', 'Student': '1', 'Gender': '1'}</t>
+          <t>{'Gender': '1', 'Dependents': '2', 'Student': '1'}</t>
         </is>
       </c>
       <c r="B156" t="n">
@@ -3014,7 +3014,7 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>{'Student': '1', 'Continent': '1', 'Gender': '1'}</t>
+          <t>{'Gender': '1', 'Student': '1', 'Continent': '1'}</t>
         </is>
       </c>
       <c r="B157" t="n">
@@ -3030,7 +3030,7 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>{'Age': '3', 'Student': '1', 'Gender': '1'}</t>
+          <t>{'Gender': '1', 'Age': '3', 'Student': '1'}</t>
         </is>
       </c>
       <c r="B158" t="n">
@@ -3046,7 +3046,7 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>{'Student': '1', 'HDI': '1', 'Gender': '1'}</t>
+          <t>{'Gender': '1', 'HDI': '1', 'Student': '1'}</t>
         </is>
       </c>
       <c r="B159" t="n">
@@ -3062,7 +3062,7 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>{'Student': '1', 'GDP': '1', 'Gender': '1'}</t>
+          <t>{'Gender': '1', 'GDP': '1', 'Student': '1'}</t>
         </is>
       </c>
       <c r="B160" t="n">
@@ -3078,7 +3078,7 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>{'Student': '1', 'GINI': '2', 'Gender': '1'}</t>
+          <t>{'Gender': '1', 'Student': '1', 'GINI': '2'}</t>
         </is>
       </c>
       <c r="B161" t="n">
@@ -3094,7 +3094,7 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>{'Student': '1', 'SexualOrientation': '1', 'Dependents': '2'}</t>
+          <t>{'Dependents': '2', 'Student': '1', 'SexualOrientation': '1'}</t>
         </is>
       </c>
       <c r="B162" t="n">
@@ -3110,7 +3110,7 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>{'Student': '1', 'SexualOrientation': '1', 'Continent': '1'}</t>
+          <t>{'SexualOrientation': '1', 'Student': '1', 'Continent': '1'}</t>
         </is>
       </c>
       <c r="B163" t="n">
@@ -3126,7 +3126,7 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>{'Student': '1', 'SexualOrientation': '1', 'Age': '3'}</t>
+          <t>{'Age': '3', 'Student': '1', 'SexualOrientation': '1'}</t>
         </is>
       </c>
       <c r="B164" t="n">
@@ -3142,7 +3142,7 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>{'Student': '1', 'SexualOrientation': '1', 'HDI': '1'}</t>
+          <t>{'HDI': '1', 'Student': '1', 'SexualOrientation': '1'}</t>
         </is>
       </c>
       <c r="B165" t="n">
@@ -3158,7 +3158,7 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>{'Student': '1', 'GDP': '1', 'SexualOrientation': '1'}</t>
+          <t>{'GDP': '1', 'Student': '1', 'SexualOrientation': '1'}</t>
         </is>
       </c>
       <c r="B166" t="n">
@@ -3174,7 +3174,7 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>{'Student': '1', 'GINI': '2', 'SexualOrientation': '1'}</t>
+          <t>{'GINI': '2', 'Student': '1', 'SexualOrientation': '1'}</t>
         </is>
       </c>
       <c r="B167" t="n">
@@ -3190,7 +3190,7 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>{'Age': '3', 'Student': '1', 'Dependents': '2'}</t>
+          <t>{'Age': '3', 'Dependents': '2', 'Student': '1'}</t>
         </is>
       </c>
       <c r="B168" t="n">
@@ -3206,7 +3206,7 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>{'Student': '1', 'HDI': '1', 'Dependents': '2'}</t>
+          <t>{'Dependents': '2', 'Student': '1', 'HDI': '1'}</t>
         </is>
       </c>
       <c r="B169" t="n">
@@ -3222,7 +3222,7 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>{'Continent': '2', 'Student': '1', 'HDI': '1'}</t>
+          <t>{'Student': '1', 'Continent': '2', 'HDI': '1'}</t>
         </is>
       </c>
       <c r="B170" t="n">
@@ -3238,7 +3238,7 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>{'Student': '1', 'HDI': '1', 'Age': '3'}</t>
+          <t>{'Age': '3', 'HDI': '1', 'Student': '1'}</t>
         </is>
       </c>
       <c r="B171" t="n">
@@ -3254,7 +3254,7 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>{'Student': '1', 'GDP': '1', 'HDI': '1'}</t>
+          <t>{'GDP': '1', 'Student': '1', 'HDI': '1'}</t>
         </is>
       </c>
       <c r="B172" t="n">
@@ -3270,7 +3270,7 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>{'SexualOrientation': '1', 'Gender': '1', 'FormalEducation': '1'}</t>
+          <t>{'Gender': '1', 'FormalEducation': '1', 'SexualOrientation': '1'}</t>
         </is>
       </c>
       <c r="B173" t="n">
@@ -3286,7 +3286,7 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>{'HDI': '1', 'Gender': '1', 'FormalEducation': '1'}</t>
+          <t>{'Gender': '1', 'FormalEducation': '1', 'HDI': '1'}</t>
         </is>
       </c>
       <c r="B174" t="n">
@@ -3302,7 +3302,7 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>{'SexualOrientation': '1', 'HDI': '1', 'FormalEducation': '1'}</t>
+          <t>{'FormalEducation': '1', 'HDI': '1', 'SexualOrientation': '1'}</t>
         </is>
       </c>
       <c r="B175" t="n">
@@ -3318,7 +3318,7 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>{'DevType': '2', 'UndergradMajor': '2', 'Gender': '1'}</t>
+          <t>{'Gender': '1', 'UndergradMajor': '2', 'DevType': '2'}</t>
         </is>
       </c>
       <c r="B176" t="n">
@@ -3334,7 +3334,7 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>{'DevType': '2', 'SexualOrientation': '1', 'UndergradMajor': '2'}</t>
+          <t>{'UndergradMajor': '2', 'DevType': '2', 'SexualOrientation': '1'}</t>
         </is>
       </c>
       <c r="B177" t="n">
@@ -3350,7 +3350,7 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>{'SexualOrientation': '1', 'UndergradMajor': '2', 'Gender': '1'}</t>
+          <t>{'Gender': '1', 'UndergradMajor': '2', 'SexualOrientation': '1'}</t>
         </is>
       </c>
       <c r="B178" t="n">
@@ -3366,7 +3366,7 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>{'Dependents': '2', 'UndergradMajor': '2', 'Gender': '1'}</t>
+          <t>{'Gender': '1', 'UndergradMajor': '2', 'Dependents': '2'}</t>
         </is>
       </c>
       <c r="B179" t="n">
@@ -3382,7 +3382,7 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>{'UndergradMajor': '2', 'HDI': '1', 'Gender': '1'}</t>
+          <t>{'Gender': '1', 'UndergradMajor': '2', 'HDI': '1'}</t>
         </is>
       </c>
       <c r="B180" t="n">
@@ -3398,7 +3398,7 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>{'SexualOrientation': '1', 'UndergradMajor': '2', 'Dependents': '2'}</t>
+          <t>{'UndergradMajor': '2', 'Dependents': '2', 'SexualOrientation': '1'}</t>
         </is>
       </c>
       <c r="B181" t="n">
@@ -3414,7 +3414,7 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>{'SexualOrientation': '1', 'UndergradMajor': '2', 'HDI': '1'}</t>
+          <t>{'UndergradMajor': '2', 'HDI': '1', 'SexualOrientation': '1'}</t>
         </is>
       </c>
       <c r="B182" t="n">
@@ -3430,7 +3430,7 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>{'UndergradMajor': '2', 'HDI': '1', 'Dependents': '2'}</t>
+          <t>{'UndergradMajor': '2', 'Dependents': '2', 'HDI': '1'}</t>
         </is>
       </c>
       <c r="B183" t="n">
@@ -3446,7 +3446,7 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>{'DevType': '2', 'SexualOrientation': '1', 'Gender': '1'}</t>
+          <t>{'Gender': '1', 'DevType': '2', 'SexualOrientation': '1'}</t>
         </is>
       </c>
       <c r="B184" t="n">
@@ -3462,7 +3462,7 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>{'Dependents': '2', 'DevType': '2', 'Gender': '1'}</t>
+          <t>{'Gender': '1', 'Dependents': '2', 'DevType': '2'}</t>
         </is>
       </c>
       <c r="B185" t="n">
@@ -3478,7 +3478,7 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>{'DevType': '2', 'HDI': '1', 'Gender': '1'}</t>
+          <t>{'Gender': '1', 'HDI': '1', 'DevType': '2'}</t>
         </is>
       </c>
       <c r="B186" t="n">
@@ -3494,7 +3494,7 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>{'DevType': '2', 'SexualOrientation': '1', 'Dependents': '2'}</t>
+          <t>{'Dependents': '2', 'DevType': '2', 'SexualOrientation': '1'}</t>
         </is>
       </c>
       <c r="B187" t="n">
@@ -3510,7 +3510,7 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>{'DevType': '2', 'SexualOrientation': '1', 'HDI': '1'}</t>
+          <t>{'HDI': '1', 'DevType': '2', 'SexualOrientation': '1'}</t>
         </is>
       </c>
       <c r="B188" t="n">
@@ -3526,7 +3526,7 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>{'DevType': '2', 'HDI': '1', 'Dependents': '2'}</t>
+          <t>{'Dependents': '2', 'DevType': '2', 'HDI': '1'}</t>
         </is>
       </c>
       <c r="B189" t="n">
@@ -3542,7 +3542,7 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>{'SexualOrientation': '1', 'HoursComputer': '2', 'Gender': '1'}</t>
+          <t>{'Gender': '1', 'HoursComputer': '2', 'SexualOrientation': '1'}</t>
         </is>
       </c>
       <c r="B190" t="n">
@@ -3558,7 +3558,7 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>{'Dependents': '2', 'HoursComputer': '2', 'Gender': '1'}</t>
+          <t>{'Gender': '1', 'HoursComputer': '2', 'Dependents': '2'}</t>
         </is>
       </c>
       <c r="B191" t="n">
@@ -3574,7 +3574,7 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>{'HoursComputer': '2', 'HDI': '1', 'Gender': '1'}</t>
+          <t>{'Gender': '1', 'HoursComputer': '2', 'HDI': '1'}</t>
         </is>
       </c>
       <c r="B192" t="n">
@@ -3590,7 +3590,7 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>{'SexualOrientation': '1', 'HoursComputer': '2', 'Dependents': '2'}</t>
+          <t>{'HoursComputer': '2', 'Dependents': '2', 'SexualOrientation': '1'}</t>
         </is>
       </c>
       <c r="B193" t="n">
@@ -3606,7 +3606,7 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>{'SexualOrientation': '1', 'HoursComputer': '2', 'HDI': '1'}</t>
+          <t>{'HoursComputer': '2', 'HDI': '1', 'SexualOrientation': '1'}</t>
         </is>
       </c>
       <c r="B194" t="n">
@@ -3622,7 +3622,7 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>{'Dependents': '2', 'SexualOrientation': '1', 'Gender': '1'}</t>
+          <t>{'Gender': '1', 'Dependents': '2', 'SexualOrientation': '1'}</t>
         </is>
       </c>
       <c r="B195" t="n">
@@ -3638,7 +3638,7 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>{'SexualOrientation': '1', 'Continent': '1', 'Gender': '1'}</t>
+          <t>{'Gender': '1', 'SexualOrientation': '1', 'Continent': '1'}</t>
         </is>
       </c>
       <c r="B196" t="n">
@@ -3654,7 +3654,7 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>{'Age': '3', 'SexualOrientation': '1', 'Gender': '1'}</t>
+          <t>{'Gender': '1', 'Age': '3', 'SexualOrientation': '1'}</t>
         </is>
       </c>
       <c r="B197" t="n">
@@ -3670,7 +3670,7 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>{'SexualOrientation': '1', 'HDI': '1', 'Gender': '1'}</t>
+          <t>{'Gender': '1', 'HDI': '1', 'SexualOrientation': '1'}</t>
         </is>
       </c>
       <c r="B198" t="n">
@@ -3686,7 +3686,7 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>{'GDP': '1', 'SexualOrientation': '1', 'Gender': '1'}</t>
+          <t>{'Gender': '1', 'GDP': '1', 'SexualOrientation': '1'}</t>
         </is>
       </c>
       <c r="B199" t="n">
@@ -3702,7 +3702,7 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>{'SexualOrientation': '1', 'GINI': '1', 'Gender': '1'}</t>
+          <t>{'GINI': '1', 'Gender': '1', 'SexualOrientation': '1'}</t>
         </is>
       </c>
       <c r="B200" t="n">
@@ -3718,7 +3718,7 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>{'SexualOrientation': '1', 'GINI': '2', 'Gender': '1'}</t>
+          <t>{'Gender': '1', 'SexualOrientation': '1', 'GINI': '2'}</t>
         </is>
       </c>
       <c r="B201" t="n">
@@ -3734,7 +3734,7 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>{'Dependents': '2', 'Age': '3', 'Gender': '1'}</t>
+          <t>{'Gender': '1', 'Age': '3', 'Dependents': '2'}</t>
         </is>
       </c>
       <c r="B202" t="n">
@@ -3750,7 +3750,7 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>{'Dependents': '2', 'HDI': '1', 'Gender': '1'}</t>
+          <t>{'Gender': '1', 'Dependents': '2', 'HDI': '1'}</t>
         </is>
       </c>
       <c r="B203" t="n">
@@ -3766,7 +3766,7 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>{'HDI': '1', 'Continent': '1', 'Gender': '1'}</t>
+          <t>{'Gender': '1', 'HDI': '1', 'Continent': '1'}</t>
         </is>
       </c>
       <c r="B204" t="n">
@@ -3782,7 +3782,7 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>{'GDP': '1', 'Continent': '1', 'Gender': '1'}</t>
+          <t>{'Gender': '1', 'GDP': '1', 'Continent': '1'}</t>
         </is>
       </c>
       <c r="B205" t="n">
@@ -3798,7 +3798,7 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>{'Age': '3', 'HDI': '1', 'Gender': '1'}</t>
+          <t>{'Gender': '1', 'Age': '3', 'HDI': '1'}</t>
         </is>
       </c>
       <c r="B206" t="n">
@@ -3814,7 +3814,7 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>{'GDP': '1', 'HDI': '1', 'Gender': '1'}</t>
+          <t>{'Gender': '1', 'GDP': '1', 'HDI': '1'}</t>
         </is>
       </c>
       <c r="B207" t="n">
@@ -3830,7 +3830,7 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>{'GINI': '1', 'HDI': '1', 'Gender': '1'}</t>
+          <t>{'GINI': '1', 'Gender': '1', 'HDI': '1'}</t>
         </is>
       </c>
       <c r="B208" t="n">
@@ -3846,7 +3846,7 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>{'GDP': '1', 'GINI': '1', 'Gender': '1'}</t>
+          <t>{'GINI': '1', 'Gender': '1', 'GDP': '1'}</t>
         </is>
       </c>
       <c r="B209" t="n">
@@ -3862,7 +3862,7 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>{'Age': '3', 'SexualOrientation': '1', 'Dependents': '2'}</t>
+          <t>{'Age': '3', 'Dependents': '2', 'SexualOrientation': '1'}</t>
         </is>
       </c>
       <c r="B210" t="n">
@@ -3878,7 +3878,7 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>{'SexualOrientation': '1', 'HDI': '1', 'Dependents': '2'}</t>
+          <t>{'Dependents': '2', 'SexualOrientation': '1', 'HDI': '1'}</t>
         </is>
       </c>
       <c r="B211" t="n">
@@ -3910,7 +3910,7 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>{'GDP': '1', 'SexualOrientation': '1', 'Continent': '1'}</t>
+          <t>{'SexualOrientation': '1', 'GDP': '1', 'Continent': '1'}</t>
         </is>
       </c>
       <c r="B213" t="n">
@@ -3926,7 +3926,7 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>{'SexualOrientation': '1', 'HDI': '1', 'Age': '3'}</t>
+          <t>{'Age': '3', 'HDI': '1', 'SexualOrientation': '1'}</t>
         </is>
       </c>
       <c r="B214" t="n">
@@ -3958,7 +3958,7 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>{'SexualOrientation': '1', 'GINI': '1', 'HDI': '1'}</t>
+          <t>{'GINI': '1', 'HDI': '1', 'SexualOrientation': '1'}</t>
         </is>
       </c>
       <c r="B216" t="n">
@@ -3974,7 +3974,7 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>{'GDP': '1', 'SexualOrientation': '1', 'GINI': '1'}</t>
+          <t>{'GINI': '1', 'GDP': '1', 'SexualOrientation': '1'}</t>
         </is>
       </c>
       <c r="B217" t="n">
@@ -3990,7 +3990,7 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>{'GDP': '1', 'HDI': '1', 'Dependents': '2'}</t>
+          <t>{'Dependents': '2', 'HDI': '1', 'GDP': '1'}</t>
         </is>
       </c>
       <c r="B218" t="n">
@@ -4006,7 +4006,7 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>{'GDP': '1', 'HDI': '1', 'Continent': '1'}</t>
+          <t>{'GDP': '1', 'Continent': '1', 'HDI': '1'}</t>
         </is>
       </c>
       <c r="B219" t="n">
@@ -4022,7 +4022,7 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>{'Continent': '2', 'GDP': '2', 'HDI': '1'}</t>
+          <t>{'HDI': '1', 'Continent': '2', 'GDP': '2'}</t>
         </is>
       </c>
       <c r="B220" t="n">
@@ -4038,7 +4038,7 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>{'Continent': '2', 'GINI': '2', 'HDI': '1'}</t>
+          <t>{'GINI': '2', 'HDI': '1', 'Continent': '2'}</t>
         </is>
       </c>
       <c r="B221" t="n">
@@ -4054,7 +4054,7 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>{'Continent': '2', 'GINI': '2', 'GDP': '2'}</t>
+          <t>{'GINI': '2', 'Continent': '2', 'GDP': '2'}</t>
         </is>
       </c>
       <c r="B222" t="n">
@@ -4070,7 +4070,7 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>{'GDP': '1', 'GINI': '1', 'HDI': '1'}</t>
+          <t>{'GINI': '1', 'GDP': '1', 'HDI': '1'}</t>
         </is>
       </c>
       <c r="B223" t="n">
@@ -4086,7 +4086,7 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>{'GINI': '2', 'GDP': '2', 'HDI': '1'}</t>
+          <t>{'GINI': '2', 'HDI': '1', 'GDP': '2'}</t>
         </is>
       </c>
       <c r="B224" t="n">
@@ -4102,7 +4102,7 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>{'Student': '1', 'UndergradMajor': '2', 'Hobby': '1', 'Gender': '1'}</t>
+          <t>{'Gender': '1', 'UndergradMajor': '2', 'Hobby': '1', 'Student': '1'}</t>
         </is>
       </c>
       <c r="B225" t="n">
@@ -4118,7 +4118,7 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>{'Student': '1', 'SexualOrientation': '1', 'UndergradMajor': '2', 'Hobby': '1'}</t>
+          <t>{'UndergradMajor': '2', 'Hobby': '1', 'Student': '1', 'SexualOrientation': '1'}</t>
         </is>
       </c>
       <c r="B226" t="n">
@@ -4134,7 +4134,7 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>{'Student': '1', 'UndergradMajor': '2', 'Hobby': '1', 'HDI': '1'}</t>
+          <t>{'UndergradMajor': '2', 'Hobby': '1', 'Student': '1', 'HDI': '1'}</t>
         </is>
       </c>
       <c r="B227" t="n">
@@ -4150,7 +4150,7 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>{'DevType': '2', 'Student': '1', 'Hobby': '1', 'Gender': '1'}</t>
+          <t>{'Gender': '1', 'Hobby': '1', 'Student': '1', 'DevType': '2'}</t>
         </is>
       </c>
       <c r="B228" t="n">
@@ -4166,7 +4166,7 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>{'DevType': '2', 'Student': '1', 'SexualOrientation': '1', 'Hobby': '1'}</t>
+          <t>{'Hobby': '1', 'Student': '1', 'DevType': '2', 'SexualOrientation': '1'}</t>
         </is>
       </c>
       <c r="B229" t="n">
@@ -4182,7 +4182,7 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>{'DevType': '2', 'Student': '1', 'Hobby': '1', 'HDI': '1'}</t>
+          <t>{'Hobby': '1', 'Student': '1', 'DevType': '2', 'HDI': '1'}</t>
         </is>
       </c>
       <c r="B230" t="n">
@@ -4198,7 +4198,7 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>{'HoursComputer': '2', 'Student': '1', 'Hobby': '1', 'Gender': '1'}</t>
+          <t>{'Gender': '1', 'HoursComputer': '2', 'Hobby': '1', 'Student': '1'}</t>
         </is>
       </c>
       <c r="B231" t="n">
@@ -4214,7 +4214,7 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>{'HoursComputer': '2', 'Student': '1', 'SexualOrientation': '1', 'Hobby': '1'}</t>
+          <t>{'HoursComputer': '2', 'Hobby': '1', 'Student': '1', 'SexualOrientation': '1'}</t>
         </is>
       </c>
       <c r="B232" t="n">
@@ -4230,7 +4230,7 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>{'HoursComputer': '2', 'Student': '1', 'Hobby': '1', 'HDI': '1'}</t>
+          <t>{'HoursComputer': '2', 'Hobby': '1', 'Student': '1', 'HDI': '1'}</t>
         </is>
       </c>
       <c r="B233" t="n">
@@ -4246,7 +4246,7 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>{'Student': '1', 'SexualOrientation': '1', 'Hobby': '1', 'Gender': '1'}</t>
+          <t>{'Gender': '1', 'Hobby': '1', 'Student': '1', 'SexualOrientation': '1'}</t>
         </is>
       </c>
       <c r="B234" t="n">
@@ -4262,7 +4262,7 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>{'Dependents': '2', 'Student': '1', 'Hobby': '1', 'Gender': '1'}</t>
+          <t>{'Gender': '1', 'Dependents': '2', 'Hobby': '1', 'Student': '1'}</t>
         </is>
       </c>
       <c r="B235" t="n">
@@ -4278,7 +4278,7 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>{'Age': '3', 'Student': '1', 'Hobby': '1', 'Gender': '1'}</t>
+          <t>{'Gender': '1', 'Age': '3', 'Hobby': '1', 'Student': '1'}</t>
         </is>
       </c>
       <c r="B236" t="n">
@@ -4294,7 +4294,7 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>{'Student': '1', 'Hobby': '1', 'HDI': '1', 'Gender': '1'}</t>
+          <t>{'Gender': '1', 'Hobby': '1', 'Student': '1', 'HDI': '1'}</t>
         </is>
       </c>
       <c r="B237" t="n">
@@ -4310,7 +4310,7 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>{'Student': '1', 'SexualOrientation': '1', 'Hobby': '1', 'Dependents': '2'}</t>
+          <t>{'Dependents': '2', 'Hobby': '1', 'Student': '1', 'SexualOrientation': '1'}</t>
         </is>
       </c>
       <c r="B238" t="n">
@@ -4326,7 +4326,7 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>{'Student': '1', 'SexualOrientation': '1', 'Hobby': '1', 'Age': '3'}</t>
+          <t>{'Age': '3', 'Hobby': '1', 'Student': '1', 'SexualOrientation': '1'}</t>
         </is>
       </c>
       <c r="B239" t="n">
@@ -4342,7 +4342,7 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>{'Student': '1', 'SexualOrientation': '1', 'Hobby': '1', 'HDI': '1'}</t>
+          <t>{'Hobby': '1', 'Student': '1', 'SexualOrientation': '1', 'HDI': '1'}</t>
         </is>
       </c>
       <c r="B240" t="n">
@@ -4358,7 +4358,7 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>{'Student': '1', 'Hobby': '1', 'HDI': '1', 'Dependents': '2'}</t>
+          <t>{'Dependents': '2', 'Hobby': '1', 'Student': '1', 'HDI': '1'}</t>
         </is>
       </c>
       <c r="B241" t="n">
@@ -4374,7 +4374,7 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>{'Student': '1', 'GDP': '1', 'Hobby': '1', 'HDI': '1'}</t>
+          <t>{'Hobby': '1', 'Student': '1', 'HDI': '1', 'GDP': '1'}</t>
         </is>
       </c>
       <c r="B242" t="n">
@@ -4390,7 +4390,7 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>{'SexualOrientation': '1', 'UndergradMajor': '2', 'Hobby': '1', 'Gender': '1'}</t>
+          <t>{'Gender': '1', 'UndergradMajor': '2', 'Hobby': '1', 'SexualOrientation': '1'}</t>
         </is>
       </c>
       <c r="B243" t="n">
@@ -4406,7 +4406,7 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>{'Dependents': '2', 'UndergradMajor': '2', 'Hobby': '1', 'Gender': '1'}</t>
+          <t>{'Gender': '1', 'UndergradMajor': '2', 'Hobby': '1', 'Dependents': '2'}</t>
         </is>
       </c>
       <c r="B244" t="n">
@@ -4422,7 +4422,7 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>{'UndergradMajor': '2', 'Hobby': '1', 'HDI': '1', 'Gender': '1'}</t>
+          <t>{'Gender': '1', 'UndergradMajor': '2', 'Hobby': '1', 'HDI': '1'}</t>
         </is>
       </c>
       <c r="B245" t="n">
@@ -4438,7 +4438,7 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>{'SexualOrientation': '1', 'UndergradMajor': '2', 'Hobby': '1', 'HDI': '1'}</t>
+          <t>{'UndergradMajor': '2', 'Hobby': '1', 'SexualOrientation': '1', 'HDI': '1'}</t>
         </is>
       </c>
       <c r="B246" t="n">
@@ -4454,7 +4454,7 @@
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>{'DevType': '2', 'SexualOrientation': '1', 'Hobby': '1', 'Gender': '1'}</t>
+          <t>{'Gender': '1', 'Hobby': '1', 'DevType': '2', 'SexualOrientation': '1'}</t>
         </is>
       </c>
       <c r="B247" t="n">
@@ -4470,7 +4470,7 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>{'DevType': '2', 'Hobby': '1', 'HDI': '1', 'Gender': '1'}</t>
+          <t>{'Gender': '1', 'Hobby': '1', 'DevType': '2', 'HDI': '1'}</t>
         </is>
       </c>
       <c r="B248" t="n">
@@ -4486,7 +4486,7 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>{'DevType': '2', 'SexualOrientation': '1', 'Hobby': '1', 'HDI': '1'}</t>
+          <t>{'Hobby': '1', 'DevType': '2', 'SexualOrientation': '1', 'HDI': '1'}</t>
         </is>
       </c>
       <c r="B249" t="n">
@@ -4502,7 +4502,7 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>{'HoursComputer': '2', 'SexualOrientation': '1', 'Hobby': '1', 'Gender': '1'}</t>
+          <t>{'Gender': '1', 'HoursComputer': '2', 'Hobby': '1', 'SexualOrientation': '1'}</t>
         </is>
       </c>
       <c r="B250" t="n">
@@ -4518,7 +4518,7 @@
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>{'HoursComputer': '2', 'Hobby': '1', 'HDI': '1', 'Gender': '1'}</t>
+          <t>{'Gender': '1', 'HoursComputer': '2', 'Hobby': '1', 'HDI': '1'}</t>
         </is>
       </c>
       <c r="B251" t="n">
@@ -4534,7 +4534,7 @@
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>{'HoursComputer': '2', 'SexualOrientation': '1', 'Hobby': '1', 'HDI': '1'}</t>
+          <t>{'HoursComputer': '2', 'Hobby': '1', 'SexualOrientation': '1', 'HDI': '1'}</t>
         </is>
       </c>
       <c r="B252" t="n">
@@ -4550,7 +4550,7 @@
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>{'Dependents': '2', 'SexualOrientation': '1', 'Hobby': '1', 'Gender': '1'}</t>
+          <t>{'Gender': '1', 'Dependents': '2', 'Hobby': '1', 'SexualOrientation': '1'}</t>
         </is>
       </c>
       <c r="B253" t="n">
@@ -4566,7 +4566,7 @@
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>{'SexualOrientation': '1', 'Hobby': '1', 'Continent': '1', 'Gender': '1'}</t>
+          <t>{'Gender': '1', 'SexualOrientation': '1', 'Hobby': '1', 'Continent': '1'}</t>
         </is>
       </c>
       <c r="B254" t="n">
@@ -4582,7 +4582,7 @@
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>{'Age': '3', 'SexualOrientation': '1', 'Hobby': '1', 'Gender': '1'}</t>
+          <t>{'Gender': '1', 'Age': '3', 'Hobby': '1', 'SexualOrientation': '1'}</t>
         </is>
       </c>
       <c r="B255" t="n">
@@ -4598,7 +4598,7 @@
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>{'SexualOrientation': '1', 'Hobby': '1', 'HDI': '1', 'Gender': '1'}</t>
+          <t>{'Gender': '1', 'Hobby': '1', 'SexualOrientation': '1', 'HDI': '1'}</t>
         </is>
       </c>
       <c r="B256" t="n">
@@ -4614,7 +4614,7 @@
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>{'GDP': '1', 'SexualOrientation': '1', 'Hobby': '1', 'Gender': '1'}</t>
+          <t>{'Gender': '1', 'Hobby': '1', 'SexualOrientation': '1', 'GDP': '1'}</t>
         </is>
       </c>
       <c r="B257" t="n">
@@ -4630,7 +4630,7 @@
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>{'SexualOrientation': '1', 'Hobby': '1', 'GINI': '2', 'Gender': '1'}</t>
+          <t>{'Gender': '1', 'Hobby': '1', 'SexualOrientation': '1', 'GINI': '2'}</t>
         </is>
       </c>
       <c r="B258" t="n">
@@ -4646,7 +4646,7 @@
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>{'Dependents': '2', 'Hobby': '1', 'HDI': '1', 'Gender': '1'}</t>
+          <t>{'Gender': '1', 'Dependents': '2', 'Hobby': '1', 'HDI': '1'}</t>
         </is>
       </c>
       <c r="B259" t="n">
@@ -4662,7 +4662,7 @@
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>{'GDP': '1', 'Hobby': '1', 'HDI': '1', 'Gender': '1'}</t>
+          <t>{'Gender': '1', 'Hobby': '1', 'HDI': '1', 'GDP': '1'}</t>
         </is>
       </c>
       <c r="B260" t="n">
@@ -4678,7 +4678,7 @@
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>{'SexualOrientation': '1', 'Hobby': '1', 'HDI': '1', 'Dependents': '2'}</t>
+          <t>{'Dependents': '2', 'Hobby': '1', 'SexualOrientation': '1', 'HDI': '1'}</t>
         </is>
       </c>
       <c r="B261" t="n">
@@ -4694,7 +4694,7 @@
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>{'SexualOrientation': '1', 'GDP': '1', 'Hobby': '1', 'HDI': '1'}</t>
+          <t>{'HDI': '1', 'Hobby': '1', 'SexualOrientation': '1', 'GDP': '1'}</t>
         </is>
       </c>
       <c r="B262" t="n">
@@ -4710,7 +4710,7 @@
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>{'Continent': '2', 'GDP': '2', 'HDI': '1', 'Country': '2'}</t>
+          <t>{'HDI': '1', 'Country': '2', 'Continent': '2', 'GDP': '2'}</t>
         </is>
       </c>
       <c r="B263" t="n">
@@ -4726,7 +4726,7 @@
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>{'Continent': '2', 'GINI': '2', 'HDI': '1', 'Country': '2'}</t>
+          <t>{'GINI': '2', 'HDI': '1', 'Country': '2', 'Continent': '2'}</t>
         </is>
       </c>
       <c r="B264" t="n">
@@ -4742,7 +4742,7 @@
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>{'Continent': '2', 'GINI': '2', 'GDP': '2', 'Country': '2'}</t>
+          <t>{'GINI': '2', 'Country': '2', 'Continent': '2', 'GDP': '2'}</t>
         </is>
       </c>
       <c r="B265" t="n">
@@ -4758,7 +4758,7 @@
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>{'GINI': '2', 'GDP': '2', 'HDI': '1', 'Country': '2'}</t>
+          <t>{'GINI': '2', 'HDI': '1', 'Country': '2', 'GDP': '2'}</t>
         </is>
       </c>
       <c r="B266" t="n">
@@ -4774,7 +4774,7 @@
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>{'Student': '1', 'SexualOrientation': '1', 'Gender': '1', 'FormalEducation': '1'}</t>
+          <t>{'Gender': '1', 'FormalEducation': '1', 'Student': '1', 'SexualOrientation': '1'}</t>
         </is>
       </c>
       <c r="B267" t="n">
@@ -4790,7 +4790,7 @@
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>{'Student': '1', 'SexualOrientation': '1', 'UndergradMajor': '2', 'Gender': '1'}</t>
+          <t>{'Gender': '1', 'UndergradMajor': '2', 'Student': '1', 'SexualOrientation': '1'}</t>
         </is>
       </c>
       <c r="B268" t="n">
@@ -4806,7 +4806,7 @@
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>{'Student': '1', 'UndergradMajor': '2', 'HDI': '1', 'Gender': '1'}</t>
+          <t>{'Gender': '1', 'UndergradMajor': '2', 'HDI': '1', 'Student': '1'}</t>
         </is>
       </c>
       <c r="B269" t="n">
@@ -4822,7 +4822,7 @@
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>{'Student': '1', 'SexualOrientation': '1', 'UndergradMajor': '2', 'HDI': '1'}</t>
+          <t>{'UndergradMajor': '2', 'HDI': '1', 'Student': '1', 'SexualOrientation': '1'}</t>
         </is>
       </c>
       <c r="B270" t="n">
@@ -4838,7 +4838,7 @@
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>{'DevType': '2', 'Student': '1', 'SexualOrientation': '1', 'Gender': '1'}</t>
+          <t>{'Gender': '1', 'Student': '1', 'DevType': '2', 'SexualOrientation': '1'}</t>
         </is>
       </c>
       <c r="B271" t="n">
@@ -4854,7 +4854,7 @@
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>{'DevType': '2', 'Student': '1', 'HDI': '1', 'Gender': '1'}</t>
+          <t>{'Gender': '1', 'HDI': '1', 'Student': '1', 'DevType': '2'}</t>
         </is>
       </c>
       <c r="B272" t="n">
@@ -4870,7 +4870,7 @@
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>{'DevType': '2', 'Student': '1', 'SexualOrientation': '1', 'HDI': '1'}</t>
+          <t>{'HDI': '1', 'Student': '1', 'DevType': '2', 'SexualOrientation': '1'}</t>
         </is>
       </c>
       <c r="B273" t="n">
@@ -4886,7 +4886,7 @@
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>{'Student': '1', 'SexualOrientation': '1', 'HoursComputer': '2', 'Gender': '1'}</t>
+          <t>{'Gender': '1', 'HoursComputer': '2', 'Student': '1', 'SexualOrientation': '1'}</t>
         </is>
       </c>
       <c r="B274" t="n">
@@ -4902,7 +4902,7 @@
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>{'Student': '1', 'HoursComputer': '2', 'HDI': '1', 'Gender': '1'}</t>
+          <t>{'Gender': '1', 'HoursComputer': '2', 'HDI': '1', 'Student': '1'}</t>
         </is>
       </c>
       <c r="B275" t="n">
@@ -4918,7 +4918,7 @@
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>{'Student': '1', 'SexualOrientation': '1', 'HoursComputer': '2', 'HDI': '1'}</t>
+          <t>{'HoursComputer': '2', 'HDI': '1', 'Student': '1', 'SexualOrientation': '1'}</t>
         </is>
       </c>
       <c r="B276" t="n">
@@ -4934,7 +4934,7 @@
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>{'Dependents': '2', 'Student': '1', 'SexualOrientation': '1', 'Gender': '1'}</t>
+          <t>{'Gender': '1', 'Dependents': '2', 'Student': '1', 'SexualOrientation': '1'}</t>
         </is>
       </c>
       <c r="B277" t="n">
@@ -4950,7 +4950,7 @@
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>{'Student': '1', 'SexualOrientation': '1', 'Continent': '1', 'Gender': '1'}</t>
+          <t>{'Gender': '1', 'SexualOrientation': '1', 'Student': '1', 'Continent': '1'}</t>
         </is>
       </c>
       <c r="B278" t="n">
@@ -4966,7 +4966,7 @@
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>{'Age': '3', 'Student': '1', 'SexualOrientation': '1', 'Gender': '1'}</t>
+          <t>{'Gender': '1', 'Age': '3', 'Student': '1', 'SexualOrientation': '1'}</t>
         </is>
       </c>
       <c r="B279" t="n">
@@ -4982,7 +4982,7 @@
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>{'Student': '1', 'SexualOrientation': '1', 'HDI': '1', 'Gender': '1'}</t>
+          <t>{'Gender': '1', 'HDI': '1', 'Student': '1', 'SexualOrientation': '1'}</t>
         </is>
       </c>
       <c r="B280" t="n">
@@ -4998,7 +4998,7 @@
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>{'GDP': '1', 'Student': '1', 'SexualOrientation': '1', 'Gender': '1'}</t>
+          <t>{'Gender': '1', 'GDP': '1', 'Student': '1', 'SexualOrientation': '1'}</t>
         </is>
       </c>
       <c r="B281" t="n">
@@ -5014,7 +5014,7 @@
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>{'Student': '1', 'GINI': '2', 'SexualOrientation': '1', 'Gender': '1'}</t>
+          <t>{'Gender': '1', 'Student': '1', 'SexualOrientation': '1', 'GINI': '2'}</t>
         </is>
       </c>
       <c r="B282" t="n">
@@ -5030,7 +5030,7 @@
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>{'Dependents': '2', 'Student': '1', 'HDI': '1', 'Gender': '1'}</t>
+          <t>{'Gender': '1', 'Dependents': '2', 'HDI': '1', 'Student': '1'}</t>
         </is>
       </c>
       <c r="B283" t="n">
@@ -5046,7 +5046,7 @@
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>{'Age': '3', 'Student': '1', 'HDI': '1', 'Gender': '1'}</t>
+          <t>{'Gender': '1', 'Age': '3', 'HDI': '1', 'Student': '1'}</t>
         </is>
       </c>
       <c r="B284" t="n">
@@ -5062,7 +5062,7 @@
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>{'Student': '1', 'GDP': '1', 'HDI': '1', 'Gender': '1'}</t>
+          <t>{'Gender': '1', 'GDP': '1', 'Student': '1', 'HDI': '1'}</t>
         </is>
       </c>
       <c r="B285" t="n">
@@ -5078,7 +5078,7 @@
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>{'Student': '1', 'SexualOrientation': '1', 'HDI': '1', 'Dependents': '2'}</t>
+          <t>{'Dependents': '2', 'Student': '1', 'SexualOrientation': '1', 'HDI': '1'}</t>
         </is>
       </c>
       <c r="B286" t="n">
@@ -5094,7 +5094,7 @@
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>{'Student': '1', 'SexualOrientation': '1', 'HDI': '1', 'Age': '3'}</t>
+          <t>{'Age': '3', 'HDI': '1', 'Student': '1', 'SexualOrientation': '1'}</t>
         </is>
       </c>
       <c r="B287" t="n">
@@ -5110,7 +5110,7 @@
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>{'Student': '1', 'GDP': '1', 'SexualOrientation': '1', 'HDI': '1'}</t>
+          <t>{'GDP': '1', 'Student': '1', 'SexualOrientation': '1', 'HDI': '1'}</t>
         </is>
       </c>
       <c r="B288" t="n">
@@ -5126,7 +5126,7 @@
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>{'SexualOrientation': '1', 'HDI': '1', 'Gender': '1', 'FormalEducation': '1'}</t>
+          <t>{'Gender': '1', 'FormalEducation': '1', 'HDI': '1', 'SexualOrientation': '1'}</t>
         </is>
       </c>
       <c r="B289" t="n">
@@ -5142,7 +5142,7 @@
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>{'DevType': '2', 'SexualOrientation': '1', 'UndergradMajor': '2', 'Gender': '1'}</t>
+          <t>{'Gender': '1', 'UndergradMajor': '2', 'DevType': '2', 'SexualOrientation': '1'}</t>
         </is>
       </c>
       <c r="B290" t="n">
@@ -5158,7 +5158,7 @@
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>{'Dependents': '2', 'SexualOrientation': '1', 'UndergradMajor': '2', 'Gender': '1'}</t>
+          <t>{'Gender': '1', 'UndergradMajor': '2', 'Dependents': '2', 'SexualOrientation': '1'}</t>
         </is>
       </c>
       <c r="B291" t="n">
@@ -5174,7 +5174,7 @@
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>{'SexualOrientation': '1', 'UndergradMajor': '2', 'HDI': '1', 'Gender': '1'}</t>
+          <t>{'Gender': '1', 'UndergradMajor': '2', 'HDI': '1', 'SexualOrientation': '1'}</t>
         </is>
       </c>
       <c r="B292" t="n">
@@ -5190,7 +5190,7 @@
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>{'Dependents': '2', 'UndergradMajor': '2', 'HDI': '1', 'Gender': '1'}</t>
+          <t>{'Gender': '1', 'UndergradMajor': '2', 'Dependents': '2', 'HDI': '1'}</t>
         </is>
       </c>
       <c r="B293" t="n">
@@ -5206,7 +5206,7 @@
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>{'Dependents': '2', 'DevType': '2', 'SexualOrientation': '1', 'Gender': '1'}</t>
+          <t>{'Gender': '1', 'Dependents': '2', 'DevType': '2', 'SexualOrientation': '1'}</t>
         </is>
       </c>
       <c r="B294" t="n">
@@ -5222,7 +5222,7 @@
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>{'DevType': '2', 'SexualOrientation': '1', 'HDI': '1', 'Gender': '1'}</t>
+          <t>{'Gender': '1', 'HDI': '1', 'DevType': '2', 'SexualOrientation': '1'}</t>
         </is>
       </c>
       <c r="B295" t="n">
@@ -5238,7 +5238,7 @@
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>{'SexualOrientation': '1', 'HoursComputer': '2', 'HDI': '1', 'Gender': '1'}</t>
+          <t>{'Gender': '1', 'HoursComputer': '2', 'HDI': '1', 'SexualOrientation': '1'}</t>
         </is>
       </c>
       <c r="B296" t="n">
@@ -5254,7 +5254,7 @@
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>{'Dependents': '2', 'SexualOrientation': '1', 'HDI': '1', 'Gender': '1'}</t>
+          <t>{'Gender': '1', 'Dependents': '2', 'SexualOrientation': '1', 'HDI': '1'}</t>
         </is>
       </c>
       <c r="B297" t="n">
@@ -5270,7 +5270,7 @@
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>{'SexualOrientation': '1', 'HDI': '1', 'Continent': '1', 'Gender': '1'}</t>
+          <t>{'Gender': '1', 'SexualOrientation': '1', 'HDI': '1', 'Continent': '1'}</t>
         </is>
       </c>
       <c r="B298" t="n">
@@ -5286,7 +5286,7 @@
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>{'GDP': '1', 'SexualOrientation': '1', 'Continent': '1', 'Gender': '1'}</t>
+          <t>{'Gender': '1', 'SexualOrientation': '1', 'GDP': '1', 'Continent': '1'}</t>
         </is>
       </c>
       <c r="B299" t="n">
@@ -5302,7 +5302,7 @@
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>{'Age': '3', 'SexualOrientation': '1', 'HDI': '1', 'Gender': '1'}</t>
+          <t>{'Gender': '1', 'Age': '3', 'HDI': '1', 'SexualOrientation': '1'}</t>
         </is>
       </c>
       <c r="B300" t="n">
@@ -5318,7 +5318,7 @@
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>{'GDP': '1', 'SexualOrientation': '1', 'HDI': '1', 'Gender': '1'}</t>
+          <t>{'Gender': '1', 'GDP': '1', 'SexualOrientation': '1', 'HDI': '1'}</t>
         </is>
       </c>
       <c r="B301" t="n">
@@ -5334,7 +5334,7 @@
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>{'SexualOrientation': '1', 'GINI': '1', 'HDI': '1', 'Gender': '1'}</t>
+          <t>{'GINI': '1', 'Gender': '1', 'HDI': '1', 'SexualOrientation': '1'}</t>
         </is>
       </c>
       <c r="B302" t="n">
@@ -5350,7 +5350,7 @@
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>{'GDP': '1', 'SexualOrientation': '1', 'GINI': '1', 'Gender': '1'}</t>
+          <t>{'GINI': '1', 'Gender': '1', 'GDP': '1', 'SexualOrientation': '1'}</t>
         </is>
       </c>
       <c r="B303" t="n">
@@ -5366,7 +5366,7 @@
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>{'GDP': '1', 'HDI': '1', 'Continent': '1', 'Gender': '1'}</t>
+          <t>{'Gender': '1', 'GDP': '1', 'Continent': '1', 'HDI': '1'}</t>
         </is>
       </c>
       <c r="B304" t="n">
@@ -5382,7 +5382,7 @@
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>{'GDP': '1', 'GINI': '1', 'HDI': '1', 'Gender': '1'}</t>
+          <t>{'GINI': '1', 'Gender': '1', 'GDP': '1', 'HDI': '1'}</t>
         </is>
       </c>
       <c r="B305" t="n">
@@ -5398,7 +5398,7 @@
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>{'HDI': '1', 'GDP': '1', 'SexualOrientation': '1', 'Continent': '1'}</t>
+          <t>{'SexualOrientation': '1', 'GDP': '1', 'Continent': '1', 'HDI': '1'}</t>
         </is>
       </c>
       <c r="B306" t="n">
@@ -5414,7 +5414,7 @@
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>{'HDI': '1', 'GDP': '1', 'SexualOrientation': '1', 'GINI': '1'}</t>
+          <t>{'GINI': '1', 'GDP': '1', 'SexualOrientation': '1', 'HDI': '1'}</t>
         </is>
       </c>
       <c r="B307" t="n">
@@ -5430,7 +5430,7 @@
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>{'Continent': '2', 'GINI': '2', 'GDP': '2', 'HDI': '1'}</t>
+          <t>{'GINI': '2', 'HDI': '1', 'Continent': '2', 'GDP': '2'}</t>
         </is>
       </c>
       <c r="B308" t="n">
@@ -5446,7 +5446,7 @@
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>{'Student': '1', 'Gender': '1', 'SexualOrientation': '1', 'Hobby': '1', 'UndergradMajor': '2'}</t>
+          <t>{'Hobby': '1', 'SexualOrientation': '1', 'Gender': '1', 'UndergradMajor': '2', 'Student': '1'}</t>
         </is>
       </c>
       <c r="B309" t="n">
@@ -5462,7 +5462,7 @@
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>{'Student': '1', 'Gender': '1', 'Hobby': '1', 'HDI': '1', 'UndergradMajor': '2'}</t>
+          <t>{'Hobby': '1', 'Gender': '1', 'UndergradMajor': '2', 'HDI': '1', 'Student': '1'}</t>
         </is>
       </c>
       <c r="B310" t="n">
@@ -5478,7 +5478,7 @@
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>{'Student': '1', 'SexualOrientation': '1', 'Hobby': '1', 'HDI': '1', 'UndergradMajor': '2'}</t>
+          <t>{'Hobby': '1', 'SexualOrientation': '1', 'UndergradMajor': '2', 'HDI': '1', 'Student': '1'}</t>
         </is>
       </c>
       <c r="B311" t="n">
@@ -5494,7 +5494,7 @@
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>{'Student': '1', 'Gender': '1', 'SexualOrientation': '1', 'Hobby': '1', 'DevType': '2'}</t>
+          <t>{'Hobby': '1', 'DevType': '2', 'SexualOrientation': '1', 'Gender': '1', 'Student': '1'}</t>
         </is>
       </c>
       <c r="B312" t="n">
@@ -5510,7 +5510,7 @@
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>{'Student': '1', 'Gender': '1', 'Hobby': '1', 'HDI': '1', 'DevType': '2'}</t>
+          <t>{'Hobby': '1', 'DevType': '2', 'Gender': '1', 'HDI': '1', 'Student': '1'}</t>
         </is>
       </c>
       <c r="B313" t="n">
@@ -5526,7 +5526,7 @@
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>{'Student': '1', 'SexualOrientation': '1', 'Hobby': '1', 'HDI': '1', 'DevType': '2'}</t>
+          <t>{'Hobby': '1', 'DevType': '2', 'SexualOrientation': '1', 'HDI': '1', 'Student': '1'}</t>
         </is>
       </c>
       <c r="B314" t="n">
@@ -5542,7 +5542,7 @@
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>{'Student': '1', 'HoursComputer': '2', 'Gender': '1', 'SexualOrientation': '1', 'Hobby': '1'}</t>
+          <t>{'Hobby': '1', 'SexualOrientation': '1', 'Gender': '1', 'HoursComputer': '2', 'Student': '1'}</t>
         </is>
       </c>
       <c r="B315" t="n">
@@ -5558,7 +5558,7 @@
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>{'Student': '1', 'Gender': '1', 'Dependents': '2', 'SexualOrientation': '1', 'Hobby': '1'}</t>
+          <t>{'Hobby': '1', 'SexualOrientation': '1', 'Gender': '1', 'Dependents': '2', 'Student': '1'}</t>
         </is>
       </c>
       <c r="B316" t="n">
@@ -5574,7 +5574,7 @@
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>{'Student': '1', 'Gender': '1', 'SexualOrientation': '1', 'Hobby': '1', 'HDI': '1'}</t>
+          <t>{'Hobby': '1', 'SexualOrientation': '1', 'Gender': '1', 'HDI': '1', 'Student': '1'}</t>
         </is>
       </c>
       <c r="B317" t="n">
@@ -5590,7 +5590,7 @@
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>{'Student': '1', 'Gender': '1', 'Dependents': '2', 'Hobby': '1', 'HDI': '1'}</t>
+          <t>{'Hobby': '1', 'Gender': '1', 'Dependents': '2', 'Student': '1', 'HDI': '1'}</t>
         </is>
       </c>
       <c r="B318" t="n">
@@ -5606,7 +5606,7 @@
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>{'Student': '1', 'Dependents': '2', 'SexualOrientation': '1', 'Hobby': '1', 'HDI': '1'}</t>
+          <t>{'Hobby': '1', 'SexualOrientation': '1', 'Dependents': '2', 'HDI': '1', 'Student': '1'}</t>
         </is>
       </c>
       <c r="B319" t="n">
@@ -5622,7 +5622,7 @@
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>{'Gender': '1', 'SexualOrientation': '1', 'Hobby': '1', 'HDI': '1', 'UndergradMajor': '2'}</t>
+          <t>{'Hobby': '1', 'SexualOrientation': '1', 'Gender': '1', 'UndergradMajor': '2', 'HDI': '1'}</t>
         </is>
       </c>
       <c r="B320" t="n">
@@ -5638,7 +5638,7 @@
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>{'Gender': '1', 'SexualOrientation': '1', 'Hobby': '1', 'HDI': '1', 'DevType': '2'}</t>
+          <t>{'Hobby': '1', 'DevType': '2', 'SexualOrientation': '1', 'Gender': '1', 'HDI': '1'}</t>
         </is>
       </c>
       <c r="B321" t="n">
@@ -5654,7 +5654,7 @@
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>{'HoursComputer': '2', 'Gender': '1', 'SexualOrientation': '1', 'Hobby': '1', 'HDI': '1'}</t>
+          <t>{'Hobby': '1', 'SexualOrientation': '1', 'Gender': '1', 'HoursComputer': '2', 'HDI': '1'}</t>
         </is>
       </c>
       <c r="B322" t="n">
@@ -5670,7 +5670,7 @@
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>{'Gender': '1', 'Dependents': '2', 'SexualOrientation': '1', 'Hobby': '1', 'HDI': '1'}</t>
+          <t>{'Hobby': '1', 'SexualOrientation': '1', 'Gender': '1', 'Dependents': '2', 'HDI': '1'}</t>
         </is>
       </c>
       <c r="B323" t="n">
@@ -5686,7 +5686,7 @@
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>{'Gender': '1', 'SexualOrientation': '1', 'Hobby': '1', 'HDI': '1', 'GDP': '1'}</t>
+          <t>{'Hobby': '1', 'SexualOrientation': '1', 'Gender': '1', 'HDI': '1', 'GDP': '1'}</t>
         </is>
       </c>
       <c r="B324" t="n">
@@ -5702,7 +5702,7 @@
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>{'GINI': '2', 'GDP': '2', 'Continent': '2', 'HDI': '1', 'Country': '2'}</t>
+          <t>{'Continent': '2', 'HDI': '1', 'GDP': '2', 'GINI': '2', 'Country': '2'}</t>
         </is>
       </c>
       <c r="B325" t="n">
@@ -5718,7 +5718,7 @@
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>{'Student': '1', 'Gender': '1', 'SexualOrientation': '1', 'HDI': '1', 'UndergradMajor': '2'}</t>
+          <t>{'SexualOrientation': '1', 'Gender': '1', 'UndergradMajor': '2', 'HDI': '1', 'Student': '1'}</t>
         </is>
       </c>
       <c r="B326" t="n">
@@ -5734,7 +5734,7 @@
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>{'Student': '1', 'Gender': '1', 'SexualOrientation': '1', 'HDI': '1', 'DevType': '2'}</t>
+          <t>{'DevType': '2', 'SexualOrientation': '1', 'Gender': '1', 'HDI': '1', 'Student': '1'}</t>
         </is>
       </c>
       <c r="B327" t="n">
@@ -5750,7 +5750,7 @@
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>{'Student': '1', 'HoursComputer': '2', 'Gender': '1', 'SexualOrientation': '1', 'HDI': '1'}</t>
+          <t>{'SexualOrientation': '1', 'Gender': '1', 'HoursComputer': '2', 'HDI': '1', 'Student': '1'}</t>
         </is>
       </c>
       <c r="B328" t="n">
@@ -5766,7 +5766,7 @@
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>{'Student': '1', 'Gender': '1', 'Dependents': '2', 'SexualOrientation': '1', 'HDI': '1'}</t>
+          <t>{'SexualOrientation': '1', 'Gender': '1', 'Dependents': '2', 'Student': '1', 'HDI': '1'}</t>
         </is>
       </c>
       <c r="B329" t="n">
@@ -5782,7 +5782,7 @@
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>{'Student': '1', 'Gender': '1', 'SexualOrientation': '1', 'HDI': '1', 'GDP': '1'}</t>
+          <t>{'SexualOrientation': '1', 'Gender': '1', 'HDI': '1', 'Student': '1', 'GDP': '1'}</t>
         </is>
       </c>
       <c r="B330" t="n">
@@ -5798,7 +5798,7 @@
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>{'Gender': '1', 'SexualOrientation': '1', 'HDI': '1', 'Continent': '1', 'GDP': '1'}</t>
+          <t>{'SexualOrientation': '1', 'Gender': '1', 'Continent': '1', 'HDI': '1', 'GDP': '1'}</t>
         </is>
       </c>
       <c r="B331" t="n">
@@ -5814,7 +5814,7 @@
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>{'Gender': '1', 'GDP': '1', 'SexualOrientation': '1', 'HDI': '1', 'GINI': '1'}</t>
+          <t>{'SexualOrientation': '1', 'GINI': '1', 'Gender': '1', 'HDI': '1', 'GDP': '1'}</t>
         </is>
       </c>
       <c r="B332" t="n">
@@ -5830,7 +5830,7 @@
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>{'Student': '1', 'Gender': '1', 'Dependents': '2', 'SexualOrientation': '1', 'Hobby': '1', 'HDI': '1'}</t>
+          <t>{'Hobby': '1', 'SexualOrientation': '1', 'Gender': '1', 'Dependents': '2', 'HDI': '1', 'Student': '1'}</t>
         </is>
       </c>
       <c r="B333" t="n">

--- a/algorithms_results/Yardens_results/Apriori_subgroups_results_delta_10000_0.xlsx
+++ b/algorithms_results/Yardens_results/Apriori_subgroups_results_delta_10000_0.xlsx
@@ -487,7 +487,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>332</v>
+        <v>342</v>
       </c>
     </row>
   </sheetData>
@@ -501,7 +501,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D333"/>
+  <dimension ref="A1:D343"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -710,343 +710,343 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>{'Age': '3'}</t>
+          <t>{'Continent': '2'}</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>15063</v>
+        <v>11997</v>
       </c>
       <c r="C13" t="n">
-        <v>13540.92143844457</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>577.6719375224238</v>
+        <v>-12963.24950092215</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>{'HDI': '1'}</t>
+          <t>{'Age': '3'}</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>25023</v>
+        <v>15063</v>
       </c>
       <c r="C14" t="n">
-        <v>11250.47982698071</v>
+        <v>13540.92143844457</v>
       </c>
       <c r="D14" t="n">
-        <v>-1712.76967394144</v>
+        <v>577.6719375224238</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>{'GDP': '1'}</t>
+          <t>{'HDI': '1'}</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>14547</v>
+        <v>25023</v>
       </c>
       <c r="C15" t="n">
-        <v>7723.237607983301</v>
+        <v>11250.47982698071</v>
       </c>
       <c r="D15" t="n">
-        <v>-5240.011892938845</v>
+        <v>-1712.76967394144</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>{'GDP': '2'}</t>
+          <t>{'GDP': '1'}</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>10476</v>
+        <v>14547</v>
       </c>
       <c r="C16" t="n">
-        <v>15675.23593576647</v>
+        <v>7723.237607983301</v>
       </c>
       <c r="D16" t="n">
-        <v>2711.986434844323</v>
+        <v>-5240.011892938845</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>{'GINI': '2'}</t>
+          <t>{'GDP': '2'}</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>14320</v>
+        <v>10476</v>
       </c>
       <c r="C17" t="n">
-        <v>14119.19466521646</v>
+        <v>15675.23593576647</v>
       </c>
       <c r="D17" t="n">
-        <v>1155.94516429431</v>
+        <v>2711.986434844323</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>{'Hobby': '1', 'Student': '1'}</t>
+          <t>{'GINI': '1'}</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>20375</v>
+        <v>12436</v>
       </c>
       <c r="C18" t="n">
-        <v>10196.88929291665</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>-2766.360208005492</v>
+        <v>-12963.24950092215</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>{'FormalEducation': '1', 'Hobby': '1'}</t>
+          <t>{'GINI': '2'}</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>11025</v>
+        <v>14320</v>
       </c>
       <c r="C19" t="n">
-        <v>3197.159352248224</v>
+        <v>14119.19466521646</v>
       </c>
       <c r="D19" t="n">
-        <v>-9766.09014867392</v>
+        <v>1155.94516429431</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>{'UndergradMajor': '2', 'Hobby': '1'}</t>
+          <t>{'Hobby': '1', 'Student': '1'}</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>15058</v>
+        <v>20375</v>
       </c>
       <c r="C20" t="n">
-        <v>18331.65921398864</v>
+        <v>10196.88929291665</v>
       </c>
       <c r="D20" t="n">
-        <v>5368.409713066496</v>
+        <v>-2766.360208005492</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>{'Hobby': '1', 'DevType': '2'}</t>
+          <t>{'FormalEducation': '1', 'Hobby': '1'}</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>14939</v>
+        <v>11025</v>
       </c>
       <c r="C21" t="n">
-        <v>10100.44398032732</v>
+        <v>3197.159352248224</v>
       </c>
       <c r="D21" t="n">
-        <v>-2862.805520594828</v>
+        <v>-9766.09014867392</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>{'HoursComputer': '2', 'Hobby': '1'}</t>
+          <t>{'UndergradMajor': '2', 'Hobby': '1'}</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>13883</v>
+        <v>15058</v>
       </c>
       <c r="C22" t="n">
-        <v>9503.088445827989</v>
+        <v>18331.65921398864</v>
       </c>
       <c r="D22" t="n">
-        <v>-3460.161055094157</v>
+        <v>5368.409713066496</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>{'Gender': '1', 'Hobby': '1'}</t>
+          <t>{'Hobby': '1', 'DevType': '2'}</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>22770</v>
+        <v>14939</v>
       </c>
       <c r="C23" t="n">
-        <v>9793.201298325481</v>
+        <v>10100.44398032732</v>
       </c>
       <c r="D23" t="n">
-        <v>-3170.048202596665</v>
+        <v>-2862.805520594828</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>{'Hobby': '1', 'SexualOrientation': '1'}</t>
+          <t>{'Hobby': '1', 'HoursComputer': '2'}</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>22529</v>
+        <v>13883</v>
       </c>
       <c r="C24" t="n">
-        <v>8905.820842777424</v>
+        <v>9503.088445827989</v>
       </c>
       <c r="D24" t="n">
-        <v>-4057.428658144721</v>
+        <v>-3460.161055094157</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>{'Dependents': '2', 'Hobby': '1'}</t>
+          <t>{'Gender': '1', 'Hobby': '1'}</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>17063</v>
+        <v>22770</v>
       </c>
       <c r="C25" t="n">
-        <v>13434.95249482262</v>
+        <v>9793.201298325481</v>
       </c>
       <c r="D25" t="n">
-        <v>471.7029939004733</v>
+        <v>-3170.048202596665</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>{'Hobby': '1', 'Continent': '1'}</t>
+          <t>{'SexualOrientation': '1', 'Hobby': '1'}</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>11833</v>
+        <v>22529</v>
       </c>
       <c r="C26" t="n">
-        <v>8138.351736641494</v>
+        <v>8905.820842777424</v>
       </c>
       <c r="D26" t="n">
-        <v>-4824.897764280652</v>
+        <v>-4057.428658144721</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>{'Age': '3', 'Hobby': '1'}</t>
+          <t>{'Hobby': '1', 'Dependents': '2'}</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>12482</v>
+        <v>17063</v>
       </c>
       <c r="C27" t="n">
-        <v>10497.89756954016</v>
+        <v>13434.95249482262</v>
       </c>
       <c r="D27" t="n">
-        <v>-2465.351931381991</v>
+        <v>471.7029939004733</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>{'Hobby': '1', 'HDI': '1'}</t>
+          <t>{'Hobby': '1', 'Continent': '1'}</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>20675</v>
+        <v>11833</v>
       </c>
       <c r="C28" t="n">
-        <v>9822.513984659707</v>
+        <v>8138.351736641494</v>
       </c>
       <c r="D28" t="n">
-        <v>-3140.735516262439</v>
+        <v>-4824.897764280652</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>{'Hobby': '1', 'GDP': '1'}</t>
+          <t>{'Age': '3', 'Hobby': '1'}</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>12093</v>
+        <v>12482</v>
       </c>
       <c r="C29" t="n">
-        <v>9794.118751851929</v>
+        <v>10497.89756954016</v>
       </c>
       <c r="D29" t="n">
-        <v>-3169.130749070217</v>
+        <v>-2465.351931381991</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>{'GINI': '1', 'Hobby': '1'}</t>
+          <t>{'HDI': '1', 'Hobby': '1'}</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>10282</v>
+        <v>20675</v>
       </c>
       <c r="C30" t="n">
-        <v>8956.669140233911</v>
+        <v>9822.513984659707</v>
       </c>
       <c r="D30" t="n">
-        <v>-4006.580360688235</v>
+        <v>-3140.735516262439</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>{'GINI': '2', 'Hobby': '1'}</t>
+          <t>{'GDP': '1', 'Hobby': '1'}</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>11628</v>
+        <v>12093</v>
       </c>
       <c r="C31" t="n">
-        <v>9847.719783418677</v>
+        <v>9794.118751851929</v>
       </c>
       <c r="D31" t="n">
-        <v>-3115.529717503468</v>
+        <v>-3169.130749070217</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>{'Country': '2', 'Continent': '2'}</t>
+          <t>{'GINI': '1', 'Hobby': '1'}</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>10476</v>
+        <v>10282</v>
       </c>
       <c r="C32" t="n">
-        <v>15675.23593576647</v>
+        <v>8956.669140233911</v>
       </c>
       <c r="D32" t="n">
-        <v>2711.986434844323</v>
+        <v>-4006.580360688235</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>{'HDI': '1', 'Country': '2'}</t>
+          <t>{'GINI': '2', 'Hobby': '1'}</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>10476</v>
+        <v>11628</v>
       </c>
       <c r="C33" t="n">
-        <v>15675.23593576647</v>
+        <v>9847.719783418677</v>
       </c>
       <c r="D33" t="n">
-        <v>2711.986434844323</v>
+        <v>-3115.529717503468</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>{'Country': '2', 'GDP': '2'}</t>
+          <t>{'Continent': '2', 'Country': '2'}</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -1062,7 +1062,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>{'GINI': '2', 'Country': '2'}</t>
+          <t>{'HDI': '1', 'Country': '2'}</t>
         </is>
       </c>
       <c r="B35" t="n">
@@ -1078,4768 +1078,4928 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>{'FormalEducation': '1', 'Student': '1'}</t>
+          <t>{'GDP': '2', 'Country': '2'}</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>12007</v>
+        <v>10476</v>
       </c>
       <c r="C36" t="n">
-        <v>3742.789353273065</v>
+        <v>15675.23593576647</v>
       </c>
       <c r="D36" t="n">
-        <v>-9220.460147649081</v>
+        <v>2711.986434844323</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>{'UndergradMajor': '2', 'Student': '1'}</t>
+          <t>{'GINI': '2', 'Country': '2'}</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>15077</v>
+        <v>10476</v>
       </c>
       <c r="C37" t="n">
-        <v>20114.57186124945</v>
+        <v>15675.23593576647</v>
       </c>
       <c r="D37" t="n">
-        <v>7151.322360327307</v>
+        <v>2711.986434844323</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>{'Student': '1', 'DevType': '2'}</t>
+          <t>{'FormalEducation': '1', 'Student': '1'}</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>15397</v>
+        <v>12007</v>
       </c>
       <c r="C38" t="n">
-        <v>12458.93044835459</v>
+        <v>3742.789353273065</v>
       </c>
       <c r="D38" t="n">
-        <v>-504.3190525675527</v>
+        <v>-9220.460147649081</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>{'HoursComputer': '2', 'Student': '1'}</t>
+          <t>{'UndergradMajor': '2', 'Student': '1'}</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>14215</v>
+        <v>15077</v>
       </c>
       <c r="C39" t="n">
-        <v>11894.34051605526</v>
+        <v>20114.57186124945</v>
       </c>
       <c r="D39" t="n">
-        <v>-1068.908984866888</v>
+        <v>7151.322360327307</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>{'Gender': '1', 'Student': '1'}</t>
+          <t>{'DevType': '2', 'Student': '1'}</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>23188</v>
+        <v>15397</v>
       </c>
       <c r="C40" t="n">
-        <v>10204.27301983108</v>
+        <v>12458.93044835459</v>
       </c>
       <c r="D40" t="n">
-        <v>-2758.976481091066</v>
+        <v>-504.3190525675527</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>{'Student': '1', 'SexualOrientation': '1'}</t>
+          <t>{'Student': '1', 'HoursComputer': '2'}</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>23264</v>
+        <v>14215</v>
       </c>
       <c r="C41" t="n">
-        <v>10145.98630245002</v>
+        <v>11894.34051605526</v>
       </c>
       <c r="D41" t="n">
-        <v>-2817.263198472123</v>
+        <v>-1068.908984866888</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>{'Dependents': '2', 'Student': '1'}</t>
+          <t>{'Gender': '1', 'Student': '1'}</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>16812</v>
+        <v>23188</v>
       </c>
       <c r="C42" t="n">
-        <v>14915.38565374814</v>
+        <v>10204.27301983108</v>
       </c>
       <c r="D42" t="n">
-        <v>1952.136152825999</v>
+        <v>-2758.976481091066</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>{'Student': '1', 'Continent': '1'}</t>
+          <t>{'SexualOrientation': '1', 'Student': '1'}</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>11714</v>
+        <v>23264</v>
       </c>
       <c r="C43" t="n">
-        <v>6526.007393188468</v>
+        <v>10145.98630245002</v>
       </c>
       <c r="D43" t="n">
-        <v>-6437.242107733678</v>
+        <v>-2817.263198472123</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>{'Student': '1', 'Continent': '2'}</t>
+          <t>{'Dependents': '2', 'Student': '1'}</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>10824</v>
+        <v>16812</v>
       </c>
       <c r="C44" t="n">
-        <v>14168.77176381401</v>
+        <v>14915.38565374814</v>
       </c>
       <c r="D44" t="n">
-        <v>1205.522262891869</v>
+        <v>1952.136152825999</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>{'Age': '3', 'Student': '1'}</t>
+          <t>{'Continent': '1', 'Student': '1'}</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>13246</v>
+        <v>11714</v>
       </c>
       <c r="C45" t="n">
-        <v>13156.01528425344</v>
+        <v>6526.007393188468</v>
       </c>
       <c r="D45" t="n">
-        <v>192.7657833312933</v>
+        <v>-6437.242107733678</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>{'HDI': '1', 'Student': '1'}</t>
+          <t>{'Continent': '2', 'Student': '1'}</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>21710</v>
+        <v>10824</v>
       </c>
       <c r="C46" t="n">
-        <v>10343.01875536946</v>
+        <v>14168.77176381401</v>
       </c>
       <c r="D46" t="n">
-        <v>-2620.23074555269</v>
+        <v>1205.522262891869</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>{'GDP': '1', 'Student': '1'}</t>
+          <t>{'Age': '3', 'Student': '1'}</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>12224</v>
+        <v>13246</v>
       </c>
       <c r="C47" t="n">
-        <v>6286.053141705063</v>
+        <v>13156.01528425344</v>
       </c>
       <c r="D47" t="n">
-        <v>-6677.196359217082</v>
+        <v>192.7657833312933</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>{'GINI': '1', 'Student': '1'}</t>
+          <t>{'HDI': '1', 'Student': '1'}</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>10440</v>
+        <v>21710</v>
       </c>
       <c r="C48" t="n">
-        <v>6200.946697294999</v>
+        <v>10343.01875536946</v>
       </c>
       <c r="D48" t="n">
-        <v>-6762.302803627147</v>
+        <v>-2620.23074555269</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>{'GINI': '2', 'Student': '1'}</t>
+          <t>{'GDP': '1', 'Student': '1'}</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>12352</v>
+        <v>12224</v>
       </c>
       <c r="C49" t="n">
-        <v>13864.44938559026</v>
+        <v>6286.053141705063</v>
       </c>
       <c r="D49" t="n">
-        <v>901.1998846681108</v>
+        <v>-6677.196359217082</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>{'Gender': '1', 'FormalEducation': '1'}</t>
+          <t>{'GINI': '1', 'Student': '1'}</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>12631</v>
+        <v>10440</v>
       </c>
       <c r="C50" t="n">
-        <v>2357.456656196715</v>
+        <v>6200.946697294999</v>
       </c>
       <c r="D50" t="n">
-        <v>-10605.79284472543</v>
+        <v>-6762.302803627147</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>{'FormalEducation': '1', 'SexualOrientation': '1'}</t>
+          <t>{'GINI': '2', 'Student': '1'}</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>12747</v>
+        <v>12352</v>
       </c>
       <c r="C51" t="n">
-        <v>3792.132161031103</v>
+        <v>13864.44938559026</v>
       </c>
       <c r="D51" t="n">
-        <v>-9171.117339891043</v>
+        <v>901.1998846681108</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>{'FormalEducation': '1', 'HDI': '1'}</t>
+          <t>{'FormalEducation': '1', 'Gender': '1'}</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>11724</v>
+        <v>12631</v>
       </c>
       <c r="C52" t="n">
-        <v>1973.3874614</v>
+        <v>2357.456656196715</v>
       </c>
       <c r="D52" t="n">
-        <v>-10989.86203952215</v>
+        <v>-10605.79284472543</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>{'UndergradMajor': '2', 'DevType': '2'}</t>
+          <t>{'SexualOrientation': '1', 'FormalEducation': '1'}</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>11598</v>
+        <v>12747</v>
       </c>
       <c r="C53" t="n">
-        <v>19686.1731551631</v>
+        <v>3792.132161031103</v>
       </c>
       <c r="D53" t="n">
-        <v>6722.923654240956</v>
+        <v>-9171.117339891043</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>{'UndergradMajor': '2', 'HoursComputer': '2'}</t>
+          <t>{'FormalEducation': '1', 'HDI': '1'}</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>10291</v>
+        <v>11724</v>
       </c>
       <c r="C54" t="n">
-        <v>20757.73063965631</v>
+        <v>1973.3874614</v>
       </c>
       <c r="D54" t="n">
-        <v>7794.481138734162</v>
+        <v>-10989.86203952215</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>{'Gender': '1', 'UndergradMajor': '2'}</t>
+          <t>{'UndergradMajor': '2', 'DevType': '2'}</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>17057</v>
+        <v>11598</v>
       </c>
       <c r="C55" t="n">
-        <v>20268.49410164942</v>
+        <v>19686.1731551631</v>
       </c>
       <c r="D55" t="n">
-        <v>7305.244600727277</v>
+        <v>6722.923654240956</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>{'UndergradMajor': '2', 'SexualOrientation': '1'}</t>
+          <t>{'UndergradMajor': '2', 'HoursComputer': '2'}</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>16908</v>
+        <v>10291</v>
       </c>
       <c r="C56" t="n">
-        <v>19053.63946379748</v>
+        <v>20757.73063965631</v>
       </c>
       <c r="D56" t="n">
-        <v>6090.389962875339</v>
+        <v>7794.481138734162</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>{'UndergradMajor': '2', 'Dependents': '2'}</t>
+          <t>{'Gender': '1', 'UndergradMajor': '2'}</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>12931</v>
+        <v>17057</v>
       </c>
       <c r="C57" t="n">
-        <v>20811.96357186809</v>
+        <v>20268.49410164942</v>
       </c>
       <c r="D57" t="n">
-        <v>7848.714070945942</v>
+        <v>7305.244600727277</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>{'UndergradMajor': '2', 'HDI': '1'}</t>
+          <t>{'SexualOrientation': '1', 'UndergradMajor': '2'}</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>15406</v>
+        <v>16908</v>
       </c>
       <c r="C58" t="n">
-        <v>19129.56707097096</v>
+        <v>19053.63946379748</v>
       </c>
       <c r="D58" t="n">
-        <v>6166.317570048814</v>
+        <v>6090.389962875339</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>{'HoursComputer': '2', 'DevType': '2'}</t>
+          <t>{'UndergradMajor': '2', 'Dependents': '2'}</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>10264</v>
+        <v>12931</v>
       </c>
       <c r="C59" t="n">
-        <v>11584.39270832078</v>
+        <v>20811.96357186809</v>
       </c>
       <c r="D59" t="n">
-        <v>-1378.856792601367</v>
+        <v>7848.714070945942</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>{'Gender': '1', 'DevType': '2'}</t>
+          <t>{'UndergradMajor': '2', 'HDI': '1'}</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>16852</v>
+        <v>15406</v>
       </c>
       <c r="C60" t="n">
-        <v>11505.16324489906</v>
+        <v>19129.56707097096</v>
       </c>
       <c r="D60" t="n">
-        <v>-1458.086256023089</v>
+        <v>6166.317570048814</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>{'DevType': '2', 'SexualOrientation': '1'}</t>
+          <t>{'DevType': '2', 'HoursComputer': '2'}</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>16631</v>
+        <v>10264</v>
       </c>
       <c r="C61" t="n">
-        <v>10372.18434513095</v>
+        <v>11584.39270832078</v>
       </c>
       <c r="D61" t="n">
-        <v>-2591.065155791193</v>
+        <v>-1378.856792601367</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>{'Dependents': '2', 'DevType': '2'}</t>
+          <t>{'Gender': '1', 'DevType': '2'}</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>12275</v>
+        <v>16852</v>
       </c>
       <c r="C62" t="n">
-        <v>14737.42262782421</v>
+        <v>11505.16324489906</v>
       </c>
       <c r="D62" t="n">
-        <v>1774.173126902067</v>
+        <v>-1458.086256023089</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>{'HDI': '1', 'DevType': '2'}</t>
+          <t>{'SexualOrientation': '1', 'DevType': '2'}</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>15175</v>
+        <v>16631</v>
       </c>
       <c r="C63" t="n">
-        <v>11257.39659382552</v>
+        <v>10372.18434513095</v>
       </c>
       <c r="D63" t="n">
-        <v>-1705.852907096631</v>
+        <v>-2591.065155791193</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>{'Gender': '1', 'HoursComputer': '2'}</t>
+          <t>{'Dependents': '2', 'DevType': '2'}</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>15415</v>
+        <v>12275</v>
       </c>
       <c r="C64" t="n">
-        <v>11542.48855671203</v>
+        <v>14737.42262782421</v>
       </c>
       <c r="D64" t="n">
-        <v>-1420.760944210115</v>
+        <v>1774.173126902067</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>{'HoursComputer': '2', 'SexualOrientation': '1'}</t>
+          <t>{'HDI': '1', 'DevType': '2'}</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>15402</v>
+        <v>15175</v>
       </c>
       <c r="C65" t="n">
-        <v>10116.13933820374</v>
+        <v>11257.39659382552</v>
       </c>
       <c r="D65" t="n">
-        <v>-2847.110162718405</v>
+        <v>-1705.852907096631</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>{'HoursComputer': '2', 'Dependents': '2'}</t>
+          <t>{'Gender': '1', 'HoursComputer': '2'}</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>11601</v>
+        <v>15415</v>
       </c>
       <c r="C66" t="n">
-        <v>13675.48132828071</v>
+        <v>11542.48855671203</v>
       </c>
       <c r="D66" t="n">
-        <v>712.2318273585661</v>
+        <v>-1420.760944210115</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>{'HoursComputer': '2', 'HDI': '1'}</t>
+          <t>{'SexualOrientation': '1', 'HoursComputer': '2'}</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>13972</v>
+        <v>15402</v>
       </c>
       <c r="C67" t="n">
-        <v>10870.90581257961</v>
+        <v>10116.13933820374</v>
       </c>
       <c r="D67" t="n">
-        <v>-2092.343688342537</v>
+        <v>-2847.110162718405</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>{'Gender': '1', 'SexualOrientation': '1'}</t>
+          <t>{'Dependents': '2', 'HoursComputer': '2'}</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>25910</v>
+        <v>11601</v>
       </c>
       <c r="C68" t="n">
-        <v>10263.12279291961</v>
+        <v>13675.48132828071</v>
       </c>
       <c r="D68" t="n">
-        <v>-2700.126708002535</v>
+        <v>712.2318273585661</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>{'Gender': '1', 'Dependents': '2'}</t>
+          <t>{'HDI': '1', 'HoursComputer': '2'}</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>18813</v>
+        <v>13972</v>
       </c>
       <c r="C69" t="n">
-        <v>14017.15883098588</v>
+        <v>10870.90581257961</v>
       </c>
       <c r="D69" t="n">
-        <v>1053.909330063734</v>
+        <v>-2092.343688342537</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>{'Gender': '1', 'Continent': '1'}</t>
+          <t>{'SexualOrientation': '1', 'Gender': '1'}</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>13438</v>
+        <v>25910</v>
       </c>
       <c r="C70" t="n">
-        <v>6080.372013572365</v>
+        <v>10263.12279291961</v>
       </c>
       <c r="D70" t="n">
-        <v>-6882.87748734978</v>
+        <v>-2700.126708002535</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>{'Gender': '1', 'Age': '3'}</t>
+          <t>{'Gender': '1', 'Dependents': '2'}</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>13877</v>
+        <v>18813</v>
       </c>
       <c r="C71" t="n">
-        <v>11695.49536725376</v>
+        <v>14017.15883098588</v>
       </c>
       <c r="D71" t="n">
-        <v>-1267.754133668386</v>
+        <v>1053.909330063734</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>{'Gender': '1', 'HDI': '1'}</t>
+          <t>{'Gender': '1', 'Continent': '1'}</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>23143</v>
+        <v>13438</v>
       </c>
       <c r="C72" t="n">
-        <v>9283.890006454172</v>
+        <v>6080.372013572365</v>
       </c>
       <c r="D72" t="n">
-        <v>-3679.359494467973</v>
+        <v>-6882.87748734978</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>{'Gender': '1', 'GDP': '1'}</t>
+          <t>{'Gender': '1', 'Continent': '2'}</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>13664</v>
+        <v>10872</v>
       </c>
       <c r="C73" t="n">
-        <v>7772.217637815273</v>
+        <v>0</v>
       </c>
       <c r="D73" t="n">
-        <v>-5191.031863106873</v>
+        <v>-12963.24950092215</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>{'Gender': '1', 'GINI': '2'}</t>
+          <t>{'Gender': '1', 'Age': '3'}</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>13085</v>
+        <v>13877</v>
       </c>
       <c r="C74" t="n">
-        <v>10679.55945250415</v>
+        <v>11695.49536725376</v>
       </c>
       <c r="D74" t="n">
-        <v>-2283.690048418001</v>
+        <v>-1267.754133668386</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>{'Dependents': '2', 'SexualOrientation': '1'}</t>
+          <t>{'Gender': '1', 'HDI': '1'}</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>18715</v>
+        <v>23143</v>
       </c>
       <c r="C75" t="n">
-        <v>13935.86347048962</v>
+        <v>9283.890006454172</v>
       </c>
       <c r="D75" t="n">
-        <v>972.6139695674774</v>
+        <v>-3679.359494467973</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>{'SexualOrientation': '1', 'Continent': '1'}</t>
+          <t>{'Gender': '1', 'GDP': '1'}</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>13337</v>
+        <v>13664</v>
       </c>
       <c r="C76" t="n">
-        <v>6376.182361090153</v>
+        <v>7772.217637815273</v>
       </c>
       <c r="D76" t="n">
-        <v>-6587.067139831993</v>
+        <v>-5191.031863106873</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>{'Age': '3', 'SexualOrientation': '1'}</t>
+          <t>{'Gender': '1', 'GINI': '1'}</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>13962</v>
+        <v>11663</v>
       </c>
       <c r="C77" t="n">
-        <v>12828.59648298868</v>
+        <v>0</v>
       </c>
       <c r="D77" t="n">
-        <v>-134.6530179334641</v>
+        <v>-12963.24950092215</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>{'HDI': '1', 'SexualOrientation': '1'}</t>
+          <t>{'GINI': '2', 'Gender': '1'}</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>23146</v>
+        <v>13085</v>
       </c>
       <c r="C78" t="n">
-        <v>9368.314941529816</v>
+        <v>10679.55945250415</v>
       </c>
       <c r="D78" t="n">
-        <v>-3594.93455939233</v>
+        <v>-2283.690048418001</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>{'GDP': '1', 'SexualOrientation': '1'}</t>
+          <t>{'SexualOrientation': '1', 'Dependents': '2'}</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>13543</v>
+        <v>18715</v>
       </c>
       <c r="C79" t="n">
-        <v>7895.048943962457</v>
+        <v>13935.86347048962</v>
       </c>
       <c r="D79" t="n">
-        <v>-5068.200556959689</v>
+        <v>972.6139695674774</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>{'GINI': '1', 'SexualOrientation': '1'}</t>
+          <t>{'SexualOrientation': '1', 'Continent': '1'}</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>11541</v>
+        <v>13337</v>
       </c>
       <c r="C80" t="n">
-        <v>344.4682497421204</v>
+        <v>6376.182361090153</v>
       </c>
       <c r="D80" t="n">
-        <v>-12618.78125118003</v>
+        <v>-6587.067139831993</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>{'GINI': '2', 'SexualOrientation': '1'}</t>
+          <t>{'SexualOrientation': '1', 'Continent': '2'}</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>13244</v>
+        <v>11011</v>
       </c>
       <c r="C81" t="n">
-        <v>10289.88037295007</v>
+        <v>0</v>
       </c>
       <c r="D81" t="n">
-        <v>-2673.369127972075</v>
+        <v>-12963.24950092215</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>{'Dependents': '2', 'Continent': '1'}</t>
+          <t>{'SexualOrientation': '1', 'Age': '3'}</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>10571</v>
+        <v>13962</v>
       </c>
       <c r="C82" t="n">
-        <v>7675.019016339514</v>
+        <v>12828.59648298868</v>
       </c>
       <c r="D82" t="n">
-        <v>-5288.230484582632</v>
+        <v>-134.6530179334641</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>{'Age': '3', 'Dependents': '2'}</t>
+          <t>{'SexualOrientation': '1', 'HDI': '1'}</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>11536</v>
+        <v>23146</v>
       </c>
       <c r="C83" t="n">
-        <v>12135.62260570395</v>
+        <v>9368.314941529816</v>
       </c>
       <c r="D83" t="n">
-        <v>-827.6268952181927</v>
+        <v>-3594.93455939233</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>{'Dependents': '2', 'HDI': '1'}</t>
+          <t>{'SexualOrientation': '1', 'GDP': '1'}</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>17336</v>
+        <v>13543</v>
       </c>
       <c r="C84" t="n">
-        <v>14861.36267076715</v>
+        <v>7895.048943962457</v>
       </c>
       <c r="D84" t="n">
-        <v>1898.113169845003</v>
+        <v>-5068.200556959689</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>{'Dependents': '2', 'GDP': '1'}</t>
+          <t>{'SexualOrientation': '1', 'GINI': '1'}</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>10623</v>
+        <v>11541</v>
       </c>
       <c r="C85" t="n">
-        <v>9949.328335933651</v>
+        <v>344.4682497421204</v>
       </c>
       <c r="D85" t="n">
-        <v>-3013.921164988495</v>
+        <v>-12618.78125118003</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>{'HDI': '1', 'Continent': '1'}</t>
+          <t>{'SexualOrientation': '1', 'GINI': '2'}</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>11828</v>
+        <v>13244</v>
       </c>
       <c r="C86" t="n">
-        <v>7151.838439157452</v>
+        <v>10289.88037295007</v>
       </c>
       <c r="D86" t="n">
-        <v>-5811.411061764694</v>
+        <v>-2673.369127972075</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>{'GDP': '1', 'Continent': '1'}</t>
+          <t>{'Dependents': '2', 'Continent': '1'}</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>11828</v>
+        <v>10571</v>
       </c>
       <c r="C87" t="n">
-        <v>7151.838439157452</v>
+        <v>7675.019016339514</v>
       </c>
       <c r="D87" t="n">
-        <v>-5811.411061764694</v>
+        <v>-5288.230484582632</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>{'Continent': '2', 'GDP': '2'}</t>
+          <t>{'Age': '3', 'Dependents': '2'}</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>10476</v>
+        <v>11536</v>
       </c>
       <c r="C88" t="n">
-        <v>15675.23593576647</v>
+        <v>12135.62260570395</v>
       </c>
       <c r="D88" t="n">
-        <v>2711.986434844323</v>
+        <v>-827.6268952181927</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>{'GINI': '2', 'Continent': '2'}</t>
+          <t>{'HDI': '1', 'Dependents': '2'}</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>10476</v>
+        <v>17336</v>
       </c>
       <c r="C89" t="n">
-        <v>15675.23593576647</v>
+        <v>14861.36267076715</v>
       </c>
       <c r="D89" t="n">
-        <v>2711.986434844323</v>
+        <v>1898.113169845003</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>{'Age': '3', 'HDI': '1'}</t>
+          <t>{'GDP': '1', 'Dependents': '2'}</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>12457</v>
+        <v>10623</v>
       </c>
       <c r="C90" t="n">
-        <v>11480.51357636993</v>
+        <v>9949.328335933651</v>
       </c>
       <c r="D90" t="n">
-        <v>-1482.735924552211</v>
+        <v>-3013.921164988495</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>{'GDP': '1', 'HDI': '1'}</t>
+          <t>{'HDI': '1', 'Continent': '1'}</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>14547</v>
+        <v>11828</v>
       </c>
       <c r="C91" t="n">
-        <v>7723.237607983301</v>
+        <v>7151.838439157452</v>
       </c>
       <c r="D91" t="n">
-        <v>-5240.011892938845</v>
+        <v>-5811.411061764694</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>{'HDI': '1', 'GDP': '2'}</t>
+          <t>{'GDP': '1', 'Continent': '1'}</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>10476</v>
+        <v>11828</v>
       </c>
       <c r="C92" t="n">
-        <v>15675.23593576647</v>
+        <v>7151.838439157452</v>
       </c>
       <c r="D92" t="n">
-        <v>2711.986434844323</v>
+        <v>-5811.411061764694</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>{'GINI': '1', 'HDI': '1'}</t>
+          <t>{'HDI': '1', 'Continent': '2'}</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>11555</v>
+        <v>11997</v>
       </c>
       <c r="C93" t="n">
-        <v>10303.85691520677</v>
+        <v>0</v>
       </c>
       <c r="D93" t="n">
-        <v>-2659.392585715375</v>
+        <v>-12963.24950092215</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>{'GINI': '2', 'HDI': '1'}</t>
+          <t>{'GDP': '2', 'Continent': '2'}</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>10728</v>
+        <v>10476</v>
       </c>
       <c r="C94" t="n">
-        <v>18070.4101296662</v>
+        <v>15675.23593576647</v>
       </c>
       <c r="D94" t="n">
-        <v>5107.160628744052</v>
+        <v>2711.986434844323</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>{'GINI': '1', 'GDP': '1'}</t>
+          <t>{'GINI': '2', 'Continent': '2'}</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>11555</v>
+        <v>10476</v>
       </c>
       <c r="C95" t="n">
-        <v>10303.85691520677</v>
+        <v>15675.23593576647</v>
       </c>
       <c r="D95" t="n">
-        <v>-2659.392585715375</v>
+        <v>2711.986434844323</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>{'GINI': '2', 'GDP': '2'}</t>
+          <t>{'Age': '3', 'HDI': '1'}</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>10476</v>
+        <v>12457</v>
       </c>
       <c r="C96" t="n">
-        <v>15675.23593576647</v>
+        <v>11480.51357636993</v>
       </c>
       <c r="D96" t="n">
-        <v>2711.986434844323</v>
+        <v>-1482.735924552211</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>{'UndergradMajor': '2', 'Hobby': '1', 'Student': '1'}</t>
+          <t>{'GDP': '1', 'HDI': '1'}</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>12366</v>
+        <v>14547</v>
       </c>
       <c r="C97" t="n">
-        <v>17291.92542189511</v>
+        <v>7723.237607983301</v>
       </c>
       <c r="D97" t="n">
-        <v>4328.675920972961</v>
+        <v>-5240.011892938845</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>{'Hobby': '1', 'Student': '1', 'DevType': '2'}</t>
+          <t>{'HDI': '1', 'GDP': '2'}</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>12721</v>
+        <v>10476</v>
       </c>
       <c r="C98" t="n">
-        <v>9340.133868374181</v>
+        <v>15675.23593576647</v>
       </c>
       <c r="D98" t="n">
-        <v>-3623.115632547964</v>
+        <v>2711.986434844323</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>{'HoursComputer': '2', 'Hobby': '1', 'Student': '1'}</t>
+          <t>{'GINI': '1', 'HDI': '1'}</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>11781</v>
+        <v>11555</v>
       </c>
       <c r="C99" t="n">
-        <v>9667.683527814093</v>
+        <v>10303.85691520677</v>
       </c>
       <c r="D99" t="n">
-        <v>-3295.565973108052</v>
+        <v>-2659.392585715375</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>{'Gender': '1', 'Hobby': '1', 'Student': '1'}</t>
+          <t>{'GINI': '2', 'HDI': '1'}</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>19121</v>
+        <v>10728</v>
       </c>
       <c r="C100" t="n">
-        <v>8516.623745728855</v>
+        <v>18070.4101296662</v>
       </c>
       <c r="D100" t="n">
-        <v>-4446.62575519329</v>
+        <v>5107.160628744052</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>{'Hobby': '1', 'Student': '1', 'SexualOrientation': '1'}</t>
+          <t>{'GDP': '1', 'GINI': '1'}</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>18956</v>
+        <v>11555</v>
       </c>
       <c r="C101" t="n">
-        <v>7726.243805460593</v>
+        <v>10303.85691520677</v>
       </c>
       <c r="D101" t="n">
-        <v>-5237.005695461553</v>
+        <v>-2659.392585715375</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>{'Dependents': '2', 'Hobby': '1', 'Student': '1'}</t>
+          <t>{'GINI': '2', 'GDP': '2'}</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>13784</v>
+        <v>10476</v>
       </c>
       <c r="C102" t="n">
-        <v>11440.98838962906</v>
+        <v>15675.23593576647</v>
       </c>
       <c r="D102" t="n">
-        <v>-1522.261111293086</v>
+        <v>2711.986434844323</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>{'Age': '3', 'Hobby': '1', 'Student': '1'}</t>
+          <t>{'UndergradMajor': '2', 'Hobby': '1', 'Student': '1'}</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>10920</v>
+        <v>12366</v>
       </c>
       <c r="C103" t="n">
-        <v>9484.887938613625</v>
+        <v>17291.92542189511</v>
       </c>
       <c r="D103" t="n">
-        <v>-3478.361562308521</v>
+        <v>4328.675920972961</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>{'Hobby': '1', 'Student': '1', 'HDI': '1'}</t>
+          <t>{'Hobby': '1', 'DevType': '2', 'Student': '1'}</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>17771</v>
+        <v>12721</v>
       </c>
       <c r="C104" t="n">
-        <v>8530.523205969457</v>
+        <v>9340.133868374181</v>
       </c>
       <c r="D104" t="n">
-        <v>-4432.726294952688</v>
+        <v>-3623.115632547964</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>{'Hobby': '1', 'Student': '1', 'GDP': '1'}</t>
+          <t>{'Student': '1', 'Hobby': '1', 'HoursComputer': '2'}</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>10055</v>
+        <v>11781</v>
       </c>
       <c r="C105" t="n">
-        <v>8188.937105622515</v>
+        <v>9667.683527814093</v>
       </c>
       <c r="D105" t="n">
-        <v>-4774.31239529963</v>
+        <v>-3295.565973108052</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>{'Gender': '1', 'FormalEducation': '1', 'Hobby': '1'}</t>
+          <t>{'Gender': '1', 'Hobby': '1', 'Student': '1'}</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>10305</v>
+        <v>19121</v>
       </c>
       <c r="C106" t="n">
-        <v>836.5085364549462</v>
+        <v>8516.623745728855</v>
       </c>
       <c r="D106" t="n">
-        <v>-12126.7409644672</v>
+        <v>-4446.62575519329</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>{'FormalEducation': '1', 'Hobby': '1', 'SexualOrientation': '1'}</t>
+          <t>{'SexualOrientation': '1', 'Hobby': '1', 'Student': '1'}</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>10267</v>
+        <v>18956</v>
       </c>
       <c r="C107" t="n">
-        <v>1414.810180628027</v>
+        <v>7726.243805460593</v>
       </c>
       <c r="D107" t="n">
-        <v>-11548.43932029412</v>
+        <v>-5237.005695461553</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>{'Gender': '1', 'UndergradMajor': '2', 'Hobby': '1'}</t>
+          <t>{'Student': '1', 'Hobby': '1', 'Dependents': '2'}</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>14278</v>
+        <v>13784</v>
       </c>
       <c r="C108" t="n">
-        <v>18361.13278137466</v>
+        <v>11440.98838962906</v>
       </c>
       <c r="D108" t="n">
-        <v>5397.883280452512</v>
+        <v>-1522.261111293086</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>{'UndergradMajor': '2', 'Hobby': '1', 'SexualOrientation': '1'}</t>
+          <t>{'Age': '3', 'Hobby': '1', 'Student': '1'}</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>14027</v>
+        <v>10920</v>
       </c>
       <c r="C109" t="n">
-        <v>16039.08789296552</v>
+        <v>9484.887938613625</v>
       </c>
       <c r="D109" t="n">
-        <v>3075.838392043373</v>
+        <v>-3478.361562308521</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>{'Dependents': '2', 'Hobby': '1', 'UndergradMajor': '2'}</t>
+          <t>{'HDI': '1', 'Hobby': '1', 'Student': '1'}</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>10789</v>
+        <v>17771</v>
       </c>
       <c r="C110" t="n">
-        <v>17219.33853012278</v>
+        <v>8530.523205969457</v>
       </c>
       <c r="D110" t="n">
-        <v>4256.08902920063</v>
+        <v>-4432.726294952688</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>{'UndergradMajor': '2', 'Hobby': '1', 'HDI': '1'}</t>
+          <t>{'GDP': '1', 'Hobby': '1', 'Student': '1'}</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>12823</v>
+        <v>10055</v>
       </c>
       <c r="C111" t="n">
-        <v>16645.05483269171</v>
+        <v>8188.937105622515</v>
       </c>
       <c r="D111" t="n">
-        <v>3681.805331769567</v>
+        <v>-4774.31239529963</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>{'Gender': '1', 'Hobby': '1', 'DevType': '2'}</t>
+          <t>{'Gender': '1', 'FormalEducation': '1', 'Hobby': '1'}</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>14176</v>
+        <v>10305</v>
       </c>
       <c r="C112" t="n">
-        <v>9487.389251970961</v>
+        <v>836.5085364549462</v>
       </c>
       <c r="D112" t="n">
-        <v>-3475.860248951185</v>
+        <v>-12126.7409644672</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>{'Hobby': '1', 'DevType': '2', 'SexualOrientation': '1'}</t>
+          <t>{'SexualOrientation': '1', 'FormalEducation': '1', 'Hobby': '1'}</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>13874</v>
+        <v>10267</v>
       </c>
       <c r="C113" t="n">
-        <v>7844.728139078431</v>
+        <v>1414.810180628027</v>
       </c>
       <c r="D113" t="n">
-        <v>-5118.521361843715</v>
+        <v>-11548.43932029412</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>{'Dependents': '2', 'Hobby': '1', 'DevType': '2'}</t>
+          <t>{'Gender': '1', 'UndergradMajor': '2', 'Hobby': '1'}</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>10340</v>
+        <v>14278</v>
       </c>
       <c r="C114" t="n">
-        <v>11888.26648374412</v>
+        <v>18361.13278137466</v>
       </c>
       <c r="D114" t="n">
-        <v>-1074.983017178023</v>
+        <v>5397.883280452512</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>{'Hobby': '1', 'DevType': '2', 'HDI': '1'}</t>
+          <t>{'SexualOrientation': '1', 'UndergradMajor': '2', 'Hobby': '1'}</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>12726</v>
+        <v>14027</v>
       </c>
       <c r="C115" t="n">
-        <v>8201.547798443868</v>
+        <v>16039.08789296552</v>
       </c>
       <c r="D115" t="n">
-        <v>-4761.701702478278</v>
+        <v>3075.838392043373</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>{'Gender': '1', 'HoursComputer': '2', 'Hobby': '1'}</t>
+          <t>{'UndergradMajor': '2', 'Hobby': '1', 'Dependents': '2'}</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>13009</v>
+        <v>10789</v>
       </c>
       <c r="C116" t="n">
-        <v>9060.220330893579</v>
+        <v>17219.33853012278</v>
       </c>
       <c r="D116" t="n">
-        <v>-3903.029170028567</v>
+        <v>4256.08902920063</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>{'HoursComputer': '2', 'Hobby': '1', 'SexualOrientation': '1'}</t>
+          <t>{'UndergradMajor': '2', 'Hobby': '1', 'HDI': '1'}</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>12877</v>
+        <v>12823</v>
       </c>
       <c r="C117" t="n">
-        <v>7149.914751341985</v>
+        <v>16645.05483269171</v>
       </c>
       <c r="D117" t="n">
-        <v>-5813.334749580161</v>
+        <v>3681.805331769567</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>{'HoursComputer': '2', 'Hobby': '1', 'HDI': '1'}</t>
+          <t>{'Gender': '1', 'Hobby': '1', 'DevType': '2'}</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>11741</v>
+        <v>14176</v>
       </c>
       <c r="C118" t="n">
-        <v>8670.758729099878</v>
+        <v>9487.389251970961</v>
       </c>
       <c r="D118" t="n">
-        <v>-4292.490771822268</v>
+        <v>-3475.860248951185</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>{'Gender': '1', 'Hobby': '1', 'SexualOrientation': '1'}</t>
+          <t>{'SexualOrientation': '1', 'Hobby': '1', 'DevType': '2'}</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>21544</v>
+        <v>13874</v>
       </c>
       <c r="C119" t="n">
-        <v>8228.149376149711</v>
+        <v>7844.728139078431</v>
       </c>
       <c r="D119" t="n">
-        <v>-4735.100124772434</v>
+        <v>-5118.521361843715</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>{'Gender': '1', 'Dependents': '2', 'Hobby': '1'}</t>
+          <t>{'Hobby': '1', 'DevType': '2', 'Dependents': '2'}</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>15834</v>
+        <v>10340</v>
       </c>
       <c r="C120" t="n">
-        <v>11719.31701495631</v>
+        <v>11888.26648374412</v>
       </c>
       <c r="D120" t="n">
-        <v>-1243.932485965832</v>
+        <v>-1074.983017178023</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>{'Gender': '1', 'Hobby': '1', 'Continent': '1'}</t>
+          <t>{'HDI': '1', 'Hobby': '1', 'DevType': '2'}</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>11249</v>
+        <v>12726</v>
       </c>
       <c r="C121" t="n">
-        <v>7679.26445062736</v>
+        <v>8201.547798443868</v>
       </c>
       <c r="D121" t="n">
-        <v>-5283.985050294786</v>
+        <v>-4761.701702478278</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>{'Gender': '1', 'Age': '3', 'Hobby': '1'}</t>
+          <t>{'Gender': '1', 'Hobby': '1', 'HoursComputer': '2'}</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>11648</v>
+        <v>13009</v>
       </c>
       <c r="C122" t="n">
-        <v>8980.323026129929</v>
+        <v>9060.220330893579</v>
       </c>
       <c r="D122" t="n">
-        <v>-3982.926474792217</v>
+        <v>-3903.029170028567</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>{'Gender': '1', 'Hobby': '1', 'HDI': '1'}</t>
+          <t>{'SexualOrientation': '1', 'Hobby': '1', 'HoursComputer': '2'}</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>19359</v>
+        <v>12877</v>
       </c>
       <c r="C123" t="n">
-        <v>7940.548127036916</v>
+        <v>7149.914751341985</v>
       </c>
       <c r="D123" t="n">
-        <v>-5022.701373885229</v>
+        <v>-5813.334749580161</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>{'Gender': '1', 'Hobby': '1', 'GDP': '1'}</t>
+          <t>{'HDI': '1', 'Hobby': '1', 'HoursComputer': '2'}</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>11456</v>
+        <v>11741</v>
       </c>
       <c r="C124" t="n">
-        <v>9612.30294657083</v>
+        <v>8670.758729099878</v>
       </c>
       <c r="D124" t="n">
-        <v>-3350.946554351316</v>
+        <v>-4292.490771822268</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>{'Gender': '1', 'Hobby': '1', 'GINI': '2'}</t>
+          <t>{'SexualOrientation': '1', 'Gender': '1', 'Hobby': '1'}</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>10785</v>
+        <v>21544</v>
       </c>
       <c r="C125" t="n">
-        <v>6681.522471459666</v>
+        <v>8228.149376149711</v>
       </c>
       <c r="D125" t="n">
-        <v>-6281.72702946248</v>
+        <v>-4735.100124772434</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>{'Dependents': '2', 'Hobby': '1', 'SexualOrientation': '1'}</t>
+          <t>{'Gender': '1', 'Hobby': '1', 'Dependents': '2'}</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>15532</v>
+        <v>15834</v>
       </c>
       <c r="C126" t="n">
-        <v>10474.02650894398</v>
+        <v>11719.31701495631</v>
       </c>
       <c r="D126" t="n">
-        <v>-2489.222991978169</v>
+        <v>-1243.932485965832</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>{'SexualOrientation': '1', 'Hobby': '1', 'Continent': '1'}</t>
+          <t>{'Gender': '1', 'Hobby': '1', 'Continent': '1'}</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>11053</v>
+        <v>11249</v>
       </c>
       <c r="C127" t="n">
-        <v>7525.221899293894</v>
+        <v>7679.26445062736</v>
       </c>
       <c r="D127" t="n">
-        <v>-5438.027601628251</v>
+        <v>-5283.985050294786</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>{'Age': '3', 'Hobby': '1', 'SexualOrientation': '1'}</t>
+          <t>{'Gender': '1', 'Hobby': '1', 'Age': '3'}</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>11580</v>
+        <v>11648</v>
       </c>
       <c r="C128" t="n">
-        <v>9380.295071489903</v>
+        <v>8980.323026129929</v>
       </c>
       <c r="D128" t="n">
-        <v>-3582.954429432242</v>
+        <v>-3982.926474792217</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>{'Hobby': '1', 'SexualOrientation': '1', 'HDI': '1'}</t>
+          <t>{'Gender': '1', 'HDI': '1', 'Hobby': '1'}</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>19133</v>
+        <v>19359</v>
       </c>
       <c r="C129" t="n">
-        <v>7281.607171741128</v>
+        <v>7940.548127036916</v>
       </c>
       <c r="D129" t="n">
-        <v>-5681.642329181018</v>
+        <v>-5022.701373885229</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>{'Hobby': '1', 'SexualOrientation': '1', 'GDP': '1'}</t>
+          <t>{'Gender': '1', 'GDP': '1', 'Hobby': '1'}</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>11245</v>
+        <v>11456</v>
       </c>
       <c r="C130" t="n">
-        <v>9610.788249181825</v>
+        <v>9612.30294657083</v>
       </c>
       <c r="D130" t="n">
-        <v>-3352.46125174032</v>
+        <v>-3350.946554351316</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>{'GINI': '2', 'Hobby': '1', 'SexualOrientation': '1'}</t>
+          <t>{'GINI': '2', 'Gender': '1', 'Hobby': '1'}</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>10767</v>
+        <v>10785</v>
       </c>
       <c r="C131" t="n">
-        <v>4984.624927408979</v>
+        <v>6681.522471459666</v>
       </c>
       <c r="D131" t="n">
-        <v>-7978.624573513167</v>
+        <v>-6281.72702946248</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>{'Dependents': '2', 'Hobby': '1', 'HDI': '1'}</t>
+          <t>{'SexualOrientation': '1', 'Hobby': '1', 'Dependents': '2'}</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>14455</v>
+        <v>15532</v>
       </c>
       <c r="C132" t="n">
-        <v>12258.40606361234</v>
+        <v>10474.02650894398</v>
       </c>
       <c r="D132" t="n">
-        <v>-704.8434373098098</v>
+        <v>-2489.222991978169</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>{'Age': '3', 'Hobby': '1', 'HDI': '1'}</t>
+          <t>{'SexualOrientation': '1', 'Hobby': '1', 'Continent': '1'}</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>10403</v>
+        <v>11053</v>
       </c>
       <c r="C133" t="n">
-        <v>8182.340279255138</v>
+        <v>7525.221899293894</v>
       </c>
       <c r="D133" t="n">
-        <v>-4780.909221667008</v>
+        <v>-5438.027601628251</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>{'Hobby': '1', 'HDI': '1', 'GDP': '1'}</t>
+          <t>{'SexualOrientation': '1', 'Age': '3', 'Hobby': '1'}</t>
         </is>
       </c>
       <c r="B134" t="n">
-        <v>12093</v>
+        <v>11580</v>
       </c>
       <c r="C134" t="n">
-        <v>9794.118751851929</v>
+        <v>9380.295071489903</v>
       </c>
       <c r="D134" t="n">
-        <v>-3169.130749070217</v>
+        <v>-3582.954429432242</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>{'HDI': '1', 'Country': '2', 'Continent': '2'}</t>
+          <t>{'SexualOrientation': '1', 'HDI': '1', 'Hobby': '1'}</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>10476</v>
+        <v>19133</v>
       </c>
       <c r="C135" t="n">
-        <v>15675.23593576647</v>
+        <v>7281.607171741128</v>
       </c>
       <c r="D135" t="n">
-        <v>2711.986434844323</v>
+        <v>-5681.642329181018</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>{'Country': '2', 'Continent': '2', 'GDP': '2'}</t>
+          <t>{'SexualOrientation': '1', 'GDP': '1', 'Hobby': '1'}</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>10476</v>
+        <v>11245</v>
       </c>
       <c r="C136" t="n">
-        <v>15675.23593576647</v>
+        <v>9610.788249181825</v>
       </c>
       <c r="D136" t="n">
-        <v>2711.986434844323</v>
+        <v>-3352.46125174032</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>{'GINI': '2', 'Country': '2', 'Continent': '2'}</t>
+          <t>{'SexualOrientation': '1', 'Hobby': '1', 'GINI': '2'}</t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>10476</v>
+        <v>10767</v>
       </c>
       <c r="C137" t="n">
-        <v>15675.23593576647</v>
+        <v>4984.624927408979</v>
       </c>
       <c r="D137" t="n">
-        <v>2711.986434844323</v>
+        <v>-7978.624573513167</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>{'HDI': '1', 'Country': '2', 'GDP': '2'}</t>
+          <t>{'HDI': '1', 'Hobby': '1', 'Dependents': '2'}</t>
         </is>
       </c>
       <c r="B138" t="n">
-        <v>10476</v>
+        <v>14455</v>
       </c>
       <c r="C138" t="n">
-        <v>15675.23593576647</v>
+        <v>12258.40606361234</v>
       </c>
       <c r="D138" t="n">
-        <v>2711.986434844323</v>
+        <v>-704.8434373098098</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>{'GINI': '2', 'HDI': '1', 'Country': '2'}</t>
+          <t>{'Age': '3', 'HDI': '1', 'Hobby': '1'}</t>
         </is>
       </c>
       <c r="B139" t="n">
-        <v>10476</v>
+        <v>10403</v>
       </c>
       <c r="C139" t="n">
-        <v>15675.23593576647</v>
+        <v>8182.340279255138</v>
       </c>
       <c r="D139" t="n">
-        <v>2711.986434844323</v>
+        <v>-4780.909221667008</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>{'GINI': '2', 'Country': '2', 'GDP': '2'}</t>
+          <t>{'GDP': '1', 'HDI': '1', 'Hobby': '1'}</t>
         </is>
       </c>
       <c r="B140" t="n">
-        <v>10476</v>
+        <v>12093</v>
       </c>
       <c r="C140" t="n">
-        <v>15675.23593576647</v>
+        <v>9794.118751851929</v>
       </c>
       <c r="D140" t="n">
-        <v>2711.986434844323</v>
+        <v>-3169.130749070217</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>{'Gender': '1', 'FormalEducation': '1', 'Student': '1'}</t>
+          <t>{'Continent': '2', 'HDI': '1', 'Country': '2'}</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>11051</v>
+        <v>10476</v>
       </c>
       <c r="C141" t="n">
-        <v>428.6789881503653</v>
+        <v>15675.23593576647</v>
       </c>
       <c r="D141" t="n">
-        <v>-12534.57051277178</v>
+        <v>2711.986434844323</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>{'FormalEducation': '1', 'Student': '1', 'SexualOrientation': '1'}</t>
+          <t>{'Continent': '2', 'GDP': '2', 'Country': '2'}</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>11170</v>
+        <v>10476</v>
       </c>
       <c r="C142" t="n">
-        <v>2470.580721129022</v>
+        <v>15675.23593576647</v>
       </c>
       <c r="D142" t="n">
-        <v>-10492.66877979312</v>
+        <v>2711.986434844323</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>{'FormalEducation': '1', 'HDI': '1', 'Student': '1'}</t>
+          <t>{'GINI': '2', 'Continent': '2', 'Country': '2'}</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>10580</v>
+        <v>10476</v>
       </c>
       <c r="C143" t="n">
-        <v>1663.799160326401</v>
+        <v>15675.23593576647</v>
       </c>
       <c r="D143" t="n">
-        <v>-11299.45034059575</v>
+        <v>2711.986434844323</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>{'Gender': '1', 'UndergradMajor': '2', 'Student': '1'}</t>
+          <t>{'HDI': '1', 'GDP': '2', 'Country': '2'}</t>
         </is>
       </c>
       <c r="B144" t="n">
-        <v>14188</v>
+        <v>10476</v>
       </c>
       <c r="C144" t="n">
-        <v>19477.91974052416</v>
+        <v>15675.23593576647</v>
       </c>
       <c r="D144" t="n">
-        <v>6514.670239602019</v>
+        <v>2711.986434844323</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>{'UndergradMajor': '2', 'Student': '1', 'SexualOrientation': '1'}</t>
+          <t>{'GINI': '2', 'HDI': '1', 'Country': '2'}</t>
         </is>
       </c>
       <c r="B145" t="n">
-        <v>14089</v>
+        <v>10476</v>
       </c>
       <c r="C145" t="n">
-        <v>18641.11508329739</v>
+        <v>15675.23593576647</v>
       </c>
       <c r="D145" t="n">
-        <v>5677.865582375245</v>
+        <v>2711.986434844323</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>{'UndergradMajor': '2', 'Dependents': '2', 'Student': '1'}</t>
+          <t>{'GINI': '2', 'GDP': '2', 'Country': '2'}</t>
         </is>
       </c>
       <c r="B146" t="n">
-        <v>10330</v>
+        <v>10476</v>
       </c>
       <c r="C146" t="n">
-        <v>20548.36756950868</v>
+        <v>15675.23593576647</v>
       </c>
       <c r="D146" t="n">
-        <v>7585.118068586537</v>
+        <v>2711.986434844323</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>{'UndergradMajor': '2', 'HDI': '1', 'Student': '1'}</t>
+          <t>{'FormalEducation': '1', 'Gender': '1', 'Student': '1'}</t>
         </is>
       </c>
       <c r="B147" t="n">
-        <v>13134</v>
+        <v>11051</v>
       </c>
       <c r="C147" t="n">
-        <v>18556.4223433021</v>
+        <v>428.6789881503653</v>
       </c>
       <c r="D147" t="n">
-        <v>5593.172842379958</v>
+        <v>-12534.57051277178</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>{'Gender': '1', 'Student': '1', 'DevType': '2'}</t>
+          <t>{'SexualOrientation': '1', 'FormalEducation': '1', 'Student': '1'}</t>
         </is>
       </c>
       <c r="B148" t="n">
-        <v>14490</v>
+        <v>11170</v>
       </c>
       <c r="C148" t="n">
-        <v>10833.5037136774</v>
+        <v>2470.580721129022</v>
       </c>
       <c r="D148" t="n">
-        <v>-2129.745787244743</v>
+        <v>-10492.66877979312</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>{'Student': '1', 'DevType': '2', 'SexualOrientation': '1'}</t>
+          <t>{'FormalEducation': '1', 'HDI': '1', 'Student': '1'}</t>
         </is>
       </c>
       <c r="B149" t="n">
-        <v>14333</v>
+        <v>10580</v>
       </c>
       <c r="C149" t="n">
-        <v>10137.79544477485</v>
+        <v>1663.799160326401</v>
       </c>
       <c r="D149" t="n">
-        <v>-2825.454056147297</v>
+        <v>-11299.45034059575</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>{'Dependents': '2', 'Student': '1', 'DevType': '2'}</t>
+          <t>{'Gender': '1', 'UndergradMajor': '2', 'Student': '1'}</t>
         </is>
       </c>
       <c r="B150" t="n">
-        <v>10218</v>
+        <v>14188</v>
       </c>
       <c r="C150" t="n">
-        <v>13916.59321805393</v>
+        <v>19477.91974052416</v>
       </c>
       <c r="D150" t="n">
-        <v>953.3437171317873</v>
+        <v>6514.670239602019</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>{'HDI': '1', 'Student': '1', 'DevType': '2'}</t>
+          <t>{'SexualOrientation': '1', 'UndergradMajor': '2', 'Student': '1'}</t>
         </is>
       </c>
       <c r="B151" t="n">
-        <v>13392</v>
+        <v>14089</v>
       </c>
       <c r="C151" t="n">
-        <v>11333.56186827682</v>
+        <v>18641.11508329739</v>
       </c>
       <c r="D151" t="n">
-        <v>-1629.687632645322</v>
+        <v>5677.865582375245</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>{'Gender': '1', 'HoursComputer': '2', 'Student': '1'}</t>
+          <t>{'UndergradMajor': '2', 'Dependents': '2', 'Student': '1'}</t>
         </is>
       </c>
       <c r="B152" t="n">
-        <v>13197</v>
+        <v>10330</v>
       </c>
       <c r="C152" t="n">
-        <v>11596.75464096236</v>
+        <v>20548.36756950868</v>
       </c>
       <c r="D152" t="n">
-        <v>-1366.494859959785</v>
+        <v>7585.118068586537</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>{'HoursComputer': '2', 'Student': '1', 'SexualOrientation': '1'}</t>
+          <t>{'UndergradMajor': '2', 'HDI': '1', 'Student': '1'}</t>
         </is>
       </c>
       <c r="B153" t="n">
-        <v>13183</v>
+        <v>13134</v>
       </c>
       <c r="C153" t="n">
-        <v>9733.368764136254</v>
+        <v>18556.4223433021</v>
       </c>
       <c r="D153" t="n">
-        <v>-3229.880736785892</v>
+        <v>5593.172842379958</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>{'HoursComputer': '2', 'HDI': '1', 'Student': '1'}</t>
+          <t>{'Gender': '1', 'DevType': '2', 'Student': '1'}</t>
         </is>
       </c>
       <c r="B154" t="n">
-        <v>12234</v>
+        <v>14490</v>
       </c>
       <c r="C154" t="n">
-        <v>10504.76586096776</v>
+        <v>10833.5037136774</v>
       </c>
       <c r="D154" t="n">
-        <v>-2458.483639954386</v>
+        <v>-2129.745787244743</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>{'Gender': '1', 'Student': '1', 'SexualOrientation': '1'}</t>
+          <t>{'SexualOrientation': '1', 'DevType': '2', 'Student': '1'}</t>
         </is>
       </c>
       <c r="B155" t="n">
-        <v>22014</v>
+        <v>14333</v>
       </c>
       <c r="C155" t="n">
-        <v>9367.700301271154</v>
+        <v>10137.79544477485</v>
       </c>
       <c r="D155" t="n">
-        <v>-3595.549199650992</v>
+        <v>-2825.454056147297</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>{'Gender': '1', 'Dependents': '2', 'Student': '1'}</t>
+          <t>{'Dependents': '2', 'DevType': '2', 'Student': '1'}</t>
         </is>
       </c>
       <c r="B156" t="n">
-        <v>15339</v>
+        <v>10218</v>
       </c>
       <c r="C156" t="n">
-        <v>12445.08873558062</v>
+        <v>13916.59321805393</v>
       </c>
       <c r="D156" t="n">
-        <v>-518.1607653415285</v>
+        <v>953.3437171317873</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>{'Gender': '1', 'Student': '1', 'Continent': '1'}</t>
+          <t>{'HDI': '1', 'DevType': '2', 'Student': '1'}</t>
         </is>
       </c>
       <c r="B157" t="n">
-        <v>11044</v>
+        <v>13392</v>
       </c>
       <c r="C157" t="n">
-        <v>5680.758838375144</v>
+        <v>11333.56186827682</v>
       </c>
       <c r="D157" t="n">
-        <v>-7282.490662547001</v>
+        <v>-1629.687632645322</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>{'Gender': '1', 'Age': '3', 'Student': '1'}</t>
+          <t>{'Student': '1', 'Gender': '1', 'HoursComputer': '2'}</t>
         </is>
       </c>
       <c r="B158" t="n">
-        <v>12197</v>
+        <v>13197</v>
       </c>
       <c r="C158" t="n">
-        <v>10814.58006408437</v>
+        <v>11596.75464096236</v>
       </c>
       <c r="D158" t="n">
-        <v>-2148.669436837774</v>
+        <v>-1366.494859959785</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>{'Gender': '1', 'HDI': '1', 'Student': '1'}</t>
+          <t>{'SexualOrientation': '1', 'Student': '1', 'HoursComputer': '2'}</t>
         </is>
       </c>
       <c r="B159" t="n">
-        <v>20079</v>
+        <v>13183</v>
       </c>
       <c r="C159" t="n">
-        <v>8320.806949419126</v>
+        <v>9733.368764136254</v>
       </c>
       <c r="D159" t="n">
-        <v>-4642.44255150302</v>
+        <v>-3229.880736785892</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>{'Gender': '1', 'GDP': '1', 'Student': '1'}</t>
+          <t>{'Student': '1', 'HDI': '1', 'HoursComputer': '2'}</t>
         </is>
       </c>
       <c r="B160" t="n">
-        <v>11483</v>
+        <v>12234</v>
       </c>
       <c r="C160" t="n">
-        <v>6031.316106963518</v>
+        <v>10504.76586096776</v>
       </c>
       <c r="D160" t="n">
-        <v>-6931.933393958628</v>
+        <v>-2458.483639954386</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>{'Gender': '1', 'Student': '1', 'GINI': '2'}</t>
+          <t>{'SexualOrientation': '1', 'Gender': '1', 'Student': '1'}</t>
         </is>
       </c>
       <c r="B161" t="n">
-        <v>11288</v>
+        <v>22014</v>
       </c>
       <c r="C161" t="n">
-        <v>10548.51722017327</v>
+        <v>9367.700301271154</v>
       </c>
       <c r="D161" t="n">
-        <v>-2414.732280748874</v>
+        <v>-3595.549199650992</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>{'Dependents': '2', 'Student': '1', 'SexualOrientation': '1'}</t>
+          <t>{'Gender': '1', 'Dependents': '2', 'Student': '1'}</t>
         </is>
       </c>
       <c r="B162" t="n">
-        <v>15301</v>
+        <v>15339</v>
       </c>
       <c r="C162" t="n">
-        <v>12493.22924053899</v>
+        <v>12445.08873558062</v>
       </c>
       <c r="D162" t="n">
-        <v>-470.0202603831513</v>
+        <v>-518.1607653415285</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>{'SexualOrientation': '1', 'Student': '1', 'Continent': '1'}</t>
+          <t>{'Gender': '1', 'Continent': '1', 'Student': '1'}</t>
         </is>
       </c>
       <c r="B163" t="n">
-        <v>10995</v>
+        <v>11044</v>
       </c>
       <c r="C163" t="n">
-        <v>6458.300129517213</v>
+        <v>5680.758838375144</v>
       </c>
       <c r="D163" t="n">
-        <v>-6504.949371404932</v>
+        <v>-7282.490662547001</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>{'Age': '3', 'Student': '1', 'SexualOrientation': '1'}</t>
+          <t>{'Gender': '1', 'Age': '3', 'Student': '1'}</t>
         </is>
       </c>
       <c r="B164" t="n">
-        <v>12276</v>
+        <v>12197</v>
       </c>
       <c r="C164" t="n">
-        <v>12455.45090481749</v>
+        <v>10814.58006408437</v>
       </c>
       <c r="D164" t="n">
-        <v>-507.7985961046543</v>
+        <v>-2148.669436837774</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>{'HDI': '1', 'Student': '1', 'SexualOrientation': '1'}</t>
+          <t>{'Gender': '1', 'HDI': '1', 'Student': '1'}</t>
         </is>
       </c>
       <c r="B165" t="n">
-        <v>20128</v>
+        <v>20079</v>
       </c>
       <c r="C165" t="n">
-        <v>8058.492947675052</v>
+        <v>8320.806949419126</v>
       </c>
       <c r="D165" t="n">
-        <v>-4904.756553247094</v>
+        <v>-4642.44255150302</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>{'GDP': '1', 'Student': '1', 'SexualOrientation': '1'}</t>
+          <t>{'Gender': '1', 'GDP': '1', 'Student': '1'}</t>
         </is>
       </c>
       <c r="B166" t="n">
-        <v>11420</v>
+        <v>11483</v>
       </c>
       <c r="C166" t="n">
-        <v>6289.75820504712</v>
+        <v>6031.316106963518</v>
       </c>
       <c r="D166" t="n">
-        <v>-6673.491295875026</v>
+        <v>-6931.933393958628</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>{'GINI': '2', 'Student': '1', 'SexualOrientation': '1'}</t>
+          <t>{'GINI': '2', 'Gender': '1', 'Student': '1'}</t>
         </is>
       </c>
       <c r="B167" t="n">
-        <v>11432</v>
+        <v>11288</v>
       </c>
       <c r="C167" t="n">
-        <v>10165.64889816656</v>
+        <v>10548.51722017327</v>
       </c>
       <c r="D167" t="n">
-        <v>-2797.60060275559</v>
+        <v>-2414.732280748874</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>{'Age': '3', 'Dependents': '2', 'Student': '1'}</t>
+          <t>{'SexualOrientation': '1', 'Dependents': '2', 'Student': '1'}</t>
         </is>
       </c>
       <c r="B168" t="n">
-        <v>10087</v>
+        <v>15301</v>
       </c>
       <c r="C168" t="n">
-        <v>10887.62605159761</v>
+        <v>12493.22924053899</v>
       </c>
       <c r="D168" t="n">
-        <v>-2075.623449324539</v>
+        <v>-470.0202603831513</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>{'Dependents': '2', 'Student': '1', 'HDI': '1'}</t>
+          <t>{'SexualOrientation': '1', 'Continent': '1', 'Student': '1'}</t>
         </is>
       </c>
       <c r="B169" t="n">
-        <v>14539</v>
+        <v>10995</v>
       </c>
       <c r="C169" t="n">
-        <v>13694.16776540142</v>
+        <v>6458.300129517213</v>
       </c>
       <c r="D169" t="n">
-        <v>730.9182644792745</v>
+        <v>-6504.949371404932</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>{'Student': '1', 'Continent': '2', 'HDI': '1'}</t>
+          <t>{'SexualOrientation': '1', 'Age': '3', 'Student': '1'}</t>
         </is>
       </c>
       <c r="B170" t="n">
-        <v>10824</v>
+        <v>12276</v>
       </c>
       <c r="C170" t="n">
-        <v>14168.77176381401</v>
+        <v>12455.45090481749</v>
       </c>
       <c r="D170" t="n">
-        <v>1205.522262891869</v>
+        <v>-507.7985961046543</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>{'Age': '3', 'HDI': '1', 'Student': '1'}</t>
+          <t>{'SexualOrientation': '1', 'HDI': '1', 'Student': '1'}</t>
         </is>
       </c>
       <c r="B171" t="n">
-        <v>11131</v>
+        <v>20128</v>
       </c>
       <c r="C171" t="n">
-        <v>10987.1242524088</v>
+        <v>8058.492947675052</v>
       </c>
       <c r="D171" t="n">
-        <v>-1976.125248513348</v>
+        <v>-4904.756553247094</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>{'GDP': '1', 'Student': '1', 'HDI': '1'}</t>
+          <t>{'SexualOrientation': '1', 'GDP': '1', 'Student': '1'}</t>
         </is>
       </c>
       <c r="B172" t="n">
-        <v>12224</v>
+        <v>11420</v>
       </c>
       <c r="C172" t="n">
-        <v>6286.053141705063</v>
+        <v>6289.75820504712</v>
       </c>
       <c r="D172" t="n">
-        <v>-6677.196359217082</v>
+        <v>-6673.491295875026</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>{'Gender': '1', 'FormalEducation': '1', 'SexualOrientation': '1'}</t>
+          <t>{'GINI': '2', 'SexualOrientation': '1', 'Student': '1'}</t>
         </is>
       </c>
       <c r="B173" t="n">
-        <v>12006</v>
+        <v>11432</v>
       </c>
       <c r="C173" t="n">
-        <v>1848.200415178695</v>
+        <v>10165.64889816656</v>
       </c>
       <c r="D173" t="n">
-        <v>-11115.04908574345</v>
+        <v>-2797.60060275559</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>{'Gender': '1', 'FormalEducation': '1', 'HDI': '1'}</t>
+          <t>{'Age': '3', 'Dependents': '2', 'Student': '1'}</t>
         </is>
       </c>
       <c r="B174" t="n">
-        <v>10763</v>
+        <v>10087</v>
       </c>
       <c r="C174" t="n">
-        <v>-1493.335892257479</v>
+        <v>10887.62605159761</v>
       </c>
       <c r="D174" t="n">
-        <v>-14456.58539317962</v>
+        <v>-2075.623449324539</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>{'FormalEducation': '1', 'HDI': '1', 'SexualOrientation': '1'}</t>
+          <t>{'HDI': '1', 'Dependents': '2', 'Student': '1'}</t>
         </is>
       </c>
       <c r="B175" t="n">
-        <v>10869</v>
+        <v>14539</v>
       </c>
       <c r="C175" t="n">
-        <v>944.1580803016003</v>
+        <v>13694.16776540142</v>
       </c>
       <c r="D175" t="n">
-        <v>-12019.09142062055</v>
+        <v>730.9182644792745</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>{'Gender': '1', 'UndergradMajor': '2', 'DevType': '2'}</t>
+          <t>{'HDI': '1', 'Continent': '2', 'Student': '1'}</t>
         </is>
       </c>
       <c r="B176" t="n">
-        <v>11004</v>
+        <v>10824</v>
       </c>
       <c r="C176" t="n">
-        <v>19604.91021122006</v>
+        <v>14168.77176381401</v>
       </c>
       <c r="D176" t="n">
-        <v>6641.660710297914</v>
+        <v>1205.522262891869</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>{'UndergradMajor': '2', 'DevType': '2', 'SexualOrientation': '1'}</t>
+          <t>{'Age': '3', 'HDI': '1', 'Student': '1'}</t>
         </is>
       </c>
       <c r="B177" t="n">
-        <v>10799</v>
+        <v>11131</v>
       </c>
       <c r="C177" t="n">
-        <v>18383.44650510283</v>
+        <v>10987.1242524088</v>
       </c>
       <c r="D177" t="n">
-        <v>5420.197004180682</v>
+        <v>-1976.125248513348</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>{'Gender': '1', 'UndergradMajor': '2', 'SexualOrientation': '1'}</t>
+          <t>{'GDP': '1', 'HDI': '1', 'Student': '1'}</t>
         </is>
       </c>
       <c r="B178" t="n">
-        <v>16152</v>
+        <v>12224</v>
       </c>
       <c r="C178" t="n">
-        <v>19730.73379293201</v>
+        <v>6286.053141705063</v>
       </c>
       <c r="D178" t="n">
-        <v>6767.48429200986</v>
+        <v>-6677.196359217082</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>{'Gender': '1', 'UndergradMajor': '2', 'Dependents': '2'}</t>
+          <t>{'SexualOrientation': '1', 'FormalEducation': '1', 'Gender': '1'}</t>
         </is>
       </c>
       <c r="B179" t="n">
-        <v>12028</v>
+        <v>12006</v>
       </c>
       <c r="C179" t="n">
-        <v>21073.08768888159</v>
+        <v>1848.200415178695</v>
       </c>
       <c r="D179" t="n">
-        <v>8109.838187959449</v>
+        <v>-11115.04908574345</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>{'Gender': '1', 'UndergradMajor': '2', 'HDI': '1'}</t>
+          <t>{'FormalEducation': '1', 'HDI': '1', 'Gender': '1'}</t>
         </is>
       </c>
       <c r="B180" t="n">
-        <v>14474</v>
+        <v>10763</v>
       </c>
       <c r="C180" t="n">
-        <v>18994.08550750046</v>
+        <v>-1493.335892257479</v>
       </c>
       <c r="D180" t="n">
-        <v>6030.836006578316</v>
+        <v>-14456.58539317962</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>{'UndergradMajor': '2', 'Dependents': '2', 'SexualOrientation': '1'}</t>
+          <t>{'SexualOrientation': '1', 'FormalEducation': '1', 'HDI': '1'}</t>
         </is>
       </c>
       <c r="B181" t="n">
-        <v>11847</v>
+        <v>10869</v>
       </c>
       <c r="C181" t="n">
-        <v>19480.70626073835</v>
+        <v>944.1580803016003</v>
       </c>
       <c r="D181" t="n">
-        <v>6517.456759816203</v>
+        <v>-12019.09142062055</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>{'UndergradMajor': '2', 'HDI': '1', 'SexualOrientation': '1'}</t>
+          <t>{'Gender': '1', 'UndergradMajor': '2', 'DevType': '2'}</t>
         </is>
       </c>
       <c r="B182" t="n">
-        <v>14309</v>
+        <v>11004</v>
       </c>
       <c r="C182" t="n">
-        <v>17712.56795099109</v>
+        <v>19604.91021122006</v>
       </c>
       <c r="D182" t="n">
-        <v>4749.318450068942</v>
+        <v>6641.660710297914</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>{'UndergradMajor': '2', 'Dependents': '2', 'HDI': '1'}</t>
+          <t>{'SexualOrientation': '1', 'UndergradMajor': '2', 'DevType': '2'}</t>
         </is>
       </c>
       <c r="B183" t="n">
-        <v>10928</v>
+        <v>10799</v>
       </c>
       <c r="C183" t="n">
-        <v>20107.79755458528</v>
+        <v>18383.44650510283</v>
       </c>
       <c r="D183" t="n">
-        <v>7144.548053663137</v>
+        <v>5420.197004180682</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>{'Gender': '1', 'DevType': '2', 'SexualOrientation': '1'}</t>
+          <t>{'SexualOrientation': '1', 'Gender': '1', 'UndergradMajor': '2'}</t>
         </is>
       </c>
       <c r="B184" t="n">
-        <v>15929</v>
+        <v>16152</v>
       </c>
       <c r="C184" t="n">
-        <v>10271.32109283204</v>
+        <v>19730.73379293201</v>
       </c>
       <c r="D184" t="n">
-        <v>-2691.928408090102</v>
+        <v>6767.48429200986</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>{'Gender': '1', 'Dependents': '2', 'DevType': '2'}</t>
+          <t>{'Gender': '1', 'UndergradMajor': '2', 'Dependents': '2'}</t>
         </is>
       </c>
       <c r="B185" t="n">
-        <v>11416</v>
+        <v>12028</v>
       </c>
       <c r="C185" t="n">
-        <v>13546.0172514926</v>
+        <v>21073.08768888159</v>
       </c>
       <c r="D185" t="n">
-        <v>582.767750570456</v>
+        <v>8109.838187959449</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>{'Gender': '1', 'HDI': '1', 'DevType': '2'}</t>
+          <t>{'Gender': '1', 'UndergradMajor': '2', 'HDI': '1'}</t>
         </is>
       </c>
       <c r="B186" t="n">
-        <v>14260</v>
+        <v>14474</v>
       </c>
       <c r="C186" t="n">
-        <v>9906.344704559784</v>
+        <v>18994.08550750046</v>
       </c>
       <c r="D186" t="n">
-        <v>-3056.904796362362</v>
+        <v>6030.836006578316</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>{'Dependents': '2', 'DevType': '2', 'SexualOrientation': '1'}</t>
+          <t>{'SexualOrientation': '1', 'UndergradMajor': '2', 'Dependents': '2'}</t>
         </is>
       </c>
       <c r="B187" t="n">
-        <v>11168</v>
+        <v>11847</v>
       </c>
       <c r="C187" t="n">
-        <v>11684.41740831443</v>
+        <v>19480.70626073835</v>
       </c>
       <c r="D187" t="n">
-        <v>-1278.832092607719</v>
+        <v>6517.456759816203</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>{'HDI': '1', 'DevType': '2', 'SexualOrientation': '1'}</t>
+          <t>{'SexualOrientation': '1', 'UndergradMajor': '2', 'HDI': '1'}</t>
         </is>
       </c>
       <c r="B188" t="n">
-        <v>14052</v>
+        <v>14309</v>
       </c>
       <c r="C188" t="n">
-        <v>9214.555234539172</v>
+        <v>17712.56795099109</v>
       </c>
       <c r="D188" t="n">
-        <v>-3748.694266382974</v>
+        <v>4749.318450068942</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>{'Dependents': '2', 'DevType': '2', 'HDI': '1'}</t>
+          <t>{'UndergradMajor': '2', 'Dependents': '2', 'HDI': '1'}</t>
         </is>
       </c>
       <c r="B189" t="n">
-        <v>10330</v>
+        <v>10928</v>
       </c>
       <c r="C189" t="n">
-        <v>14260.68917990433</v>
+        <v>20107.79755458528</v>
       </c>
       <c r="D189" t="n">
-        <v>1297.43967898218</v>
+        <v>7144.548053663137</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>{'Gender': '1', 'HoursComputer': '2', 'SexualOrientation': '1'}</t>
+          <t>{'SexualOrientation': '1', 'Gender': '1', 'DevType': '2'}</t>
         </is>
       </c>
       <c r="B190" t="n">
-        <v>14577</v>
+        <v>15929</v>
       </c>
       <c r="C190" t="n">
-        <v>10294.80408667902</v>
+        <v>10271.32109283204</v>
       </c>
       <c r="D190" t="n">
-        <v>-2668.445414243128</v>
+        <v>-2691.928408090102</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>{'Gender': '1', 'HoursComputer': '2', 'Dependents': '2'}</t>
+          <t>{'Gender': '1', 'Dependents': '2', 'DevType': '2'}</t>
         </is>
       </c>
       <c r="B191" t="n">
-        <v>10613</v>
+        <v>11416</v>
       </c>
       <c r="C191" t="n">
-        <v>14278.22445152237</v>
+        <v>13546.0172514926</v>
       </c>
       <c r="D191" t="n">
-        <v>1314.974950600228</v>
+        <v>582.767750570456</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>{'Gender': '1', 'HoursComputer': '2', 'HDI': '1'}</t>
+          <t>{'Gender': '1', 'HDI': '1', 'DevType': '2'}</t>
         </is>
       </c>
       <c r="B192" t="n">
-        <v>12921</v>
+        <v>14260</v>
       </c>
       <c r="C192" t="n">
-        <v>10773.11906159089</v>
+        <v>9906.344704559784</v>
       </c>
       <c r="D192" t="n">
-        <v>-2190.130439331257</v>
+        <v>-3056.904796362362</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>{'HoursComputer': '2', 'Dependents': '2', 'SexualOrientation': '1'}</t>
+          <t>{'SexualOrientation': '1', 'Dependents': '2', 'DevType': '2'}</t>
         </is>
       </c>
       <c r="B193" t="n">
-        <v>10543</v>
+        <v>11168</v>
       </c>
       <c r="C193" t="n">
-        <v>12219.89896545281</v>
+        <v>11684.41740831443</v>
       </c>
       <c r="D193" t="n">
-        <v>-743.3505354693334</v>
+        <v>-1278.832092607719</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>{'HoursComputer': '2', 'HDI': '1', 'SexualOrientation': '1'}</t>
+          <t>{'SexualOrientation': '1', 'HDI': '1', 'DevType': '2'}</t>
         </is>
       </c>
       <c r="B194" t="n">
-        <v>12899</v>
+        <v>14052</v>
       </c>
       <c r="C194" t="n">
-        <v>8940.337186819499</v>
+        <v>9214.555234539172</v>
       </c>
       <c r="D194" t="n">
-        <v>-4022.912314102647</v>
+        <v>-3748.694266382974</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>{'Gender': '1', 'Dependents': '2', 'SexualOrientation': '1'}</t>
+          <t>{'HDI': '1', 'Dependents': '2', 'DevType': '2'}</t>
         </is>
       </c>
       <c r="B195" t="n">
-        <v>17563</v>
+        <v>10330</v>
       </c>
       <c r="C195" t="n">
-        <v>12896.98458729801</v>
+        <v>14260.68917990433</v>
       </c>
       <c r="D195" t="n">
-        <v>-66.26491362413253</v>
+        <v>1297.43967898218</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>{'Gender': '1', 'SexualOrientation': '1', 'Continent': '1'}</t>
+          <t>{'SexualOrientation': '1', 'Gender': '1', 'HoursComputer': '2'}</t>
         </is>
       </c>
       <c r="B196" t="n">
-        <v>12751</v>
+        <v>14577</v>
       </c>
       <c r="C196" t="n">
-        <v>5879.275483795102</v>
+        <v>10294.80408667902</v>
       </c>
       <c r="D196" t="n">
-        <v>-7083.974017127044</v>
+        <v>-2668.445414243128</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>{'Gender': '1', 'Age': '3', 'SexualOrientation': '1'}</t>
+          <t>{'Gender': '1', 'Dependents': '2', 'HoursComputer': '2'}</t>
         </is>
       </c>
       <c r="B197" t="n">
-        <v>13152</v>
+        <v>10613</v>
       </c>
       <c r="C197" t="n">
-        <v>11337.7402906874</v>
+        <v>14278.22445152237</v>
       </c>
       <c r="D197" t="n">
-        <v>-1625.509210234746</v>
+        <v>1314.974950600228</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>{'Gender': '1', 'HDI': '1', 'SexualOrientation': '1'}</t>
+          <t>{'Gender': '1', 'HDI': '1', 'HoursComputer': '2'}</t>
         </is>
       </c>
       <c r="B198" t="n">
-        <v>21900</v>
+        <v>12921</v>
       </c>
       <c r="C198" t="n">
-        <v>8524.583644570461</v>
+        <v>10773.11906159089</v>
       </c>
       <c r="D198" t="n">
-        <v>-4438.665856351685</v>
+        <v>-2190.130439331257</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>{'Gender': '1', 'GDP': '1', 'SexualOrientation': '1'}</t>
+          <t>{'SexualOrientation': '1', 'Dependents': '2', 'HoursComputer': '2'}</t>
         </is>
       </c>
       <c r="B199" t="n">
-        <v>12923</v>
+        <v>10543</v>
       </c>
       <c r="C199" t="n">
-        <v>8208.103376689565</v>
+        <v>12219.89896545281</v>
       </c>
       <c r="D199" t="n">
-        <v>-4755.14612423258</v>
+        <v>-743.3505354693334</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>{'GINI': '1', 'Gender': '1', 'SexualOrientation': '1'}</t>
+          <t>{'SexualOrientation': '1', 'HDI': '1', 'HoursComputer': '2'}</t>
         </is>
       </c>
       <c r="B200" t="n">
-        <v>10997</v>
+        <v>12899</v>
       </c>
       <c r="C200" t="n">
-        <v>3717.221833181504</v>
+        <v>8940.337186819499</v>
       </c>
       <c r="D200" t="n">
-        <v>-9246.027667740642</v>
+        <v>-4022.912314102647</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>{'Gender': '1', 'SexualOrientation': '1', 'GINI': '2'}</t>
+          <t>{'SexualOrientation': '1', 'Gender': '1', 'Dependents': '2'}</t>
         </is>
       </c>
       <c r="B201" t="n">
-        <v>12410</v>
+        <v>17563</v>
       </c>
       <c r="C201" t="n">
-        <v>8366.597055480752</v>
+        <v>12896.98458729801</v>
       </c>
       <c r="D201" t="n">
-        <v>-4596.652445441394</v>
+        <v>-66.26491362413253</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>{'Gender': '1', 'Age': '3', 'Dependents': '2'}</t>
+          <t>{'SexualOrientation': '1', 'Gender': '1', 'Continent': '1'}</t>
         </is>
       </c>
       <c r="B202" t="n">
-        <v>10509</v>
+        <v>12751</v>
       </c>
       <c r="C202" t="n">
-        <v>9701.959638647726</v>
+        <v>5879.275483795102</v>
       </c>
       <c r="D202" t="n">
-        <v>-3261.28986227442</v>
+        <v>-7083.974017127044</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>{'Gender': '1', 'Dependents': '2', 'HDI': '1'}</t>
+          <t>{'SexualOrientation': '1', 'Gender': '1', 'Continent': '2'}</t>
         </is>
       </c>
       <c r="B203" t="n">
-        <v>15786</v>
+        <v>10288</v>
       </c>
       <c r="C203" t="n">
-        <v>12632.85656038428</v>
+        <v>0</v>
       </c>
       <c r="D203" t="n">
-        <v>-330.392940537864</v>
+        <v>-12963.24950092215</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>{'Gender': '1', 'HDI': '1', 'Continent': '1'}</t>
+          <t>{'SexualOrientation': '1', 'Gender': '1', 'Age': '3'}</t>
         </is>
       </c>
       <c r="B204" t="n">
-        <v>11152</v>
+        <v>13152</v>
       </c>
       <c r="C204" t="n">
-        <v>6542.07922066555</v>
+        <v>11337.7402906874</v>
       </c>
       <c r="D204" t="n">
-        <v>-6421.170280256596</v>
+        <v>-1625.509210234746</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>{'Gender': '1', 'GDP': '1', 'Continent': '1'}</t>
+          <t>{'SexualOrientation': '1', 'Gender': '1', 'HDI': '1'}</t>
         </is>
       </c>
       <c r="B205" t="n">
-        <v>11152</v>
+        <v>21900</v>
       </c>
       <c r="C205" t="n">
-        <v>6542.07922066555</v>
+        <v>8524.583644570461</v>
       </c>
       <c r="D205" t="n">
-        <v>-6421.170280256596</v>
+        <v>-4438.665856351685</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>{'Gender': '1', 'Age': '3', 'HDI': '1'}</t>
+          <t>{'SexualOrientation': '1', 'Gender': '1', 'GDP': '1'}</t>
         </is>
       </c>
       <c r="B206" t="n">
-        <v>11413</v>
+        <v>12923</v>
       </c>
       <c r="C206" t="n">
-        <v>9259.609215832103</v>
+        <v>8208.103376689565</v>
       </c>
       <c r="D206" t="n">
-        <v>-3703.640285090043</v>
+        <v>-4755.14612423258</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>{'Gender': '1', 'GDP': '1', 'HDI': '1'}</t>
+          <t>{'SexualOrientation': '1', 'Gender': '1', 'GINI': '1'}</t>
         </is>
       </c>
       <c r="B207" t="n">
-        <v>13664</v>
+        <v>10997</v>
       </c>
       <c r="C207" t="n">
-        <v>7772.217637815273</v>
+        <v>3717.221833181504</v>
       </c>
       <c r="D207" t="n">
-        <v>-5191.031863106873</v>
+        <v>-9246.027667740642</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>{'GINI': '1', 'Gender': '1', 'HDI': '1'}</t>
+          <t>{'SexualOrientation': '1', 'Gender': '1', 'GINI': '2'}</t>
         </is>
       </c>
       <c r="B208" t="n">
-        <v>10822</v>
+        <v>12410</v>
       </c>
       <c r="C208" t="n">
-        <v>10095.107056311</v>
+        <v>8366.597055480752</v>
       </c>
       <c r="D208" t="n">
-        <v>-2868.142444611143</v>
+        <v>-4596.652445441394</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>{'GINI': '1', 'Gender': '1', 'GDP': '1'}</t>
+          <t>{'Gender': '1', 'Dependents': '2', 'Age': '3'}</t>
         </is>
       </c>
       <c r="B209" t="n">
-        <v>10822</v>
+        <v>10509</v>
       </c>
       <c r="C209" t="n">
-        <v>10095.107056311</v>
+        <v>9701.959638647726</v>
       </c>
       <c r="D209" t="n">
-        <v>-2868.142444611143</v>
+        <v>-3261.28986227442</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>{'Age': '3', 'Dependents': '2', 'SexualOrientation': '1'}</t>
+          <t>{'Gender': '1', 'HDI': '1', 'Dependents': '2'}</t>
         </is>
       </c>
       <c r="B210" t="n">
-        <v>10544</v>
+        <v>15786</v>
       </c>
       <c r="C210" t="n">
-        <v>11593.74346271766</v>
+        <v>12632.85656038428</v>
       </c>
       <c r="D210" t="n">
-        <v>-1369.506038204481</v>
+        <v>-330.392940537864</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>{'Dependents': '2', 'SexualOrientation': '1', 'HDI': '1'}</t>
+          <t>{'Gender': '1', 'HDI': '1', 'Continent': '1'}</t>
         </is>
       </c>
       <c r="B211" t="n">
-        <v>15673</v>
+        <v>11152</v>
       </c>
       <c r="C211" t="n">
-        <v>12988.61598577243</v>
+        <v>6542.07922066555</v>
       </c>
       <c r="D211" t="n">
-        <v>25.36648485028491</v>
+        <v>-6421.170280256596</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>{'SexualOrientation': '1', 'HDI': '1', 'Continent': '1'}</t>
+          <t>{'Gender': '1', 'GDP': '1', 'Continent': '1'}</t>
         </is>
       </c>
       <c r="B212" t="n">
-        <v>11026</v>
+        <v>11152</v>
       </c>
       <c r="C212" t="n">
-        <v>6956.489860805687</v>
+        <v>6542.07922066555</v>
       </c>
       <c r="D212" t="n">
-        <v>-6006.759640116458</v>
+        <v>-6421.170280256596</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>{'SexualOrientation': '1', 'GDP': '1', 'Continent': '1'}</t>
+          <t>{'Gender': '1', 'HDI': '1', 'Continent': '2'}</t>
         </is>
       </c>
       <c r="B213" t="n">
-        <v>11026</v>
+        <v>10872</v>
       </c>
       <c r="C213" t="n">
-        <v>6956.489860805687</v>
+        <v>0</v>
       </c>
       <c r="D213" t="n">
-        <v>-6006.759640116458</v>
+        <v>-12963.24950092215</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>{'Age': '3', 'HDI': '1', 'SexualOrientation': '1'}</t>
+          <t>{'Gender': '1', 'HDI': '1', 'Age': '3'}</t>
         </is>
       </c>
       <c r="B214" t="n">
-        <v>11480</v>
+        <v>11413</v>
       </c>
       <c r="C214" t="n">
-        <v>10466.87773008707</v>
+        <v>9259.609215832103</v>
       </c>
       <c r="D214" t="n">
-        <v>-2496.371770835078</v>
+        <v>-3703.640285090043</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>{'GDP': '1', 'SexualOrientation': '1', 'HDI': '1'}</t>
+          <t>{'Gender': '1', 'GDP': '1', 'HDI': '1'}</t>
         </is>
       </c>
       <c r="B215" t="n">
-        <v>13543</v>
+        <v>13664</v>
       </c>
       <c r="C215" t="n">
-        <v>7895.048943962457</v>
+        <v>7772.217637815273</v>
       </c>
       <c r="D215" t="n">
-        <v>-5068.200556959689</v>
+        <v>-5191.031863106873</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>{'GINI': '1', 'HDI': '1', 'SexualOrientation': '1'}</t>
+          <t>{'Gender': '1', 'GINI': '1', 'HDI': '1'}</t>
         </is>
       </c>
       <c r="B216" t="n">
-        <v>10707</v>
+        <v>10822</v>
       </c>
       <c r="C216" t="n">
-        <v>10347.75562526452</v>
+        <v>10095.107056311</v>
       </c>
       <c r="D216" t="n">
-        <v>-2615.493875657628</v>
+        <v>-2868.142444611143</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>{'GINI': '1', 'GDP': '1', 'SexualOrientation': '1'}</t>
+          <t>{'Gender': '1', 'GINI': '1', 'GDP': '1'}</t>
         </is>
       </c>
       <c r="B217" t="n">
-        <v>10707</v>
+        <v>10822</v>
       </c>
       <c r="C217" t="n">
-        <v>10347.75562526452</v>
+        <v>10095.107056311</v>
       </c>
       <c r="D217" t="n">
-        <v>-2615.493875657628</v>
+        <v>-2868.142444611143</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>{'Dependents': '2', 'HDI': '1', 'GDP': '1'}</t>
+          <t>{'SexualOrientation': '1', 'Age': '3', 'Dependents': '2'}</t>
         </is>
       </c>
       <c r="B218" t="n">
-        <v>10623</v>
+        <v>10544</v>
       </c>
       <c r="C218" t="n">
-        <v>9949.328335933651</v>
+        <v>11593.74346271766</v>
       </c>
       <c r="D218" t="n">
-        <v>-3013.921164988495</v>
+        <v>-1369.506038204481</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>{'GDP': '1', 'Continent': '1', 'HDI': '1'}</t>
+          <t>{'SexualOrientation': '1', 'HDI': '1', 'Dependents': '2'}</t>
         </is>
       </c>
       <c r="B219" t="n">
-        <v>11828</v>
+        <v>15673</v>
       </c>
       <c r="C219" t="n">
-        <v>7151.838439157452</v>
+        <v>12988.61598577243</v>
       </c>
       <c r="D219" t="n">
-        <v>-5811.411061764694</v>
+        <v>25.36648485028491</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>{'HDI': '1', 'Continent': '2', 'GDP': '2'}</t>
+          <t>{'SexualOrientation': '1', 'HDI': '1', 'Continent': '1'}</t>
         </is>
       </c>
       <c r="B220" t="n">
-        <v>10476</v>
+        <v>11026</v>
       </c>
       <c r="C220" t="n">
-        <v>15675.23593576647</v>
+        <v>6956.489860805687</v>
       </c>
       <c r="D220" t="n">
-        <v>2711.986434844323</v>
+        <v>-6006.759640116458</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>{'GINI': '2', 'HDI': '1', 'Continent': '2'}</t>
+          <t>{'SexualOrientation': '1', 'GDP': '1', 'Continent': '1'}</t>
         </is>
       </c>
       <c r="B221" t="n">
-        <v>10476</v>
+        <v>11026</v>
       </c>
       <c r="C221" t="n">
-        <v>15675.23593576647</v>
+        <v>6956.489860805687</v>
       </c>
       <c r="D221" t="n">
-        <v>2711.986434844323</v>
+        <v>-6006.759640116458</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>{'GINI': '2', 'Continent': '2', 'GDP': '2'}</t>
+          <t>{'SexualOrientation': '1', 'HDI': '1', 'Continent': '2'}</t>
         </is>
       </c>
       <c r="B222" t="n">
-        <v>10476</v>
+        <v>11011</v>
       </c>
       <c r="C222" t="n">
-        <v>15675.23593576647</v>
+        <v>0</v>
       </c>
       <c r="D222" t="n">
-        <v>2711.986434844323</v>
+        <v>-12963.24950092215</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>{'GINI': '1', 'GDP': '1', 'HDI': '1'}</t>
+          <t>{'SexualOrientation': '1', 'Age': '3', 'HDI': '1'}</t>
         </is>
       </c>
       <c r="B223" t="n">
-        <v>11555</v>
+        <v>11480</v>
       </c>
       <c r="C223" t="n">
-        <v>10303.85691520677</v>
+        <v>10466.87773008707</v>
       </c>
       <c r="D223" t="n">
-        <v>-2659.392585715375</v>
+        <v>-2496.371770835078</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>{'GINI': '2', 'HDI': '1', 'GDP': '2'}</t>
+          <t>{'SexualOrientation': '1', 'GDP': '1', 'HDI': '1'}</t>
         </is>
       </c>
       <c r="B224" t="n">
-        <v>10476</v>
+        <v>13543</v>
       </c>
       <c r="C224" t="n">
-        <v>15675.23593576647</v>
+        <v>7895.048943962457</v>
       </c>
       <c r="D224" t="n">
-        <v>2711.986434844323</v>
+        <v>-5068.200556959689</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>{'Gender': '1', 'UndergradMajor': '2', 'Hobby': '1', 'Student': '1'}</t>
+          <t>{'SexualOrientation': '1', 'GINI': '1', 'HDI': '1'}</t>
         </is>
       </c>
       <c r="B225" t="n">
-        <v>11741</v>
+        <v>10707</v>
       </c>
       <c r="C225" t="n">
-        <v>16931.41024550598</v>
+        <v>10347.75562526452</v>
       </c>
       <c r="D225" t="n">
-        <v>3968.160744583831</v>
+        <v>-2615.493875657628</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>{'UndergradMajor': '2', 'Hobby': '1', 'Student': '1', 'SexualOrientation': '1'}</t>
+          <t>{'SexualOrientation': '1', 'GDP': '1', 'GINI': '1'}</t>
         </is>
       </c>
       <c r="B226" t="n">
-        <v>11551</v>
+        <v>10707</v>
       </c>
       <c r="C226" t="n">
-        <v>14982.80628563071</v>
+        <v>10347.75562526452</v>
       </c>
       <c r="D226" t="n">
-        <v>2019.556784708568</v>
+        <v>-2615.493875657628</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>{'UndergradMajor': '2', 'Hobby': '1', 'Student': '1', 'HDI': '1'}</t>
+          <t>{'GDP': '1', 'HDI': '1', 'Dependents': '2'}</t>
         </is>
       </c>
       <c r="B227" t="n">
-        <v>10811</v>
+        <v>10623</v>
       </c>
       <c r="C227" t="n">
-        <v>15132.5581684361</v>
+        <v>9949.328335933651</v>
       </c>
       <c r="D227" t="n">
-        <v>2169.308667513951</v>
+        <v>-3013.921164988495</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>{'Gender': '1', 'Hobby': '1', 'Student': '1', 'DevType': '2'}</t>
+          <t>{'GDP': '1', 'HDI': '1', 'Continent': '1'}</t>
         </is>
       </c>
       <c r="B228" t="n">
-        <v>12069</v>
+        <v>11828</v>
       </c>
       <c r="C228" t="n">
-        <v>8423.164060888088</v>
+        <v>7151.838439157452</v>
       </c>
       <c r="D228" t="n">
-        <v>-4540.085440034058</v>
+        <v>-5811.411061764694</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>{'Hobby': '1', 'Student': '1', 'DevType': '2', 'SexualOrientation': '1'}</t>
+          <t>{'HDI': '1', 'GDP': '2', 'Continent': '2'}</t>
         </is>
       </c>
       <c r="B229" t="n">
-        <v>11840</v>
+        <v>10476</v>
       </c>
       <c r="C229" t="n">
-        <v>7370.192044665268</v>
+        <v>15675.23593576647</v>
       </c>
       <c r="D229" t="n">
-        <v>-5593.057456256877</v>
+        <v>2711.986434844323</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>{'Hobby': '1', 'Student': '1', 'DevType': '2', 'HDI': '1'}</t>
+          <t>{'GINI': '2', 'HDI': '1', 'Continent': '2'}</t>
         </is>
       </c>
       <c r="B230" t="n">
-        <v>11123</v>
+        <v>10476</v>
       </c>
       <c r="C230" t="n">
-        <v>7649.692586112322</v>
+        <v>15675.23593576647</v>
       </c>
       <c r="D230" t="n">
-        <v>-5313.556914809824</v>
+        <v>2711.986434844323</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>{'Gender': '1', 'HoursComputer': '2', 'Hobby': '1', 'Student': '1'}</t>
+          <t>{'GINI': '2', 'GDP': '2', 'Continent': '2'}</t>
         </is>
       </c>
       <c r="B231" t="n">
-        <v>11055</v>
+        <v>10476</v>
       </c>
       <c r="C231" t="n">
-        <v>9155.937733126606</v>
+        <v>15675.23593576647</v>
       </c>
       <c r="D231" t="n">
-        <v>-3807.31176779554</v>
+        <v>2711.986434844323</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>{'HoursComputer': '2', 'Hobby': '1', 'Student': '1', 'SexualOrientation': '1'}</t>
+          <t>{'GDP': '1', 'GINI': '1', 'HDI': '1'}</t>
         </is>
       </c>
       <c r="B232" t="n">
-        <v>10930</v>
+        <v>11555</v>
       </c>
       <c r="C232" t="n">
-        <v>6885.927459561582</v>
+        <v>10303.85691520677</v>
       </c>
       <c r="D232" t="n">
-        <v>-6077.322041360564</v>
+        <v>-2659.392585715375</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>{'HoursComputer': '2', 'Hobby': '1', 'Student': '1', 'HDI': '1'}</t>
+          <t>{'GINI': '2', 'HDI': '1', 'GDP': '2'}</t>
         </is>
       </c>
       <c r="B233" t="n">
-        <v>10205</v>
+        <v>10476</v>
       </c>
       <c r="C233" t="n">
-        <v>8089.111231476007</v>
+        <v>15675.23593576647</v>
       </c>
       <c r="D233" t="n">
-        <v>-4874.138269446139</v>
+        <v>2711.986434844323</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>{'Gender': '1', 'Hobby': '1', 'Student': '1', 'SexualOrientation': '1'}</t>
+          <t>{'Gender': '1', 'UndergradMajor': '2', 'Hobby': '1', 'Student': '1'}</t>
         </is>
       </c>
       <c r="B234" t="n">
-        <v>18136</v>
+        <v>11741</v>
       </c>
       <c r="C234" t="n">
-        <v>7283.726461989329</v>
+        <v>16931.41024550598</v>
       </c>
       <c r="D234" t="n">
-        <v>-5679.523038932816</v>
+        <v>3968.160744583831</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>{'Gender': '1', 'Dependents': '2', 'Hobby': '1', 'Student': '1'}</t>
+          <t>{'SexualOrientation': '1', 'UndergradMajor': '2', 'Hobby': '1', 'Student': '1'}</t>
         </is>
       </c>
       <c r="B235" t="n">
-        <v>12773</v>
+        <v>11551</v>
       </c>
       <c r="C235" t="n">
-        <v>9435.192475452955</v>
+        <v>14982.80628563071</v>
       </c>
       <c r="D235" t="n">
-        <v>-3528.05702546919</v>
+        <v>2019.556784708568</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>{'Gender': '1', 'Age': '3', 'Hobby': '1', 'Student': '1'}</t>
+          <t>{'UndergradMajor': '2', 'Hobby': '1', 'HDI': '1', 'Student': '1'}</t>
         </is>
       </c>
       <c r="B236" t="n">
-        <v>10195</v>
+        <v>10811</v>
       </c>
       <c r="C236" t="n">
-        <v>7494.558069034791</v>
+        <v>15132.5581684361</v>
       </c>
       <c r="D236" t="n">
-        <v>-5468.691431887355</v>
+        <v>2169.308667513951</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>{'Gender': '1', 'Hobby': '1', 'Student': '1', 'HDI': '1'}</t>
+          <t>{'Gender': '1', 'Hobby': '1', 'DevType': '2', 'Student': '1'}</t>
         </is>
       </c>
       <c r="B237" t="n">
-        <v>16648</v>
+        <v>12069</v>
       </c>
       <c r="C237" t="n">
-        <v>6709.311194402443</v>
+        <v>8423.164060888088</v>
       </c>
       <c r="D237" t="n">
-        <v>-6253.938306519703</v>
+        <v>-4540.085440034058</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>{'Dependents': '2', 'Hobby': '1', 'Student': '1', 'SexualOrientation': '1'}</t>
+          <t>{'SexualOrientation': '1', 'Hobby': '1', 'DevType': '2', 'Student': '1'}</t>
         </is>
       </c>
       <c r="B238" t="n">
-        <v>12550</v>
+        <v>11840</v>
       </c>
       <c r="C238" t="n">
-        <v>8284.509935588789</v>
+        <v>7370.192044665268</v>
       </c>
       <c r="D238" t="n">
-        <v>-4678.739565333357</v>
+        <v>-5593.057456256877</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>{'Age': '3', 'Hobby': '1', 'Student': '1', 'SexualOrientation': '1'}</t>
+          <t>{'HDI': '1', 'Hobby': '1', 'DevType': '2', 'Student': '1'}</t>
         </is>
       </c>
       <c r="B239" t="n">
-        <v>10133</v>
+        <v>11123</v>
       </c>
       <c r="C239" t="n">
-        <v>8430.608485483888</v>
+        <v>7649.692586112322</v>
       </c>
       <c r="D239" t="n">
-        <v>-4532.641015438257</v>
+        <v>-5313.556914809824</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>{'Hobby': '1', 'Student': '1', 'SexualOrientation': '1', 'HDI': '1'}</t>
+          <t>{'Student': '1', 'Gender': '1', 'Hobby': '1', 'HoursComputer': '2'}</t>
         </is>
       </c>
       <c r="B240" t="n">
-        <v>16486</v>
+        <v>11055</v>
       </c>
       <c r="C240" t="n">
-        <v>5663.715061677382</v>
+        <v>9155.937733126606</v>
       </c>
       <c r="D240" t="n">
-        <v>-7299.534439244764</v>
+        <v>-3807.31176779554</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>{'Dependents': '2', 'Hobby': '1', 'Student': '1', 'HDI': '1'}</t>
+          <t>{'SexualOrientation': '1', 'Hobby': '1', 'Student': '1', 'HoursComputer': '2'}</t>
         </is>
       </c>
       <c r="B241" t="n">
-        <v>11988</v>
+        <v>10930</v>
       </c>
       <c r="C241" t="n">
-        <v>10100.67151075957</v>
+        <v>6885.927459561582</v>
       </c>
       <c r="D241" t="n">
-        <v>-2862.577990162576</v>
+        <v>-6077.322041360564</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>{'Hobby': '1', 'Student': '1', 'HDI': '1', 'GDP': '1'}</t>
+          <t>{'Student': '1', 'HDI': '1', 'Hobby': '1', 'HoursComputer': '2'}</t>
         </is>
       </c>
       <c r="B242" t="n">
-        <v>10055</v>
+        <v>10205</v>
       </c>
       <c r="C242" t="n">
-        <v>8188.937105622515</v>
+        <v>8089.111231476007</v>
       </c>
       <c r="D242" t="n">
-        <v>-4774.31239529963</v>
+        <v>-4874.138269446139</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>{'Gender': '1', 'UndergradMajor': '2', 'Hobby': '1', 'SexualOrientation': '1'}</t>
+          <t>{'SexualOrientation': '1', 'Gender': '1', 'Hobby': '1', 'Student': '1'}</t>
         </is>
       </c>
       <c r="B243" t="n">
-        <v>13502</v>
+        <v>18136</v>
       </c>
       <c r="C243" t="n">
-        <v>17206.65969033875</v>
+        <v>7283.726461989329</v>
       </c>
       <c r="D243" t="n">
-        <v>4243.410189416609</v>
+        <v>-5679.523038932816</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>{'Gender': '1', 'UndergradMajor': '2', 'Hobby': '1', 'Dependents': '2'}</t>
+          <t>{'Dependents': '2', 'Gender': '1', 'Hobby': '1', 'Student': '1'}</t>
         </is>
       </c>
       <c r="B244" t="n">
-        <v>10148</v>
+        <v>12773</v>
       </c>
       <c r="C244" t="n">
-        <v>17921.27447103694</v>
+        <v>9435.192475452955</v>
       </c>
       <c r="D244" t="n">
-        <v>4958.024970114791</v>
+        <v>-3528.05702546919</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>{'Gender': '1', 'UndergradMajor': '2', 'Hobby': '1', 'HDI': '1'}</t>
+          <t>{'Gender': '1', 'Hobby': '1', 'Age': '3', 'Student': '1'}</t>
         </is>
       </c>
       <c r="B245" t="n">
-        <v>12152</v>
+        <v>10195</v>
       </c>
       <c r="C245" t="n">
-        <v>16710.0927641238</v>
+        <v>7494.558069034791</v>
       </c>
       <c r="D245" t="n">
-        <v>3746.843263201659</v>
+        <v>-5468.691431887355</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>{'UndergradMajor': '2', 'Hobby': '1', 'SexualOrientation': '1', 'HDI': '1'}</t>
+          <t>{'Gender': '1', 'HDI': '1', 'Hobby': '1', 'Student': '1'}</t>
         </is>
       </c>
       <c r="B246" t="n">
-        <v>11905</v>
+        <v>16648</v>
       </c>
       <c r="C246" t="n">
-        <v>14239.41919596611</v>
+        <v>6709.311194402443</v>
       </c>
       <c r="D246" t="n">
-        <v>1276.169695043962</v>
+        <v>-6253.938306519703</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>{'Gender': '1', 'Hobby': '1', 'DevType': '2', 'SexualOrientation': '1'}</t>
+          <t>{'SexualOrientation': '1', 'Hobby': '1', 'Student': '1', 'Dependents': '2'}</t>
         </is>
       </c>
       <c r="B247" t="n">
-        <v>13382</v>
+        <v>12550</v>
       </c>
       <c r="C247" t="n">
-        <v>7931.489398643433</v>
+        <v>8284.509935588789</v>
       </c>
       <c r="D247" t="n">
-        <v>-5031.760102278713</v>
+        <v>-4678.739565333357</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>{'Gender': '1', 'Hobby': '1', 'DevType': '2', 'HDI': '1'}</t>
+          <t>{'SexualOrientation': '1', 'Age': '3', 'Hobby': '1', 'Student': '1'}</t>
         </is>
       </c>
       <c r="B248" t="n">
-        <v>12060</v>
+        <v>10133</v>
       </c>
       <c r="C248" t="n">
-        <v>7549.004360992833</v>
+        <v>8430.608485483888</v>
       </c>
       <c r="D248" t="n">
-        <v>-5414.245139929313</v>
+        <v>-4532.641015438257</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>{'Hobby': '1', 'DevType': '2', 'SexualOrientation': '1', 'HDI': '1'}</t>
+          <t>{'SexualOrientation': '1', 'HDI': '1', 'Hobby': '1', 'Student': '1'}</t>
         </is>
       </c>
       <c r="B249" t="n">
-        <v>11788</v>
+        <v>16486</v>
       </c>
       <c r="C249" t="n">
-        <v>6422.162051910924</v>
+        <v>5663.715061677382</v>
       </c>
       <c r="D249" t="n">
-        <v>-6541.087449011222</v>
+        <v>-7299.534439244764</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>{'Gender': '1', 'HoursComputer': '2', 'Hobby': '1', 'SexualOrientation': '1'}</t>
+          <t>{'Student': '1', 'HDI': '1', 'Hobby': '1', 'Dependents': '2'}</t>
         </is>
       </c>
       <c r="B250" t="n">
-        <v>12293</v>
+        <v>11988</v>
       </c>
       <c r="C250" t="n">
-        <v>7170.352826909742</v>
+        <v>10100.67151075957</v>
       </c>
       <c r="D250" t="n">
-        <v>-5792.896674012403</v>
+        <v>-2862.577990162576</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>{'Gender': '1', 'HoursComputer': '2', 'Hobby': '1', 'HDI': '1'}</t>
+          <t>{'GDP': '1', 'HDI': '1', 'Hobby': '1', 'Student': '1'}</t>
         </is>
       </c>
       <c r="B251" t="n">
-        <v>10978</v>
+        <v>10055</v>
       </c>
       <c r="C251" t="n">
-        <v>8217.11472941277</v>
+        <v>8188.937105622515</v>
       </c>
       <c r="D251" t="n">
-        <v>-4746.134771509376</v>
+        <v>-4774.31239529963</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>{'HoursComputer': '2', 'Hobby': '1', 'SexualOrientation': '1', 'HDI': '1'}</t>
+          <t>{'SexualOrientation': '1', 'Gender': '1', 'UndergradMajor': '2', 'Hobby': '1'}</t>
         </is>
       </c>
       <c r="B252" t="n">
-        <v>10851</v>
+        <v>13502</v>
       </c>
       <c r="C252" t="n">
-        <v>5827.125955161006</v>
+        <v>17206.65969033875</v>
       </c>
       <c r="D252" t="n">
-        <v>-7136.123545761139</v>
+        <v>4243.410189416609</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>{'Gender': '1', 'Dependents': '2', 'Hobby': '1', 'SexualOrientation': '1'}</t>
+          <t>{'Gender': '1', 'UndergradMajor': '2', 'Hobby': '1', 'Dependents': '2'}</t>
         </is>
       </c>
       <c r="B253" t="n">
-        <v>14766</v>
+        <v>10148</v>
       </c>
       <c r="C253" t="n">
-        <v>9759.56820767148</v>
+        <v>17921.27447103694</v>
       </c>
       <c r="D253" t="n">
-        <v>-3203.681293250665</v>
+        <v>4958.024970114791</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>{'Gender': '1', 'SexualOrientation': '1', 'Hobby': '1', 'Continent': '1'}</t>
+          <t>{'Gender': '1', 'UndergradMajor': '2', 'Hobby': '1', 'HDI': '1'}</t>
         </is>
       </c>
       <c r="B254" t="n">
-        <v>10654</v>
+        <v>12152</v>
       </c>
       <c r="C254" t="n">
-        <v>6886.521020252576</v>
+        <v>16710.0927641238</v>
       </c>
       <c r="D254" t="n">
-        <v>-6076.72848066957</v>
+        <v>3746.843263201659</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>{'Gender': '1', 'Age': '3', 'Hobby': '1', 'SexualOrientation': '1'}</t>
+          <t>{'SexualOrientation': '1', 'UndergradMajor': '2', 'Hobby': '1', 'HDI': '1'}</t>
         </is>
       </c>
       <c r="B255" t="n">
-        <v>11037</v>
+        <v>11905</v>
       </c>
       <c r="C255" t="n">
-        <v>8515.812784113399</v>
+        <v>14239.41919596611</v>
       </c>
       <c r="D255" t="n">
-        <v>-4447.436716808746</v>
+        <v>1276.169695043962</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>{'Gender': '1', 'Hobby': '1', 'SexualOrientation': '1', 'HDI': '1'}</t>
+          <t>{'SexualOrientation': '1', 'Gender': '1', 'Hobby': '1', 'DevType': '2'}</t>
         </is>
       </c>
       <c r="B256" t="n">
-        <v>18306</v>
+        <v>13382</v>
       </c>
       <c r="C256" t="n">
-        <v>6562.835401713361</v>
+        <v>7931.489398643433</v>
       </c>
       <c r="D256" t="n">
-        <v>-6400.414099208785</v>
+        <v>-5031.760102278713</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>{'Gender': '1', 'Hobby': '1', 'SexualOrientation': '1', 'GDP': '1'}</t>
+          <t>{'Gender': '1', 'HDI': '1', 'Hobby': '1', 'DevType': '2'}</t>
         </is>
       </c>
       <c r="B257" t="n">
-        <v>10822</v>
+        <v>12060</v>
       </c>
       <c r="C257" t="n">
-        <v>9507.5792077927</v>
+        <v>7549.004360992833</v>
       </c>
       <c r="D257" t="n">
-        <v>-3455.670293129446</v>
+        <v>-5414.245139929313</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>{'Gender': '1', 'Hobby': '1', 'SexualOrientation': '1', 'GINI': '2'}</t>
+          <t>{'SexualOrientation': '1', 'HDI': '1', 'Hobby': '1', 'DevType': '2'}</t>
         </is>
       </c>
       <c r="B258" t="n">
-        <v>10220</v>
+        <v>11788</v>
       </c>
       <c r="C258" t="n">
-        <v>3662.732128377291</v>
+        <v>6422.162051910924</v>
       </c>
       <c r="D258" t="n">
-        <v>-9300.517372544855</v>
+        <v>-6541.087449011222</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>{'Gender': '1', 'Dependents': '2', 'Hobby': '1', 'HDI': '1'}</t>
+          <t>{'SexualOrientation': '1', 'Gender': '1', 'Hobby': '1', 'HoursComputer': '2'}</t>
         </is>
       </c>
       <c r="B259" t="n">
-        <v>13367</v>
+        <v>12293</v>
       </c>
       <c r="C259" t="n">
-        <v>10243.17762550029</v>
+        <v>7170.352826909742</v>
       </c>
       <c r="D259" t="n">
-        <v>-2720.071875421858</v>
+        <v>-5792.896674012403</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>{'Gender': '1', 'Hobby': '1', 'HDI': '1', 'GDP': '1'}</t>
+          <t>{'Gender': '1', 'HDI': '1', 'Hobby': '1', 'HoursComputer': '2'}</t>
         </is>
       </c>
       <c r="B260" t="n">
-        <v>11456</v>
+        <v>10978</v>
       </c>
       <c r="C260" t="n">
-        <v>9612.30294657083</v>
+        <v>8217.11472941277</v>
       </c>
       <c r="D260" t="n">
-        <v>-3350.946554351316</v>
+        <v>-4746.134771509376</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>{'Dependents': '2', 'Hobby': '1', 'SexualOrientation': '1', 'HDI': '1'}</t>
+          <t>{'SexualOrientation': '1', 'HDI': '1', 'Hobby': '1', 'HoursComputer': '2'}</t>
         </is>
       </c>
       <c r="B261" t="n">
-        <v>13081</v>
+        <v>10851</v>
       </c>
       <c r="C261" t="n">
-        <v>9470.678072167824</v>
+        <v>5827.125955161006</v>
       </c>
       <c r="D261" t="n">
-        <v>-3492.571428754321</v>
+        <v>-7136.123545761139</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>{'HDI': '1', 'Hobby': '1', 'SexualOrientation': '1', 'GDP': '1'}</t>
+          <t>{'SexualOrientation': '1', 'Gender': '1', 'Hobby': '1', 'Dependents': '2'}</t>
         </is>
       </c>
       <c r="B262" t="n">
-        <v>11245</v>
+        <v>14766</v>
       </c>
       <c r="C262" t="n">
-        <v>9610.788249181825</v>
+        <v>9759.56820767148</v>
       </c>
       <c r="D262" t="n">
-        <v>-3352.46125174032</v>
+        <v>-3203.681293250665</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>{'HDI': '1', 'Country': '2', 'Continent': '2', 'GDP': '2'}</t>
+          <t>{'SexualOrientation': '1', 'Gender': '1', 'Hobby': '1', 'Continent': '1'}</t>
         </is>
       </c>
       <c r="B263" t="n">
-        <v>10476</v>
+        <v>10654</v>
       </c>
       <c r="C263" t="n">
-        <v>15675.23593576647</v>
+        <v>6886.521020252576</v>
       </c>
       <c r="D263" t="n">
-        <v>2711.986434844323</v>
+        <v>-6076.72848066957</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>{'GINI': '2', 'HDI': '1', 'Country': '2', 'Continent': '2'}</t>
+          <t>{'SexualOrientation': '1', 'Gender': '1', 'Hobby': '1', 'Age': '3'}</t>
         </is>
       </c>
       <c r="B264" t="n">
-        <v>10476</v>
+        <v>11037</v>
       </c>
       <c r="C264" t="n">
-        <v>15675.23593576647</v>
+        <v>8515.812784113399</v>
       </c>
       <c r="D264" t="n">
-        <v>2711.986434844323</v>
+        <v>-4447.436716808746</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>{'GINI': '2', 'Country': '2', 'Continent': '2', 'GDP': '2'}</t>
+          <t>{'SexualOrientation': '1', 'Gender': '1', 'HDI': '1', 'Hobby': '1'}</t>
         </is>
       </c>
       <c r="B265" t="n">
-        <v>10476</v>
+        <v>18306</v>
       </c>
       <c r="C265" t="n">
-        <v>15675.23593576647</v>
+        <v>6562.835401713361</v>
       </c>
       <c r="D265" t="n">
-        <v>2711.986434844323</v>
+        <v>-6400.414099208785</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>{'GINI': '2', 'HDI': '1', 'Country': '2', 'GDP': '2'}</t>
+          <t>{'SexualOrientation': '1', 'Gender': '1', 'GDP': '1', 'Hobby': '1'}</t>
         </is>
       </c>
       <c r="B266" t="n">
-        <v>10476</v>
+        <v>10822</v>
       </c>
       <c r="C266" t="n">
-        <v>15675.23593576647</v>
+        <v>9507.5792077927</v>
       </c>
       <c r="D266" t="n">
-        <v>2711.986434844323</v>
+        <v>-3455.670293129446</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>{'Gender': '1', 'FormalEducation': '1', 'Student': '1', 'SexualOrientation': '1'}</t>
+          <t>{'SexualOrientation': '1', 'Gender': '1', 'Hobby': '1', 'GINI': '2'}</t>
         </is>
       </c>
       <c r="B267" t="n">
-        <v>10523</v>
+        <v>10220</v>
       </c>
       <c r="C267" t="n">
-        <v>436.4994837012221</v>
+        <v>3662.732128377291</v>
       </c>
       <c r="D267" t="n">
-        <v>-12526.75001722092</v>
+        <v>-9300.517372544855</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>{'Gender': '1', 'UndergradMajor': '2', 'Student': '1', 'SexualOrientation': '1'}</t>
+          <t>{'Gender': '1', 'HDI': '1', 'Hobby': '1', 'Dependents': '2'}</t>
         </is>
       </c>
       <c r="B268" t="n">
-        <v>13466</v>
+        <v>13367</v>
       </c>
       <c r="C268" t="n">
-        <v>19102.98979771005</v>
+        <v>10243.17762550029</v>
       </c>
       <c r="D268" t="n">
-        <v>6139.740296787902</v>
+        <v>-2720.071875421858</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>{'Gender': '1', 'UndergradMajor': '2', 'HDI': '1', 'Student': '1'}</t>
+          <t>{'Gender': '1', 'GDP': '1', 'Hobby': '1', 'HDI': '1'}</t>
         </is>
       </c>
       <c r="B269" t="n">
-        <v>12350</v>
+        <v>11456</v>
       </c>
       <c r="C269" t="n">
-        <v>17979.97995669124</v>
+        <v>9612.30294657083</v>
       </c>
       <c r="D269" t="n">
-        <v>5016.730455769099</v>
+        <v>-3350.946554351316</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>{'UndergradMajor': '2', 'HDI': '1', 'Student': '1', 'SexualOrientation': '1'}</t>
+          <t>{'SexualOrientation': '1', 'HDI': '1', 'Hobby': '1', 'Dependents': '2'}</t>
         </is>
       </c>
       <c r="B270" t="n">
-        <v>12226</v>
+        <v>13081</v>
       </c>
       <c r="C270" t="n">
-        <v>16838.84509076148</v>
+        <v>9470.678072167824</v>
       </c>
       <c r="D270" t="n">
-        <v>3875.595589839329</v>
+        <v>-3492.571428754321</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>{'Gender': '1', 'Student': '1', 'DevType': '2', 'SexualOrientation': '1'}</t>
+          <t>{'SexualOrientation': '1', 'GDP': '1', 'HDI': '1', 'Hobby': '1'}</t>
         </is>
       </c>
       <c r="B271" t="n">
-        <v>13722</v>
+        <v>11245</v>
       </c>
       <c r="C271" t="n">
-        <v>9804.928815048876</v>
+        <v>9610.788249181825</v>
       </c>
       <c r="D271" t="n">
-        <v>-3158.32068587327</v>
+        <v>-3352.46125174032</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>{'Gender': '1', 'HDI': '1', 'Student': '1', 'DevType': '2'}</t>
+          <t>{'Continent': '2', 'HDI': '1', 'GDP': '2', 'Country': '2'}</t>
         </is>
       </c>
       <c r="B272" t="n">
-        <v>12583</v>
+        <v>10476</v>
       </c>
       <c r="C272" t="n">
-        <v>9599.403755866628</v>
+        <v>15675.23593576647</v>
       </c>
       <c r="D272" t="n">
-        <v>-3363.845745055518</v>
+        <v>2711.986434844323</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>{'HDI': '1', 'Student': '1', 'DevType': '2', 'SexualOrientation': '1'}</t>
+          <t>{'GINI': '2', 'Continent': '2', 'HDI': '1', 'Country': '2'}</t>
         </is>
       </c>
       <c r="B273" t="n">
-        <v>12424</v>
+        <v>10476</v>
       </c>
       <c r="C273" t="n">
-        <v>8733.173901168526</v>
+        <v>15675.23593576647</v>
       </c>
       <c r="D273" t="n">
-        <v>-4230.07559975362</v>
+        <v>2711.986434844323</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>{'Gender': '1', 'HoursComputer': '2', 'Student': '1', 'SexualOrientation': '1'}</t>
+          <t>{'GINI': '2', 'Continent': '2', 'GDP': '2', 'Country': '2'}</t>
         </is>
       </c>
       <c r="B274" t="n">
-        <v>12492</v>
+        <v>10476</v>
       </c>
       <c r="C274" t="n">
-        <v>9855.913695876399</v>
+        <v>15675.23593576647</v>
       </c>
       <c r="D274" t="n">
-        <v>-3107.335805045746</v>
+        <v>2711.986434844323</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>{'Gender': '1', 'HoursComputer': '2', 'HDI': '1', 'Student': '1'}</t>
+          <t>{'GINI': '2', 'HDI': '1', 'GDP': '2', 'Country': '2'}</t>
         </is>
       </c>
       <c r="B275" t="n">
-        <v>11326</v>
+        <v>10476</v>
       </c>
       <c r="C275" t="n">
-        <v>10365.24375353907</v>
+        <v>15675.23593576647</v>
       </c>
       <c r="D275" t="n">
-        <v>-2598.005747383078</v>
+        <v>2711.986434844323</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>{'HoursComputer': '2', 'HDI': '1', 'Student': '1', 'SexualOrientation': '1'}</t>
+          <t>{'SexualOrientation': '1', 'FormalEducation': '1', 'Gender': '1', 'Student': '1'}</t>
         </is>
       </c>
       <c r="B276" t="n">
-        <v>11301</v>
+        <v>10523</v>
       </c>
       <c r="C276" t="n">
-        <v>7908.810306594324</v>
+        <v>436.4994837012221</v>
       </c>
       <c r="D276" t="n">
-        <v>-5054.439194327821</v>
+        <v>-12526.75001722092</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>{'Gender': '1', 'Dependents': '2', 'Student': '1', 'SexualOrientation': '1'}</t>
+          <t>{'SexualOrientation': '1', 'Gender': '1', 'UndergradMajor': '2', 'Student': '1'}</t>
         </is>
       </c>
       <c r="B277" t="n">
-        <v>14334</v>
+        <v>13466</v>
       </c>
       <c r="C277" t="n">
-        <v>11251.35798416355</v>
+        <v>19102.98979771005</v>
       </c>
       <c r="D277" t="n">
-        <v>-1711.891516758591</v>
+        <v>6139.740296787902</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>{'Gender': '1', 'SexualOrientation': '1', 'Student': '1', 'Continent': '1'}</t>
+          <t>{'Gender': '1', 'UndergradMajor': '2', 'HDI': '1', 'Student': '1'}</t>
         </is>
       </c>
       <c r="B278" t="n">
-        <v>10513</v>
+        <v>12350</v>
       </c>
       <c r="C278" t="n">
-        <v>5661.757755795161</v>
+        <v>17979.97995669124</v>
       </c>
       <c r="D278" t="n">
-        <v>-7301.491745126985</v>
+        <v>5016.730455769099</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>{'Gender': '1', 'Age': '3', 'Student': '1', 'SexualOrientation': '1'}</t>
+          <t>{'SexualOrientation': '1', 'UndergradMajor': '2', 'HDI': '1', 'Student': '1'}</t>
         </is>
       </c>
       <c r="B279" t="n">
-        <v>11569</v>
+        <v>12226</v>
       </c>
       <c r="C279" t="n">
-        <v>10611.30884838348</v>
+        <v>16838.84509076148</v>
       </c>
       <c r="D279" t="n">
-        <v>-2351.940652538664</v>
+        <v>3875.595589839329</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>{'Gender': '1', 'HDI': '1', 'Student': '1', 'SexualOrientation': '1'}</t>
+          <t>{'SexualOrientation': '1', 'Gender': '1', 'DevType': '2', 'Student': '1'}</t>
         </is>
       </c>
       <c r="B280" t="n">
-        <v>19043</v>
+        <v>13722</v>
       </c>
       <c r="C280" t="n">
-        <v>7319.305231565133</v>
+        <v>9804.928815048876</v>
       </c>
       <c r="D280" t="n">
-        <v>-5643.944269357013</v>
+        <v>-3158.32068587327</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>{'Gender': '1', 'GDP': '1', 'Student': '1', 'SexualOrientation': '1'}</t>
+          <t>{'Gender': '1', 'HDI': '1', 'DevType': '2', 'Student': '1'}</t>
         </is>
       </c>
       <c r="B281" t="n">
-        <v>10895</v>
+        <v>12583</v>
       </c>
       <c r="C281" t="n">
-        <v>6385.644303337206</v>
+        <v>9599.403755866628</v>
       </c>
       <c r="D281" t="n">
-        <v>-6577.60519758494</v>
+        <v>-3363.845745055518</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>{'Gender': '1', 'Student': '1', 'SexualOrientation': '1', 'GINI': '2'}</t>
+          <t>{'SexualOrientation': '1', 'HDI': '1', 'DevType': '2', 'Student': '1'}</t>
         </is>
       </c>
       <c r="B282" t="n">
-        <v>10718</v>
+        <v>12424</v>
       </c>
       <c r="C282" t="n">
-        <v>8667.897643247217</v>
+        <v>8733.173901168526</v>
       </c>
       <c r="D282" t="n">
-        <v>-4295.351857674928</v>
+        <v>-4230.07559975362</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>{'Gender': '1', 'Dependents': '2', 'HDI': '1', 'Student': '1'}</t>
+          <t>{'SexualOrientation': '1', 'Gender': '1', 'Student': '1', 'HoursComputer': '2'}</t>
         </is>
       </c>
       <c r="B283" t="n">
-        <v>13214</v>
+        <v>12492</v>
       </c>
       <c r="C283" t="n">
-        <v>11053.47112318311</v>
+        <v>9855.913695876399</v>
       </c>
       <c r="D283" t="n">
-        <v>-1909.778377739036</v>
+        <v>-3107.335805045746</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>{'Gender': '1', 'Age': '3', 'HDI': '1', 'Student': '1'}</t>
+          <t>{'Student': '1', 'Gender': '1', 'HDI': '1', 'HoursComputer': '2'}</t>
         </is>
       </c>
       <c r="B284" t="n">
-        <v>10200</v>
+        <v>11326</v>
       </c>
       <c r="C284" t="n">
-        <v>8293.707229763884</v>
+        <v>10365.24375353907</v>
       </c>
       <c r="D284" t="n">
-        <v>-4669.542271158261</v>
+        <v>-2598.005747383078</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>{'Gender': '1', 'GDP': '1', 'Student': '1', 'HDI': '1'}</t>
+          <t>{'SexualOrientation': '1', 'HDI': '1', 'Student': '1', 'HoursComputer': '2'}</t>
         </is>
       </c>
       <c r="B285" t="n">
-        <v>11483</v>
+        <v>11301</v>
       </c>
       <c r="C285" t="n">
-        <v>6031.316106963518</v>
+        <v>7908.810306594324</v>
       </c>
       <c r="D285" t="n">
-        <v>-6931.933393958628</v>
+        <v>-5054.439194327821</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>{'Dependents': '2', 'Student': '1', 'SexualOrientation': '1', 'HDI': '1'}</t>
+          <t>{'SexualOrientation': '1', 'Gender': '1', 'Dependents': '2', 'Student': '1'}</t>
         </is>
       </c>
       <c r="B286" t="n">
-        <v>13157</v>
+        <v>14334</v>
       </c>
       <c r="C286" t="n">
-        <v>10929.63710909037</v>
+        <v>11251.35798416355</v>
       </c>
       <c r="D286" t="n">
-        <v>-2033.612391831773</v>
+        <v>-1711.891516758591</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>{'Age': '3', 'HDI': '1', 'Student': '1', 'SexualOrientation': '1'}</t>
+          <t>{'SexualOrientation': '1', 'Gender': '1', 'Continent': '1', 'Student': '1'}</t>
         </is>
       </c>
       <c r="B287" t="n">
-        <v>10259</v>
+        <v>10513</v>
       </c>
       <c r="C287" t="n">
-        <v>9984.611591327068</v>
+        <v>5661.757755795161</v>
       </c>
       <c r="D287" t="n">
-        <v>-2978.637909595078</v>
+        <v>-7301.491745126985</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>{'GDP': '1', 'Student': '1', 'SexualOrientation': '1', 'HDI': '1'}</t>
+          <t>{'SexualOrientation': '1', 'Gender': '1', 'Age': '3', 'Student': '1'}</t>
         </is>
       </c>
       <c r="B288" t="n">
-        <v>11420</v>
+        <v>11569</v>
       </c>
       <c r="C288" t="n">
-        <v>6289.75820504712</v>
+        <v>10611.30884838348</v>
       </c>
       <c r="D288" t="n">
-        <v>-6673.491295875026</v>
+        <v>-2351.940652538664</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>{'Gender': '1', 'FormalEducation': '1', 'HDI': '1', 'SexualOrientation': '1'}</t>
+          <t>{'SexualOrientation': '1', 'Gender': '1', 'HDI': '1', 'Student': '1'}</t>
         </is>
       </c>
       <c r="B289" t="n">
-        <v>10233</v>
+        <v>19043</v>
       </c>
       <c r="C289" t="n">
-        <v>-1264.467396400763</v>
+        <v>7319.305231565133</v>
       </c>
       <c r="D289" t="n">
-        <v>-14227.71689732291</v>
+        <v>-5643.944269357013</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>{'Gender': '1', 'UndergradMajor': '2', 'DevType': '2', 'SexualOrientation': '1'}</t>
+          <t>{'SexualOrientation': '1', 'Gender': '1', 'GDP': '1', 'Student': '1'}</t>
         </is>
       </c>
       <c r="B290" t="n">
-        <v>10385</v>
+        <v>10895</v>
       </c>
       <c r="C290" t="n">
-        <v>18849.66183985911</v>
+        <v>6385.644303337206</v>
       </c>
       <c r="D290" t="n">
-        <v>5886.412338936967</v>
+        <v>-6577.60519758494</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>{'Gender': '1', 'UndergradMajor': '2', 'Dependents': '2', 'SexualOrientation': '1'}</t>
+          <t>{'GINI': '2', 'Gender': '1', 'SexualOrientation': '1', 'Student': '1'}</t>
         </is>
       </c>
       <c r="B291" t="n">
-        <v>11243</v>
+        <v>10718</v>
       </c>
       <c r="C291" t="n">
-        <v>20320.01848948933</v>
+        <v>8667.897643247217</v>
       </c>
       <c r="D291" t="n">
-        <v>7356.768988567186</v>
+        <v>-4295.351857674928</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>{'Gender': '1', 'UndergradMajor': '2', 'HDI': '1', 'SexualOrientation': '1'}</t>
+          <t>{'Dependents': '2', 'Gender': '1', 'HDI': '1', 'Student': '1'}</t>
         </is>
       </c>
       <c r="B292" t="n">
-        <v>13686</v>
+        <v>13214</v>
       </c>
       <c r="C292" t="n">
-        <v>18582.05084343681</v>
+        <v>11053.47112318311</v>
       </c>
       <c r="D292" t="n">
-        <v>5618.801342514664</v>
+        <v>-1909.778377739036</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>{'Gender': '1', 'UndergradMajor': '2', 'Dependents': '2', 'HDI': '1'}</t>
+          <t>{'Gender': '1', 'HDI': '1', 'Age': '3', 'Student': '1'}</t>
         </is>
       </c>
       <c r="B293" t="n">
-        <v>10150</v>
+        <v>10200</v>
       </c>
       <c r="C293" t="n">
-        <v>20488.43439541452</v>
+        <v>8293.707229763884</v>
       </c>
       <c r="D293" t="n">
-        <v>7525.184894492369</v>
+        <v>-4669.542271158261</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>{'Gender': '1', 'Dependents': '2', 'DevType': '2', 'SexualOrientation': '1'}</t>
+          <t>{'Gender': '1', 'GDP': '1', 'HDI': '1', 'Student': '1'}</t>
         </is>
       </c>
       <c r="B294" t="n">
-        <v>10618</v>
+        <v>11483</v>
       </c>
       <c r="C294" t="n">
-        <v>11748.70437139178</v>
+        <v>6031.316106963518</v>
       </c>
       <c r="D294" t="n">
-        <v>-1214.545129530365</v>
+        <v>-6931.933393958628</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>{'Gender': '1', 'HDI': '1', 'DevType': '2', 'SexualOrientation': '1'}</t>
+          <t>{'SexualOrientation': '1', 'HDI': '1', 'Dependents': '2', 'Student': '1'}</t>
         </is>
       </c>
       <c r="B295" t="n">
-        <v>13462</v>
+        <v>13157</v>
       </c>
       <c r="C295" t="n">
-        <v>9208.81756933153</v>
+        <v>10929.63710909037</v>
       </c>
       <c r="D295" t="n">
-        <v>-3754.431931590616</v>
+        <v>-2033.612391831773</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>{'Gender': '1', 'HoursComputer': '2', 'HDI': '1', 'SexualOrientation': '1'}</t>
+          <t>{'SexualOrientation': '1', 'Age': '3', 'HDI': '1', 'Student': '1'}</t>
         </is>
       </c>
       <c r="B296" t="n">
-        <v>12205</v>
+        <v>10259</v>
       </c>
       <c r="C296" t="n">
-        <v>9304.05159120274</v>
+        <v>9984.611591327068</v>
       </c>
       <c r="D296" t="n">
-        <v>-3659.197909719405</v>
+        <v>-2978.637909595078</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>{'Gender': '1', 'Dependents': '2', 'SexualOrientation': '1', 'HDI': '1'}</t>
+          <t>{'SexualOrientation': '1', 'GDP': '1', 'HDI': '1', 'Student': '1'}</t>
         </is>
       </c>
       <c r="B297" t="n">
-        <v>14691</v>
+        <v>11420</v>
       </c>
       <c r="C297" t="n">
-        <v>11902.70099059148</v>
+        <v>6289.75820504712</v>
       </c>
       <c r="D297" t="n">
-        <v>-1060.548510330666</v>
+        <v>-6673.491295875026</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>{'Gender': '1', 'SexualOrientation': '1', 'HDI': '1', 'Continent': '1'}</t>
+          <t>{'SexualOrientation': '1', 'FormalEducation': '1', 'HDI': '1', 'Gender': '1'}</t>
         </is>
       </c>
       <c r="B298" t="n">
-        <v>10556</v>
+        <v>10233</v>
       </c>
       <c r="C298" t="n">
-        <v>6300.966143725693</v>
+        <v>-1264.467396400763</v>
       </c>
       <c r="D298" t="n">
-        <v>-6662.283357196453</v>
+        <v>-14227.71689732291</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>{'Gender': '1', 'SexualOrientation': '1', 'GDP': '1', 'Continent': '1'}</t>
+          <t>{'SexualOrientation': '1', 'Gender': '1', 'UndergradMajor': '2', 'DevType': '2'}</t>
         </is>
       </c>
       <c r="B299" t="n">
-        <v>10556</v>
+        <v>10385</v>
       </c>
       <c r="C299" t="n">
-        <v>6300.966143725693</v>
+        <v>18849.66183985911</v>
       </c>
       <c r="D299" t="n">
-        <v>-6662.283357196453</v>
+        <v>5886.412338936967</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>{'Gender': '1', 'Age': '3', 'HDI': '1', 'SexualOrientation': '1'}</t>
+          <t>{'SexualOrientation': '1', 'Gender': '1', 'UndergradMajor': '2', 'Dependents': '2'}</t>
         </is>
       </c>
       <c r="B300" t="n">
-        <v>10794</v>
+        <v>11243</v>
       </c>
       <c r="C300" t="n">
-        <v>8597.022386524073</v>
+        <v>20320.01848948933</v>
       </c>
       <c r="D300" t="n">
-        <v>-4366.227114398072</v>
+        <v>7356.768988567186</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>{'Gender': '1', 'GDP': '1', 'SexualOrientation': '1', 'HDI': '1'}</t>
+          <t>{'SexualOrientation': '1', 'Gender': '1', 'UndergradMajor': '2', 'HDI': '1'}</t>
         </is>
       </c>
       <c r="B301" t="n">
-        <v>12923</v>
+        <v>13686</v>
       </c>
       <c r="C301" t="n">
-        <v>8208.103376689565</v>
+        <v>18582.05084343681</v>
       </c>
       <c r="D301" t="n">
-        <v>-4755.14612423258</v>
+        <v>5618.801342514664</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>{'GINI': '1', 'Gender': '1', 'HDI': '1', 'SexualOrientation': '1'}</t>
+          <t>{'Gender': '1', 'UndergradMajor': '2', 'Dependents': '2', 'HDI': '1'}</t>
         </is>
       </c>
       <c r="B302" t="n">
-        <v>10191</v>
+        <v>10150</v>
       </c>
       <c r="C302" t="n">
-        <v>10405.01502971541</v>
+        <v>20488.43439541452</v>
       </c>
       <c r="D302" t="n">
-        <v>-2558.234471206733</v>
+        <v>7525.184894492369</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>{'GINI': '1', 'Gender': '1', 'GDP': '1', 'SexualOrientation': '1'}</t>
+          <t>{'SexualOrientation': '1', 'Gender': '1', 'Dependents': '2', 'DevType': '2'}</t>
         </is>
       </c>
       <c r="B303" t="n">
-        <v>10191</v>
+        <v>10618</v>
       </c>
       <c r="C303" t="n">
-        <v>10405.01502971541</v>
+        <v>11748.70437139178</v>
       </c>
       <c r="D303" t="n">
-        <v>-2558.234471206733</v>
+        <v>-1214.545129530365</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>{'Gender': '1', 'GDP': '1', 'Continent': '1', 'HDI': '1'}</t>
+          <t>{'SexualOrientation': '1', 'Gender': '1', 'HDI': '1', 'DevType': '2'}</t>
         </is>
       </c>
       <c r="B304" t="n">
-        <v>11152</v>
+        <v>13462</v>
       </c>
       <c r="C304" t="n">
-        <v>6542.07922066555</v>
+        <v>9208.81756933153</v>
       </c>
       <c r="D304" t="n">
-        <v>-6421.170280256596</v>
+        <v>-3754.431931590616</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>{'GINI': '1', 'Gender': '1', 'GDP': '1', 'HDI': '1'}</t>
+          <t>{'SexualOrientation': '1', 'Gender': '1', 'HDI': '1', 'HoursComputer': '2'}</t>
         </is>
       </c>
       <c r="B305" t="n">
-        <v>10822</v>
+        <v>12205</v>
       </c>
       <c r="C305" t="n">
-        <v>10095.107056311</v>
+        <v>9304.05159120274</v>
       </c>
       <c r="D305" t="n">
-        <v>-2868.142444611143</v>
+        <v>-3659.197909719405</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>{'SexualOrientation': '1', 'GDP': '1', 'Continent': '1', 'HDI': '1'}</t>
+          <t>{'SexualOrientation': '1', 'Gender': '1', 'HDI': '1', 'Dependents': '2'}</t>
         </is>
       </c>
       <c r="B306" t="n">
-        <v>11026</v>
+        <v>14691</v>
       </c>
       <c r="C306" t="n">
-        <v>6956.489860805687</v>
+        <v>11902.70099059148</v>
       </c>
       <c r="D306" t="n">
-        <v>-6006.759640116458</v>
+        <v>-1060.548510330666</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>{'GINI': '1', 'GDP': '1', 'SexualOrientation': '1', 'HDI': '1'}</t>
+          <t>{'SexualOrientation': '1', 'Gender': '1', 'HDI': '1', 'Continent': '1'}</t>
         </is>
       </c>
       <c r="B307" t="n">
-        <v>10707</v>
+        <v>10556</v>
       </c>
       <c r="C307" t="n">
-        <v>10347.75562526452</v>
+        <v>6300.966143725693</v>
       </c>
       <c r="D307" t="n">
-        <v>-2615.493875657628</v>
+        <v>-6662.283357196453</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>{'GINI': '2', 'HDI': '1', 'Continent': '2', 'GDP': '2'}</t>
+          <t>{'SexualOrientation': '1', 'Gender': '1', 'GDP': '1', 'Continent': '1'}</t>
         </is>
       </c>
       <c r="B308" t="n">
-        <v>10476</v>
+        <v>10556</v>
       </c>
       <c r="C308" t="n">
-        <v>15675.23593576647</v>
+        <v>6300.966143725693</v>
       </c>
       <c r="D308" t="n">
-        <v>2711.986434844323</v>
+        <v>-6662.283357196453</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>{'Hobby': '1', 'SexualOrientation': '1', 'Gender': '1', 'UndergradMajor': '2', 'Student': '1'}</t>
+          <t>{'SexualOrientation': '1', 'Gender': '1', 'HDI': '1', 'Continent': '2'}</t>
         </is>
       </c>
       <c r="B309" t="n">
-        <v>11129</v>
+        <v>10288</v>
       </c>
       <c r="C309" t="n">
-        <v>16122.72819783036</v>
+        <v>0</v>
       </c>
       <c r="D309" t="n">
-        <v>3159.478696908214</v>
+        <v>-12963.24950092215</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>{'Hobby': '1', 'Gender': '1', 'UndergradMajor': '2', 'HDI': '1', 'Student': '1'}</t>
+          <t>{'SexualOrientation': '1', 'Gender': '1', 'HDI': '1', 'Age': '3'}</t>
         </is>
       </c>
       <c r="B310" t="n">
-        <v>10257</v>
+        <v>10794</v>
       </c>
       <c r="C310" t="n">
-        <v>14775.08840161442</v>
+        <v>8597.022386524073</v>
       </c>
       <c r="D310" t="n">
-        <v>1811.838900692279</v>
+        <v>-4366.227114398072</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>{'Hobby': '1', 'SexualOrientation': '1', 'UndergradMajor': '2', 'HDI': '1', 'Student': '1'}</t>
+          <t>{'SexualOrientation': '1', 'Gender': '1', 'GDP': '1', 'HDI': '1'}</t>
         </is>
       </c>
       <c r="B311" t="n">
-        <v>10060</v>
+        <v>12923</v>
       </c>
       <c r="C311" t="n">
-        <v>12406.16740074653</v>
+        <v>8208.103376689565</v>
       </c>
       <c r="D311" t="n">
-        <v>-557.0821001756121</v>
+        <v>-4755.14612423258</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>{'Hobby': '1', 'DevType': '2', 'SexualOrientation': '1', 'Gender': '1', 'Student': '1'}</t>
+          <t>{'SexualOrientation': '1', 'Gender': '1', 'GINI': '1', 'HDI': '1'}</t>
         </is>
       </c>
       <c r="B312" t="n">
-        <v>11417</v>
+        <v>10191</v>
       </c>
       <c r="C312" t="n">
-        <v>7326.831007066071</v>
+        <v>10405.01502971541</v>
       </c>
       <c r="D312" t="n">
-        <v>-5636.418493856075</v>
+        <v>-2558.234471206733</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>{'Hobby': '1', 'DevType': '2', 'Gender': '1', 'HDI': '1', 'Student': '1'}</t>
+          <t>{'SexualOrientation': '1', 'Gender': '1', 'GINI': '1', 'GDP': '1'}</t>
         </is>
       </c>
       <c r="B313" t="n">
-        <v>10543</v>
+        <v>10191</v>
       </c>
       <c r="C313" t="n">
-        <v>6734.255537348871</v>
+        <v>10405.01502971541</v>
       </c>
       <c r="D313" t="n">
-        <v>-6228.993963573274</v>
+        <v>-2558.234471206733</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>{'Hobby': '1', 'DevType': '2', 'SexualOrientation': '1', 'HDI': '1', 'Student': '1'}</t>
+          <t>{'Gender': '1', 'GDP': '1', 'HDI': '1', 'Continent': '1'}</t>
         </is>
       </c>
       <c r="B314" t="n">
-        <v>10325</v>
+        <v>11152</v>
       </c>
       <c r="C314" t="n">
-        <v>5494.401556779696</v>
+        <v>6542.07922066555</v>
       </c>
       <c r="D314" t="n">
-        <v>-7468.84794414245</v>
+        <v>-6421.170280256596</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>{'Hobby': '1', 'SexualOrientation': '1', 'Gender': '1', 'HoursComputer': '2', 'Student': '1'}</t>
+          <t>{'Gender': '1', 'GINI': '1', 'HDI': '1', 'GDP': '1'}</t>
         </is>
       </c>
       <c r="B315" t="n">
-        <v>10454</v>
+        <v>10822</v>
       </c>
       <c r="C315" t="n">
-        <v>6930.301223516263</v>
+        <v>10095.107056311</v>
       </c>
       <c r="D315" t="n">
-        <v>-6032.948277405882</v>
+        <v>-2868.142444611143</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>{'Hobby': '1', 'SexualOrientation': '1', 'Gender': '1', 'Dependents': '2', 'Student': '1'}</t>
+          <t>{'SexualOrientation': '1', 'GDP': '1', 'HDI': '1', 'Continent': '1'}</t>
         </is>
       </c>
       <c r="B316" t="n">
-        <v>11922</v>
+        <v>11026</v>
       </c>
       <c r="C316" t="n">
-        <v>7655.432274017283</v>
+        <v>6956.489860805687</v>
       </c>
       <c r="D316" t="n">
-        <v>-5307.817226904863</v>
+        <v>-6006.759640116458</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>{'Hobby': '1', 'SexualOrientation': '1', 'Gender': '1', 'HDI': '1', 'Student': '1'}</t>
+          <t>{'SexualOrientation': '1', 'GDP': '1', 'GINI': '1', 'HDI': '1'}</t>
         </is>
       </c>
       <c r="B317" t="n">
-        <v>15779</v>
+        <v>10707</v>
       </c>
       <c r="C317" t="n">
-        <v>5234.178807957504</v>
+        <v>10347.75562526452</v>
       </c>
       <c r="D317" t="n">
-        <v>-7729.070692964642</v>
+        <v>-2615.493875657628</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>{'Hobby': '1', 'Gender': '1', 'Dependents': '2', 'Student': '1', 'HDI': '1'}</t>
+          <t>{'GINI': '2', 'HDI': '1', 'GDP': '2', 'Continent': '2'}</t>
         </is>
       </c>
       <c r="B318" t="n">
-        <v>11074</v>
+        <v>10476</v>
       </c>
       <c r="C318" t="n">
-        <v>7857.449010665899</v>
+        <v>15675.23593576647</v>
       </c>
       <c r="D318" t="n">
-        <v>-5105.800490256247</v>
+        <v>2711.986434844323</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>{'Hobby': '1', 'SexualOrientation': '1', 'Dependents': '2', 'HDI': '1', 'Student': '1'}</t>
+          <t>{'UndergradMajor': '2', 'Gender': '1', 'Student': '1', 'SexualOrientation': '1', 'Hobby': '1'}</t>
         </is>
       </c>
       <c r="B319" t="n">
-        <v>10859</v>
+        <v>11129</v>
       </c>
       <c r="C319" t="n">
-        <v>6440.684244958386</v>
+        <v>16122.72819783036</v>
       </c>
       <c r="D319" t="n">
-        <v>-6522.56525596376</v>
+        <v>3159.478696908214</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>{'Hobby': '1', 'SexualOrientation': '1', 'Gender': '1', 'UndergradMajor': '2', 'HDI': '1'}</t>
+          <t>{'UndergradMajor': '2', 'HDI': '1', 'Gender': '1', 'Student': '1', 'Hobby': '1'}</t>
         </is>
       </c>
       <c r="B320" t="n">
-        <v>11475</v>
+        <v>10257</v>
       </c>
       <c r="C320" t="n">
-        <v>15627.40667074683</v>
+        <v>14775.08840161442</v>
       </c>
       <c r="D320" t="n">
-        <v>2664.157169824684</v>
+        <v>1811.838900692279</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>{'Hobby': '1', 'DevType': '2', 'SexualOrientation': '1', 'Gender': '1', 'HDI': '1'}</t>
+          <t>{'UndergradMajor': '2', 'HDI': '1', 'Student': '1', 'SexualOrientation': '1', 'Hobby': '1'}</t>
         </is>
       </c>
       <c r="B321" t="n">
-        <v>11378</v>
+        <v>10060</v>
       </c>
       <c r="C321" t="n">
-        <v>6641.430501349512</v>
+        <v>12406.16740074653</v>
       </c>
       <c r="D321" t="n">
-        <v>-6321.818999572633</v>
+        <v>-557.0821001756121</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>{'Hobby': '1', 'SexualOrientation': '1', 'Gender': '1', 'HoursComputer': '2', 'HDI': '1'}</t>
+          <t>{'Gender': '1', 'Student': '1', 'SexualOrientation': '1', 'Hobby': '1', 'DevType': '2'}</t>
         </is>
       </c>
       <c r="B322" t="n">
-        <v>10363</v>
+        <v>11417</v>
       </c>
       <c r="C322" t="n">
-        <v>5972.683854191788</v>
+        <v>7326.831007066071</v>
       </c>
       <c r="D322" t="n">
-        <v>-6990.565646730358</v>
+        <v>-5636.418493856075</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>{'Hobby': '1', 'SexualOrientation': '1', 'Gender': '1', 'Dependents': '2', 'HDI': '1'}</t>
+          <t>{'HDI': '1', 'Gender': '1', 'Student': '1', 'Hobby': '1', 'DevType': '2'}</t>
         </is>
       </c>
       <c r="B323" t="n">
-        <v>12432</v>
+        <v>10543</v>
       </c>
       <c r="C323" t="n">
-        <v>8663.232257440744</v>
+        <v>6734.255537348871</v>
       </c>
       <c r="D323" t="n">
-        <v>-4300.017243481401</v>
+        <v>-6228.993963573274</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>{'Hobby': '1', 'SexualOrientation': '1', 'Gender': '1', 'HDI': '1', 'GDP': '1'}</t>
+          <t>{'HDI': '1', 'Student': '1', 'SexualOrientation': '1', 'Hobby': '1', 'DevType': '2'}</t>
         </is>
       </c>
       <c r="B324" t="n">
-        <v>10822</v>
+        <v>10325</v>
       </c>
       <c r="C324" t="n">
-        <v>9507.5792077927</v>
+        <v>5494.401556779696</v>
       </c>
       <c r="D324" t="n">
-        <v>-3455.670293129446</v>
+        <v>-7468.84794414245</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>{'Continent': '2', 'HDI': '1', 'GDP': '2', 'GINI': '2', 'Country': '2'}</t>
+          <t>{'HoursComputer': '2', 'Gender': '1', 'Student': '1', 'SexualOrientation': '1', 'Hobby': '1'}</t>
         </is>
       </c>
       <c r="B325" t="n">
-        <v>10476</v>
+        <v>10454</v>
       </c>
       <c r="C325" t="n">
-        <v>15675.23593576647</v>
+        <v>6930.301223516263</v>
       </c>
       <c r="D325" t="n">
-        <v>2711.986434844323</v>
+        <v>-6032.948277405882</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>{'SexualOrientation': '1', 'Gender': '1', 'UndergradMajor': '2', 'HDI': '1', 'Student': '1'}</t>
+          <t>{'Gender': '1', 'Student': '1', 'SexualOrientation': '1', 'Hobby': '1', 'Dependents': '2'}</t>
         </is>
       </c>
       <c r="B326" t="n">
-        <v>11698</v>
+        <v>11922</v>
       </c>
       <c r="C326" t="n">
-        <v>17498.30268011094</v>
+        <v>7655.432274017283</v>
       </c>
       <c r="D326" t="n">
-        <v>4535.053179188799</v>
+        <v>-5307.817226904863</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>{'DevType': '2', 'SexualOrientation': '1', 'Gender': '1', 'HDI': '1', 'Student': '1'}</t>
+          <t>{'HDI': '1', 'Gender': '1', 'Student': '1', 'SexualOrientation': '1', 'Hobby': '1'}</t>
         </is>
       </c>
       <c r="B327" t="n">
-        <v>11898</v>
+        <v>15779</v>
       </c>
       <c r="C327" t="n">
-        <v>8480.433271494661</v>
+        <v>5234.178807957504</v>
       </c>
       <c r="D327" t="n">
-        <v>-4482.816229427484</v>
+        <v>-7729.070692964642</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>{'SexualOrientation': '1', 'Gender': '1', 'HoursComputer': '2', 'HDI': '1', 'Student': '1'}</t>
+          <t>{'HDI': '1', 'Gender': '1', 'Student': '1', 'Hobby': '1', 'Dependents': '2'}</t>
         </is>
       </c>
       <c r="B328" t="n">
-        <v>10706</v>
+        <v>11074</v>
       </c>
       <c r="C328" t="n">
-        <v>8314.725608183902</v>
+        <v>7857.449010665899</v>
       </c>
       <c r="D328" t="n">
-        <v>-4648.523892738243</v>
+        <v>-5105.800490256247</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>{'SexualOrientation': '1', 'Gender': '1', 'Dependents': '2', 'Student': '1', 'HDI': '1'}</t>
+          <t>{'HDI': '1', 'Student': '1', 'SexualOrientation': '1', 'Hobby': '1', 'Dependents': '2'}</t>
         </is>
       </c>
       <c r="B329" t="n">
-        <v>12315</v>
+        <v>10859</v>
       </c>
       <c r="C329" t="n">
-        <v>9646.182946381465</v>
+        <v>6440.684244958386</v>
       </c>
       <c r="D329" t="n">
-        <v>-3317.066554540681</v>
+        <v>-6522.56525596376</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>{'SexualOrientation': '1', 'Gender': '1', 'HDI': '1', 'Student': '1', 'GDP': '1'}</t>
+          <t>{'UndergradMajor': '2', 'HDI': '1', 'Gender': '1', 'SexualOrientation': '1', 'Hobby': '1'}</t>
         </is>
       </c>
       <c r="B330" t="n">
-        <v>10895</v>
+        <v>11475</v>
       </c>
       <c r="C330" t="n">
-        <v>6385.644303337206</v>
+        <v>15627.40667074683</v>
       </c>
       <c r="D330" t="n">
-        <v>-6577.60519758494</v>
+        <v>2664.157169824684</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>{'SexualOrientation': '1', 'Gender': '1', 'Continent': '1', 'HDI': '1', 'GDP': '1'}</t>
+          <t>{'HDI': '1', 'Gender': '1', 'SexualOrientation': '1', 'Hobby': '1', 'DevType': '2'}</t>
         </is>
       </c>
       <c r="B331" t="n">
-        <v>10556</v>
+        <v>11378</v>
       </c>
       <c r="C331" t="n">
-        <v>6300.966143725693</v>
+        <v>6641.430501349512</v>
       </c>
       <c r="D331" t="n">
-        <v>-6662.283357196453</v>
+        <v>-6321.818999572633</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>{'SexualOrientation': '1', 'GINI': '1', 'Gender': '1', 'HDI': '1', 'GDP': '1'}</t>
+          <t>{'HoursComputer': '2', 'HDI': '1', 'Gender': '1', 'SexualOrientation': '1', 'Hobby': '1'}</t>
         </is>
       </c>
       <c r="B332" t="n">
-        <v>10191</v>
+        <v>10363</v>
       </c>
       <c r="C332" t="n">
-        <v>10405.01502971541</v>
+        <v>5972.683854191788</v>
       </c>
       <c r="D332" t="n">
-        <v>-2558.234471206733</v>
+        <v>-6990.565646730358</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>{'Hobby': '1', 'SexualOrientation': '1', 'Gender': '1', 'Dependents': '2', 'HDI': '1', 'Student': '1'}</t>
+          <t>{'HDI': '1', 'Gender': '1', 'SexualOrientation': '1', 'Hobby': '1', 'Dependents': '2'}</t>
         </is>
       </c>
       <c r="B333" t="n">
+        <v>12432</v>
+      </c>
+      <c r="C333" t="n">
+        <v>8663.232257440744</v>
+      </c>
+      <c r="D333" t="n">
+        <v>-4300.017243481401</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>{'HDI': '1', 'Gender': '1', 'SexualOrientation': '1', 'GDP': '1', 'Hobby': '1'}</t>
+        </is>
+      </c>
+      <c r="B334" t="n">
+        <v>10822</v>
+      </c>
+      <c r="C334" t="n">
+        <v>9507.5792077927</v>
+      </c>
+      <c r="D334" t="n">
+        <v>-3455.670293129446</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>{'Country': '2', 'GINI': '2', 'HDI': '1', 'GDP': '2', 'Continent': '2'}</t>
+        </is>
+      </c>
+      <c r="B335" t="n">
+        <v>10476</v>
+      </c>
+      <c r="C335" t="n">
+        <v>15675.23593576647</v>
+      </c>
+      <c r="D335" t="n">
+        <v>2711.986434844323</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>{'UndergradMajor': '2', 'HDI': '1', 'Gender': '1', 'Student': '1', 'SexualOrientation': '1'}</t>
+        </is>
+      </c>
+      <c r="B336" t="n">
+        <v>11698</v>
+      </c>
+      <c r="C336" t="n">
+        <v>17498.30268011094</v>
+      </c>
+      <c r="D336" t="n">
+        <v>4535.053179188799</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>{'HDI': '1', 'Gender': '1', 'Student': '1', 'SexualOrientation': '1', 'DevType': '2'}</t>
+        </is>
+      </c>
+      <c r="B337" t="n">
+        <v>11898</v>
+      </c>
+      <c r="C337" t="n">
+        <v>8480.433271494661</v>
+      </c>
+      <c r="D337" t="n">
+        <v>-4482.816229427484</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>{'HoursComputer': '2', 'HDI': '1', 'Gender': '1', 'Student': '1', 'SexualOrientation': '1'}</t>
+        </is>
+      </c>
+      <c r="B338" t="n">
+        <v>10706</v>
+      </c>
+      <c r="C338" t="n">
+        <v>8314.725608183902</v>
+      </c>
+      <c r="D338" t="n">
+        <v>-4648.523892738243</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>{'HDI': '1', 'Gender': '1', 'Student': '1', 'SexualOrientation': '1', 'Dependents': '2'}</t>
+        </is>
+      </c>
+      <c r="B339" t="n">
+        <v>12315</v>
+      </c>
+      <c r="C339" t="n">
+        <v>9646.182946381465</v>
+      </c>
+      <c r="D339" t="n">
+        <v>-3317.066554540681</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>{'HDI': '1', 'Gender': '1', 'Student': '1', 'SexualOrientation': '1', 'GDP': '1'}</t>
+        </is>
+      </c>
+      <c r="B340" t="n">
+        <v>10895</v>
+      </c>
+      <c r="C340" t="n">
+        <v>6385.644303337206</v>
+      </c>
+      <c r="D340" t="n">
+        <v>-6577.60519758494</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>{'HDI': '1', 'Continent': '1', 'Gender': '1', 'SexualOrientation': '1', 'GDP': '1'}</t>
+        </is>
+      </c>
+      <c r="B341" t="n">
+        <v>10556</v>
+      </c>
+      <c r="C341" t="n">
+        <v>6300.966143725693</v>
+      </c>
+      <c r="D341" t="n">
+        <v>-6662.283357196453</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>{'GINI': '1', 'HDI': '1', 'Gender': '1', 'SexualOrientation': '1', 'GDP': '1'}</t>
+        </is>
+      </c>
+      <c r="B342" t="n">
+        <v>10191</v>
+      </c>
+      <c r="C342" t="n">
+        <v>10405.01502971541</v>
+      </c>
+      <c r="D342" t="n">
+        <v>-2558.234471206733</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>{'HDI': '1', 'Gender': '1', 'Student': '1', 'SexualOrientation': '1', 'Hobby': '1', 'Dependents': '2'}</t>
+        </is>
+      </c>
+      <c r="B343" t="n">
         <v>10312</v>
       </c>
-      <c r="C333" t="n">
+      <c r="C343" t="n">
         <v>5719.740204647665</v>
       </c>
-      <c r="D333" t="n">
+      <c r="D343" t="n">
         <v>-7243.509296274481</v>
       </c>
     </row>
